--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitLab\carbomica-personal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\carbomica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24059A3A-425F-4023-9496-119BB0642106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C819E1-6C7D-4A22-851E-EEBC5DAA4FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>aga-khan_hosp_KE</t>
   </si>
@@ -63,54 +63,6 @@
     <t>chitse_rhcc_ZW</t>
   </si>
   <si>
-    <t>SC1_energy</t>
-  </si>
-  <si>
-    <t>SC1_travel</t>
-  </si>
-  <si>
-    <t>SC1_refrigerants</t>
-  </si>
-  <si>
-    <t>SC1_waste</t>
-  </si>
-  <si>
-    <t>SC1_anaesthetic</t>
-  </si>
-  <si>
-    <t>SC2_electricity</t>
-  </si>
-  <si>
-    <t>SC2_heat</t>
-  </si>
-  <si>
-    <t>SC3_energy</t>
-  </si>
-  <si>
-    <t>SC3_refrigerants</t>
-  </si>
-  <si>
-    <t>SC3_travel</t>
-  </si>
-  <si>
-    <t>SC3_business</t>
-  </si>
-  <si>
-    <t>SC3_water</t>
-  </si>
-  <si>
-    <t>SC3_waste</t>
-  </si>
-  <si>
-    <t>SC3_logistics</t>
-  </si>
-  <si>
-    <t>SC3_inhalers</t>
-  </si>
-  <si>
-    <t>SC3_supply</t>
-  </si>
-  <si>
     <t>facilities</t>
   </si>
   <si>
@@ -139,6 +91,9 @@
   </si>
   <si>
     <t>local_procure</t>
+  </si>
+  <si>
+    <t>co2e_emissions</t>
   </si>
 </sst>
 </file>
@@ -504,89 +459,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726CDC55-F78F-4D4F-AD5B-9673D5DF0E3F}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -594,71 +491,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.3648361545089376</v>
-      </c>
-      <c r="D2" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.3085315584126644</v>
-      </c>
-      <c r="E2" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.1199670386804863</v>
-      </c>
-      <c r="F2" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.71156166265297227</v>
-      </c>
-      <c r="G2" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.4380444980961649</v>
-      </c>
-      <c r="H2" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.2627627345141796</v>
-      </c>
-      <c r="I2" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.6372988637037533</v>
-      </c>
-      <c r="J2" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.8458941734595244</v>
-      </c>
-      <c r="K2" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.56377880722033202</v>
-      </c>
-      <c r="L2" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.8548962675010645</v>
-      </c>
-      <c r="M2" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.0241336335897024</v>
-      </c>
-      <c r="N2" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.8956045221517663</v>
-      </c>
-      <c r="O2" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.132386683105425</v>
-      </c>
-      <c r="P2" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.41438748322662888</v>
-      </c>
-      <c r="Q2" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.80364507773830784</v>
-      </c>
-      <c r="R2" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.20865976430024036</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1.2326984530234453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -666,71 +502,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.4048703327960221</v>
-      </c>
-      <c r="D3" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.2564227912697934</v>
-      </c>
-      <c r="E3" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.5612118728417776</v>
-      </c>
-      <c r="F3" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.8495505571969616</v>
-      </c>
-      <c r="G3" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.19775972249368601</v>
-      </c>
-      <c r="H3" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.0753632247120728</v>
-      </c>
-      <c r="I3" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.1803473132908033</v>
-      </c>
-      <c r="J3" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.7094107458771699</v>
-      </c>
-      <c r="K3" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>7.7539196414455946E-2</v>
-      </c>
-      <c r="L3" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.1018784154008028</v>
-      </c>
-      <c r="M3" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.4375419102775666</v>
-      </c>
-      <c r="N3" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.8533356821437037</v>
-      </c>
-      <c r="O3" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.37415456003949643</v>
-      </c>
-      <c r="P3" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>5.3476758389487955E-2</v>
-      </c>
-      <c r="Q3" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.4283604056788004</v>
-      </c>
-      <c r="R3" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.62333303469322254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.39479588511188046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -738,71 +513,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.983042646723125</v>
-      </c>
-      <c r="D4" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.37024340831739577</v>
-      </c>
-      <c r="E4" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.4951717061155185</v>
-      </c>
-      <c r="F4" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.8687536234546451E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.8061924737398565</v>
-      </c>
-      <c r="H4" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.4465308883515198</v>
-      </c>
-      <c r="I4" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.6671768902816346</v>
-      </c>
-      <c r="J4" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.3779185878877493</v>
-      </c>
-      <c r="K4" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.59246313638620518</v>
-      </c>
-      <c r="L4" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.6553369488181013</v>
-      </c>
-      <c r="M4" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.81896123113917407</v>
-      </c>
-      <c r="N4" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>8.1908809652645687E-2</v>
-      </c>
-      <c r="O4" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.3858983114362164</v>
-      </c>
-      <c r="P4" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.0512761986938446</v>
-      </c>
-      <c r="Q4" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.4942301659493085</v>
-      </c>
-      <c r="R4" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.1757159363483374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>5.0532408204755628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -810,71 +524,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.5786670416000368</v>
-      </c>
-      <c r="D5" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.6015014993138239</v>
-      </c>
-      <c r="E5" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.22797120200091447</v>
-      </c>
-      <c r="F5" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.3907539232358475</v>
-      </c>
-      <c r="G5" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.2824813591029719</v>
-      </c>
-      <c r="H5" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.3534278149307419</v>
-      </c>
-      <c r="I5" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.9938963835469485</v>
-      </c>
-      <c r="J5" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.76423619995819081</v>
-      </c>
-      <c r="K5" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.91342513421049321</v>
-      </c>
-      <c r="L5" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.37112854064360223</v>
-      </c>
-      <c r="M5" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.394228919913556</v>
-      </c>
-      <c r="N5" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.6538482179055316</v>
-      </c>
-      <c r="O5" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.0636030355241863</v>
-      </c>
-      <c r="P5" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.73596344098306976</v>
-      </c>
-      <c r="Q5" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.1377653154802303</v>
-      </c>
-      <c r="R5" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.0094390578622261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1.053208013898892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -882,71 +535,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.3648706484306397</v>
-      </c>
-      <c r="D6" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.1932769179175136</v>
-      </c>
-      <c r="E6" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.83150930672298762</v>
-      </c>
-      <c r="F6" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.3688218084600875</v>
-      </c>
-      <c r="G6" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.6443799633635601</v>
-      </c>
-      <c r="H6" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.1304221756285626</v>
-      </c>
-      <c r="I6" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.2943560202997204</v>
-      </c>
-      <c r="J6" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.6982998804327081</v>
-      </c>
-      <c r="K6" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.65927223344741981</v>
-      </c>
-      <c r="L6" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.0305632453558804</v>
-      </c>
-      <c r="M6" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.7458524185883224</v>
-      </c>
-      <c r="N6" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.3504454962321835</v>
-      </c>
-      <c r="O6" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.3016800745865411</v>
-      </c>
-      <c r="P6" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.1946883478941488</v>
-      </c>
-      <c r="Q6" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.5734259420019723E-2</v>
-      </c>
-      <c r="R6" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>8.5553397525119479E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>6.8788518451239415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -954,55 +546,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>0.31438463999999999</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.0031753399999999</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.49390000000000006</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.50897999999999999</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2.4547400000000001</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0.24552849999999998</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.38708999999999999</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0.65534138668626007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1010,71 +557,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>8.6974785844516234E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.90219916695206559</v>
-      </c>
-      <c r="E8" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.2090003464231338</v>
-      </c>
-      <c r="F8" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.8126539131019621</v>
-      </c>
-      <c r="G8" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.1553241079262406</v>
-      </c>
-      <c r="H8" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.5616245753836635</v>
-      </c>
-      <c r="I8" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.5229758343410009</v>
-      </c>
-      <c r="J8" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.0468243707756386</v>
-      </c>
-      <c r="K8" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.6398195960461712</v>
-      </c>
-      <c r="L8" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.9122315517720556</v>
-      </c>
-      <c r="M8" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.876974336682514</v>
-      </c>
-      <c r="N8" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.3302171180923603</v>
-      </c>
-      <c r="O8" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.76186950409022991</v>
-      </c>
-      <c r="P8" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.7398474963229802</v>
-      </c>
-      <c r="Q8" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.1276183600399061</v>
-      </c>
-      <c r="R8" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.7311526124060848</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>5.2778604985793498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1082,68 +568,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>0.11950476503616814</v>
-      </c>
-      <c r="D9" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.6734775718876369</v>
-      </c>
-      <c r="E9" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.4532672964874656</v>
-      </c>
-      <c r="F9" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.9998039954354718</v>
-      </c>
-      <c r="G9" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.1967367348950715</v>
-      </c>
-      <c r="H9" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.410245187305152</v>
-      </c>
-      <c r="I9" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.5001160099979973</v>
-      </c>
-      <c r="J9" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.2734030013253506</v>
-      </c>
-      <c r="K9" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.298993402749625</v>
-      </c>
-      <c r="L9" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.3194053738274412</v>
-      </c>
-      <c r="M9" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.8237742457334536</v>
-      </c>
-      <c r="N9" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.3464792112899795</v>
-      </c>
-      <c r="O9" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.8059857041061513</v>
-      </c>
-      <c r="P9" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.343483679700491</v>
-      </c>
-      <c r="Q9" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>1.1309259959538009</v>
-      </c>
-      <c r="R9" s="1">
-        <f ca="1">RAND()*3</f>
-        <v>2.8444095801750984</v>
+        <v>1.1266750676982307</v>
       </c>
     </row>
   </sheetData>
@@ -1155,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB34176A-2DBB-4E55-BED7-E81047A94992}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,31 +599,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1207,35 +632,35 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">RAND()*10000</f>
-        <v>1115.4607053199938</v>
+        <v>2447.7528064080989</v>
       </c>
       <c r="C2" s="2">
         <f t="shared" ref="C2:I2" ca="1" si="0">RAND()*10000</f>
-        <v>825.54446727768016</v>
+        <v>9658.0760150432798</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2286.7569531824606</v>
+        <v>4760.0627260916108</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1072.2703022219605</v>
+        <v>2593.621271194676</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3049.9164856823736</v>
+        <v>9007.1606216288219</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2486.5028924615772</v>
+        <v>2109.4928730565689</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7007.7507087608428</v>
+        <v>3483.3941638737765</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>828.51604367972232</v>
+        <v>1821.9259710538061</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1244,35 +669,35 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:I9" ca="1" si="1">RAND()*10000</f>
-        <v>1715.8390568302473</v>
+        <v>9570.7978792704998</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6117.2402984185555</v>
+        <v>3881.1596121116286</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7098.375578196159</v>
+        <v>9606.5894863752601</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1033.4567379296832</v>
+        <v>4789.2866600554062</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5379.3233025426925</v>
+        <v>6470.6643774321838</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4634.2927528824539</v>
+        <v>4651.7011789959188</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5729.2997656127254</v>
+        <v>5433.5207028626255</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3714.8645678460057</v>
+        <v>8318.3569922804763</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1281,35 +706,35 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5022.3561988609736</v>
+        <v>9311.8972449369085</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8277.270597814615</v>
+        <v>9424.9998398584521</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6914.0755209872277</v>
+        <v>4053.6483470042926</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7437.4688302039503</v>
+        <v>7701.0276336865272</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3140.234941437765</v>
+        <v>6789.2330375681277</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6082.9999884416993</v>
+        <v>5317.366681488219</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38780982772546047</v>
+        <v>5243.7648856801325</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3105.5691193888824</v>
+        <v>9568.1385716836448</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1318,35 +743,35 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8467.2719227210637</v>
+        <v>4275.005458467399</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3790.7272706810668</v>
+        <v>5379.6975693797867</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3666.9523846659736</v>
+        <v>4427.6470785803403</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3446.0318748370332</v>
+        <v>9740.5894192899614</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9667.8650351732576</v>
+        <v>2212.7264508960975</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4359.6274849271467</v>
+        <v>1039.0510598634216</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4657.5268527732842</v>
+        <v>7553.7612232929105</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8351.9767945215553</v>
+        <v>9860.5483494752261</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1355,35 +780,35 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2587.7273357453146</v>
+        <v>6134.5934973755011</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7185.0389039771171</v>
+        <v>1693.4147151304157</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3899.9451208057658</v>
+        <v>6875.1602024720305</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9293.5392121680852</v>
+        <v>5366.9395241990551</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5333.6652660090931</v>
+        <v>8438.8491358364445</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2384.746822641911</v>
+        <v>3228.6839845803461</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5764.7137669247804</v>
+        <v>591.82365747652341</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5956.2274006231873</v>
+        <v>1144.0033081735046</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1392,35 +817,35 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>508.69130942972629</v>
+        <v>6170.3416368942944</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2056.6057921664983</v>
+        <v>4023.5092935694638</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4599.6978433348077</v>
+        <v>3028.7590579781854</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2451.9312227331193</v>
+        <v>838.51401252665437</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1479.8794360183886</v>
+        <v>7867.338450647012</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7360.3267150993079</v>
+        <v>1983.2454556056643</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2937.8263838708117</v>
+        <v>8496.1577543293188</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9954.7582430294588</v>
+        <v>4901.3646667208413</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1429,35 +854,35 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9001.1789900020849</v>
+        <v>590.83307673801653</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5647.8993703853566</v>
+        <v>929.65864852222137</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1303.2849272998569</v>
+        <v>8775.060178054624</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1660.4933038118763</v>
+        <v>9102.4531802361489</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5196.7984510687056</v>
+        <v>5472.8096640778122</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1514.5915966741063</v>
+        <v>2359.5720925855135</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2334.6741161636287</v>
+        <v>6719.3776572781617</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2268.3197812042154</v>
+        <v>8524.4387372850288</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1466,35 +891,35 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2991.8737828098283</v>
+        <v>2707.0835047961018</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9329.9891795851763</v>
+        <v>1127.0508411488056</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7283.047107690305</v>
+        <v>428.63800863845671</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3868.13113353058</v>
+        <v>1584.2095717910786</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5366.9198896605049</v>
+        <v>9584.3703899689135</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9082.3305372284376</v>
+        <v>2205.9092215974752</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2190.0361148185043</v>
+        <v>6115.0503368839127</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>239.2671460982987</v>
+        <v>8555.9659487961908</v>
       </c>
     </row>
   </sheetData>

--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\carbomica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C819E1-6C7D-4A22-851E-EEBC5DAA4FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708F7830-A69F-4088-A07A-092EA126E28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>aga-khan_hosp_KE</t>
   </si>
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726CDC55-F78F-4D4F-AD5B-9673D5DF0E3F}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +472,7 @@
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -482,8 +482,32 @@
       <c r="C1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -493,8 +517,32 @@
       <c r="C2" s="1">
         <v>1.2326984530234453</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0.33792134495884429</v>
+      </c>
+      <c r="E2">
+        <v>0.67735511513227553</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0.12954974111110007</v>
+      </c>
+      <c r="H2">
+        <v>0.72609968404906466</v>
+      </c>
+      <c r="I2">
+        <v>0.22184458107556482</v>
+      </c>
+      <c r="J2">
+        <v>0.7685331628046782</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -504,8 +552,32 @@
       <c r="C3" s="1">
         <v>0.39479588511188046</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0.33792134495884429</v>
+      </c>
+      <c r="E3">
+        <v>0.67735511513227553</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.12954974111110007</v>
+      </c>
+      <c r="H3">
+        <v>0.72609968404906466</v>
+      </c>
+      <c r="I3">
+        <v>0.22184458107556482</v>
+      </c>
+      <c r="J3">
+        <v>0.7685331628046782</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -515,8 +587,32 @@
       <c r="C4" s="1">
         <v>5.0532408204755628</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0.33792134495884429</v>
+      </c>
+      <c r="E4">
+        <v>0.67735511513227553</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.12954974111110007</v>
+      </c>
+      <c r="H4">
+        <v>0.72609968404906466</v>
+      </c>
+      <c r="I4">
+        <v>0.22184458107556482</v>
+      </c>
+      <c r="J4">
+        <v>0.7685331628046782</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -526,8 +622,32 @@
       <c r="C5" s="1">
         <v>1.053208013898892</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0.33792134495884429</v>
+      </c>
+      <c r="E5">
+        <v>0.67735511513227553</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.12954974111110007</v>
+      </c>
+      <c r="H5">
+        <v>0.72609968404906466</v>
+      </c>
+      <c r="I5">
+        <v>0.22184458107556482</v>
+      </c>
+      <c r="J5">
+        <v>0.7685331628046782</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -537,8 +657,32 @@
       <c r="C6" s="1">
         <v>6.8788518451239415</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0.33792134495884429</v>
+      </c>
+      <c r="E6">
+        <v>0.67735511513227553</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.12954974111110007</v>
+      </c>
+      <c r="H6">
+        <v>0.72609968404906466</v>
+      </c>
+      <c r="I6">
+        <v>0.22184458107556482</v>
+      </c>
+      <c r="J6">
+        <v>0.7685331628046782</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -548,8 +692,32 @@
       <c r="C7" s="1">
         <v>7.06</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0.33792134495884429</v>
+      </c>
+      <c r="E7">
+        <v>0.67735511513227553</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.12954974111110007</v>
+      </c>
+      <c r="H7">
+        <v>0.72609968404906466</v>
+      </c>
+      <c r="I7">
+        <v>0.22184458107556482</v>
+      </c>
+      <c r="J7">
+        <v>0.7685331628046782</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -559,8 +727,32 @@
       <c r="C8" s="1">
         <v>5.2778604985793498</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0.33792134495884429</v>
+      </c>
+      <c r="E8">
+        <v>0.67735511513227553</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.12954974111110007</v>
+      </c>
+      <c r="H8">
+        <v>0.72609968404906466</v>
+      </c>
+      <c r="I8">
+        <v>0.22184458107556482</v>
+      </c>
+      <c r="J8">
+        <v>0.7685331628046782</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -569,6 +761,30 @@
       </c>
       <c r="C9" s="1">
         <v>1.1266750676982307</v>
+      </c>
+      <c r="D9">
+        <v>0.33792134495884429</v>
+      </c>
+      <c r="E9">
+        <v>0.67735511513227553</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.12954974111110007</v>
+      </c>
+      <c r="H9">
+        <v>0.72609968404906466</v>
+      </c>
+      <c r="I9">
+        <v>0.22184458107556482</v>
+      </c>
+      <c r="J9">
+        <v>0.7685331628046782</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -580,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB34176A-2DBB-4E55-BED7-E81047A94992}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,36 +847,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">RAND()*10000</f>
-        <v>2447.7528064080989</v>
+        <v>6170.3416368941998</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:I2" ca="1" si="0">RAND()*10000</f>
-        <v>9658.0760150432798</v>
+        <v>4023.5092935694001</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4760.0627260916108</v>
+        <v>600</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2593.621271194676</v>
+        <v>8380.5140125266007</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>9007.1606216288219</v>
+        <v>7867.3384506470002</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2109.4928730565689</v>
+        <v>1983.2454556056</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3483.3941638737765</v>
+        <v>8496.1577543293006</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1821.9259710538061</v>
+        <v>4901.3646667208413</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -668,36 +876,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:I9" ca="1" si="1">RAND()*10000</f>
-        <v>9570.7978792704998</v>
+        <v>6170.3416368941998</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>3881.1596121116286</v>
+        <v>4023.5092935694001</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>9606.5894863752601</v>
+        <v>600</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>4789.2866600554062</v>
+        <v>8380.5140125266007</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>6470.6643774321838</v>
+        <v>7867.3384506470002</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>4651.7011789959188</v>
+        <v>1983.2454556056</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>5433.5207028626255</v>
+        <v>8496.1577543293006</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>8318.3569922804763</v>
+        <v>4901.3646667208413</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -705,36 +905,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>9311.8972449369085</v>
+        <v>6170.3416368941998</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>9424.9998398584521</v>
+        <v>4023.5092935694001</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>4053.6483470042926</v>
+        <v>600</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>7701.0276336865272</v>
+        <v>8380.5140125266007</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>6789.2330375681277</v>
+        <v>7867.3384506470002</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>5317.366681488219</v>
+        <v>1983.2454556056</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>5243.7648856801325</v>
+        <v>8496.1577543293006</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>9568.1385716836448</v>
+        <v>4901.3646667208413</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -742,36 +934,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>4275.005458467399</v>
+        <v>6170.3416368941998</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>5379.6975693797867</v>
+        <v>4023.5092935694001</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>4427.6470785803403</v>
+        <v>600</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>9740.5894192899614</v>
+        <v>8380.5140125266007</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2212.7264508960975</v>
+        <v>7867.3384506470002</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1039.0510598634216</v>
+        <v>1983.2454556056</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>7553.7612232929105</v>
+        <v>8496.1577543293006</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>9860.5483494752261</v>
+        <v>4901.3646667208413</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -779,36 +963,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>6134.5934973755011</v>
+        <v>6170.3416368941998</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1693.4147151304157</v>
+        <v>4023.5092935694001</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>6875.1602024720305</v>
+        <v>600</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>5366.9395241990551</v>
+        <v>8380.5140125266007</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>8438.8491358364445</v>
+        <v>7867.3384506470002</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>3228.6839845803461</v>
+        <v>1983.2454556056</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>591.82365747652341</v>
+        <v>8496.1577543293006</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1144.0033081735046</v>
+        <v>4901.3646667208413</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -816,35 +992,27 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>6170.3416368942944</v>
+        <v>6170.3416368941998</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>4023.5092935694638</v>
+        <v>4023.5092935694001</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>3028.7590579781854</v>
+        <v>600</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>838.51401252665437</v>
+        <v>8380.5140125266007</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>7867.338450647012</v>
+        <v>7867.3384506470002</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1983.2454556056643</v>
+        <v>1983.2454556056</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>8496.1577543293188</v>
+        <v>8496.1577543293006</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" ca="1" si="1"/>
         <v>4901.3646667208413</v>
       </c>
     </row>
@@ -853,36 +1021,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>590.83307673801653</v>
+        <v>6170.3416368941998</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>929.65864852222137</v>
+        <v>4023.5092935694001</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>8775.060178054624</v>
+        <v>600</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>9102.4531802361489</v>
+        <v>8380.5140125266007</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>5472.8096640778122</v>
+        <v>7867.3384506470002</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2359.5720925855135</v>
+        <v>1983.2454556056</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>6719.3776572781617</v>
+        <v>8496.1577543293006</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>8524.4387372850288</v>
+        <v>4901.3646667208413</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -890,36 +1050,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2707.0835047961018</v>
+        <v>6170.3416368941998</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1127.0508411488056</v>
+        <v>4023.5092935694001</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>428.63800863845671</v>
+        <v>600</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1584.2095717910786</v>
+        <v>8380.5140125266007</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>9584.3703899689135</v>
+        <v>7867.3384506470002</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2205.9092215974752</v>
+        <v>1983.2454556056</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>6115.0503368839127</v>
+        <v>8496.1577543293006</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>8555.9659487961908</v>
+        <v>4901.3646667208413</v>
       </c>
     </row>
   </sheetData>

--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\carbomica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708F7830-A69F-4088-A07A-092EA126E28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A25DFC-4F1D-4F12-BEE6-4E6AE8F6A8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>aga-khan_hosp_KE</t>
   </si>
@@ -94,6 +94,30 @@
   </si>
   <si>
     <t>co2e_emissions</t>
+  </si>
+  <si>
+    <t>energy_led_effect</t>
+  </si>
+  <si>
+    <t>low_emit_mat_effect</t>
+  </si>
+  <si>
+    <t>electric_cars_effect</t>
+  </si>
+  <si>
+    <t>low_emit_gas_effect</t>
+  </si>
+  <si>
+    <t>borehole_water_effect</t>
+  </si>
+  <si>
+    <t>recycle_effect</t>
+  </si>
+  <si>
+    <t>low_emit_inhale_effect</t>
+  </si>
+  <si>
+    <t>local_procure_effect</t>
   </si>
 </sst>
 </file>
@@ -461,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726CDC55-F78F-4D4F-AD5B-9673D5DF0E3F}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,6 +494,14 @@
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -483,28 +515,28 @@
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -796,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB34176A-2DBB-4E55-BED7-E81047A94992}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\carbomica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A25DFC-4F1D-4F12-BEE6-4E6AE8F6A8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ED54C2-88AB-48EC-A000-E1586F00EE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
-    <sheet name="unit_costs" sheetId="2" r:id="rId2"/>
+    <sheet name="costs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>aga-khan_hosp_KE</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>chitse_rhcc_ZW</t>
-  </si>
-  <si>
-    <t>facilities</t>
   </si>
   <si>
     <t>facilities_number</t>
@@ -127,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +133,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -151,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -159,15 +164,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -486,7 +509,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,42 +528,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -575,7 +595,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
@@ -610,7 +630,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4">
@@ -645,7 +665,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5">
@@ -680,7 +700,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6">
@@ -715,7 +735,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7">
@@ -750,7 +770,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8">
@@ -785,7 +805,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9">
@@ -829,7 +849,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,36 +866,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -904,7 +921,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
@@ -933,7 +950,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
@@ -962,7 +979,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
@@ -991,7 +1008,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
@@ -1020,7 +1037,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
@@ -1049,7 +1066,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
@@ -1078,7 +1095,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">

--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\carbomica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ED54C2-88AB-48EC-A000-E1586F00EE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23115C62-ADAB-4BA0-94F9-9507EAE744AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>aga-khan_hosp_KE</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>local_procure_effect</t>
+  </si>
+  <si>
+    <t>facilities</t>
   </si>
 </sst>
 </file>
@@ -508,9 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726CDC55-F78F-4D4F-AD5B-9673D5DF0E3F}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -528,6 +529,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
@@ -848,9 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB34176A-2DBB-4E55-BED7-E81047A94992}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -866,6 +868,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>9</v>
       </c>

--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\carbomica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358DAD3A-A71C-4103-95EA-FF2B09CAB41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642FF202-11F4-485F-B7BA-AAB46F211A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="10" r:id="rId1"/>
@@ -42,259 +42,156 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Farah Houdroge</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F8AA601A-1E57-43AD-B4F8-07F0CE0AB12C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Farah Houdroge:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The first row and column will get updated automatically from the sheets "study sites" and "emission sources".
+Fill the table with the emission data from the AKDN tool for each facility</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Farah Houdroge</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{51C1E037-DC24-49E2-B8B5-8EE18E8E3F6F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Farah Houdroge:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Place a 'y' in the cells to designate which emission source the intervention will reduce. 
+For example, intervention_1 reduces emissions from emission_1, therefore there is a 'y' there.
+Otherwise, leave cell blank.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Farah Houdroge</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{284EE7FF-2884-4B6A-9DFA-A02B1DE8C153}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Farah Houdroge:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Specify the effect size of the intervention for each facility. For example, if intervention_1 reduces emissions from emission_1 by 80%, then the effect size is 0.80.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Farah Houdroge</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{94AB2D18-87C1-4B4B-9740-AA170EC48AFD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Farah Houdroge:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Specify the total cost for implementing the intervention by facility.
+The total cost should reflect how much money it would cost to cover the facility 100% with the intervention.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="99">
-  <si>
-    <t>aga-khan_hosp_KE</t>
-  </si>
-  <si>
-    <t>aga-khan_medi_KE</t>
-  </si>
-  <si>
-    <t>laudium_chc_SA</t>
-  </si>
-  <si>
-    <t>stanza-bopape_chc_SA</t>
-  </si>
-  <si>
-    <t>mamelodi_hosp_SA</t>
-  </si>
-  <si>
-    <t>mt-darwin_hosp_ZW</t>
-  </si>
-  <si>
-    <t>dotito_rhcc_ZW</t>
-  </si>
-  <si>
-    <t>chitse_rhcc_ZW</t>
-  </si>
-  <si>
-    <t>energy_led</t>
-  </si>
-  <si>
-    <t>low_emit_mat</t>
-  </si>
-  <si>
-    <t>electric_cars</t>
-  </si>
-  <si>
-    <t>low_emit_gas</t>
-  </si>
-  <si>
-    <t>borehole_water</t>
-  </si>
-  <si>
-    <t>recycle</t>
-  </si>
-  <si>
-    <t>low_emit_inhale</t>
-  </si>
-  <si>
-    <t>local_procure</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>facilities</t>
-  </si>
-  <si>
-    <t>SC1_energy</t>
-  </si>
-  <si>
-    <t>SC1 Building energy</t>
-  </si>
-  <si>
-    <t>SC1_travel</t>
-  </si>
-  <si>
-    <t>SC1 Travel</t>
-  </si>
-  <si>
-    <t>SC1_refrigerants</t>
-  </si>
-  <si>
-    <t>SC1 Refrigerants</t>
-  </si>
-  <si>
-    <t>SC1_waste</t>
-  </si>
-  <si>
-    <t>SC1  Waste</t>
-  </si>
-  <si>
-    <t>SC1_anaesthetic</t>
-  </si>
-  <si>
-    <t>SC1 Anaesthetic gases</t>
-  </si>
-  <si>
-    <t>SC2_electricity</t>
-  </si>
-  <si>
-    <t>SC2 Purchased and consumed grid electricity</t>
-  </si>
-  <si>
-    <t>SC2_heat</t>
-  </si>
-  <si>
-    <t>SC2 Heat networks</t>
-  </si>
-  <si>
-    <t>SC3_energy</t>
-  </si>
-  <si>
-    <t>SC3 Building energy (building not owned)</t>
-  </si>
-  <si>
-    <t>SC3_refrigerants</t>
-  </si>
-  <si>
-    <t>SC3 Refrigerants (building not owned)</t>
-  </si>
-  <si>
-    <t>SC3_travel</t>
-  </si>
-  <si>
-    <t>SC3 Travel (vehicles not owned)</t>
-  </si>
-  <si>
-    <t>SC3_business</t>
-  </si>
-  <si>
-    <t>SC3 Employee business travel-road, rail, air</t>
-  </si>
-  <si>
-    <t>SC3_water</t>
-  </si>
-  <si>
-    <t>SC3 Water</t>
-  </si>
-  <si>
-    <t>SC3_waste</t>
-  </si>
-  <si>
-    <t>SC3 Waste</t>
-  </si>
-  <si>
-    <t>SC3_logistics</t>
-  </si>
-  <si>
-    <t>SC3 Contractor logistics</t>
-  </si>
-  <si>
-    <t>SC3_inhalers</t>
-  </si>
-  <si>
-    <t>SC3 Inhalers</t>
-  </si>
-  <si>
-    <t>SC3_supply</t>
-  </si>
-  <si>
-    <t>SC3 Supply chain</t>
-  </si>
-  <si>
-    <t>Aga Khan Hospital, Kenya</t>
-  </si>
-  <si>
-    <t>Aga Khan Medical Centre, Kenya</t>
-  </si>
-  <si>
-    <t>Chitse Rural Health Care Clinic, Zimbabwe</t>
-  </si>
-  <si>
-    <t>Dotito Rural Health Care Clinic, Zimbabwe</t>
-  </si>
-  <si>
-    <t>Laudium Community Health Centre, South Africa</t>
-  </si>
-  <si>
-    <t>Mamelodi Regional Hospital, South Africa</t>
-  </si>
-  <si>
-    <t>Mt Darwin District Hospital, Zimbabwe</t>
-  </si>
-  <si>
-    <t>Stanza Bopape Community Health Centre, South Africa</t>
-  </si>
-  <si>
-    <t>Borehole water</t>
-  </si>
-  <si>
-    <t>Electric cars</t>
-  </si>
-  <si>
-    <t>Energy saving LED</t>
-  </si>
-  <si>
-    <t>Local procurements</t>
-  </si>
-  <si>
-    <t>Low emitting anesthetic gases</t>
-  </si>
-  <si>
-    <t>Low emitting inhalers</t>
-  </si>
-  <si>
-    <t>Low emitting materials</t>
-  </si>
-  <si>
-    <t>Recycling</t>
-  </si>
-  <si>
-    <t>Scope 1 emissions from fuel combustion in buildings and generators.</t>
-  </si>
-  <si>
-    <t>Scope 1 emissions from fuel use in vehicles owned, rented or leased by facility.</t>
-  </si>
-  <si>
-    <t>Scope 1 emissions from refrigerant gases leaking from, or used to top-up, air conditioning, cooling units, or walk in chillers.</t>
-  </si>
-  <si>
-    <t>Scope 1 emissions from waste incineration or burial in facility.</t>
-  </si>
-  <si>
-    <t>Scope 1 emissions from anaesthetic gas use.</t>
-  </si>
-  <si>
-    <t>Scope 2 emissions from electricty in buildings and generators.</t>
-  </si>
-  <si>
-    <t>Scope 2 emissions from heat networks in buildings and generators.</t>
-  </si>
-  <si>
-    <t>Scope 3 emissions associated with the supply of energy.</t>
-  </si>
-  <si>
-    <t>Scope 3 emissions from refrigerant gases leaking from, or used to top-up, air conditioning, cooling units, or walk in chillers.</t>
-  </si>
-  <si>
-    <t>Scope 3 emissions from fuel use in vehicles not owned, rented or leased by facility.</t>
-  </si>
-  <si>
-    <t>Scope 3 emissions from fuel use in travel for business purposes by facility staff.</t>
-  </si>
-  <si>
-    <t>Scope 3 emissions from water use.</t>
-  </si>
-  <si>
-    <t>Scope 3 emissions from waste treatment by a waste management company.</t>
-  </si>
-  <si>
-    <t>Scope 3 emissions from logistics by contractors to move goods or materials on behalf of the facility.</t>
-  </si>
-  <si>
-    <t>Scope 3 emissions from the use of dispensed or prescribed inhalers.</t>
-  </si>
-  <si>
-    <t>Scope 3 emissions from the supply chain.</t>
   </si>
   <si>
     <t>Code Name</t>
   </si>
   <si>
     <t>Display Name</t>
-  </si>
-  <si>
-    <t>Guidance</t>
   </si>
   <si>
     <t>interventions</t>
@@ -327,8 +224,35 @@
     <t>unit costs</t>
   </si>
   <si>
+    <t>facility_1</t>
+  </si>
+  <si>
+    <t>Facility 1</t>
+  </si>
+  <si>
+    <t>emission_1</t>
+  </si>
+  <si>
+    <t>Emission source 1</t>
+  </si>
+  <si>
+    <t>intervention_1</t>
+  </si>
+  <si>
+    <t>Intervention 1</t>
+  </si>
+  <si>
+    <t>The first row and column of this table get updated automatically. Fill the table with the emission data for each facility.</t>
+  </si>
+  <si>
+    <t>The first row and column of this table get updated automatically. Fill the table with 'y' where an intervention targets a specific emission source. Leave other cells blank.</t>
+  </si>
+  <si>
+    <t>The first row and column of this table get updated automatically. Specify the total cost to reach full coverage of the interventions for each facility.</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">List of emission sources of the study. </t>
+      <t xml:space="preserve">List the study sites. Example </t>
     </r>
     <r>
       <rPr>
@@ -349,7 +273,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> format: emission_source_1, </t>
+      <t xml:space="preserve"> format: facility_1, </t>
     </r>
     <r>
       <rPr>
@@ -370,12 +294,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> format: Emission Source 1</t>
+      <t xml:space="preserve"> format: Facility 1</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">List of study sites. </t>
+      <t xml:space="preserve">List the emission sources. Example </t>
     </r>
     <r>
       <rPr>
@@ -396,7 +320,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> format: study_site_1, </t>
+      <t xml:space="preserve"> format: emission_1, </t>
     </r>
     <r>
       <rPr>
@@ -417,12 +341,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> format: Study Site 1</t>
+      <t xml:space="preserve"> format: Emission 1</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">List of mitigation interventions. </t>
+      <t xml:space="preserve">List the mitigation interventions. Example </t>
     </r>
     <r>
       <rPr>
@@ -468,10 +392,7 @@
     </r>
   </si>
   <si>
-    <t>Fill table with values of emission sources per study site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fill table with 'y' </t>
+    <t>The first row and column of this table get updated automatically. Specify the effect sizes of the interventions (if an intervention reduces emissions from a specific source by 80%, then effect size = 0.80).</t>
   </si>
 </sst>
 </file>
@@ -481,7 +402,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,6 +558,19 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1003,7 +937,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1015,13 +949,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="43" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1392,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8887A0BE-470B-4175-B603-1094A296EDB0}">
   <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,65 +1335,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>95</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>94</v>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>97</v>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="10"/>
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>96</v>
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>98</v>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>92</v>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>93</v>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1485,10 +1422,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,74 +1436,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1579,10 +1460,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,189 +1474,19 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1785,14 +1496,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726CDC55-F78F-4D4F-AD5B-9673D5DF0E3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726CDC55-F78F-4D4F-AD5B-9673D5DF0E3F}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:KW309"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,71 +1528,71 @@
   <sheetData>
     <row r="1" spans="1:309" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="str">
         <f>IF('emission sources'!$A2&lt;&gt;"",'emission sources'!$A2,"")</f>
-        <v>SC1_energy</v>
+        <v>emission_1</v>
       </c>
       <c r="C1" s="2" t="str">
         <f>IF('emission sources'!$A3&lt;&gt;"",'emission sources'!$A3,"")</f>
-        <v>SC1_travel</v>
+        <v/>
       </c>
       <c r="D1" s="2" t="str">
         <f>IF('emission sources'!$A4&lt;&gt;"",'emission sources'!$A4,"")</f>
-        <v>SC1_refrigerants</v>
+        <v/>
       </c>
       <c r="E1" s="2" t="str">
         <f>IF('emission sources'!$A5&lt;&gt;"",'emission sources'!$A5,"")</f>
-        <v>SC1_waste</v>
+        <v/>
       </c>
       <c r="F1" s="2" t="str">
         <f>IF('emission sources'!$A6&lt;&gt;"",'emission sources'!$A6,"")</f>
-        <v>SC1_anaesthetic</v>
+        <v/>
       </c>
       <c r="G1" s="2" t="str">
         <f>IF('emission sources'!$A7&lt;&gt;"",'emission sources'!$A7,"")</f>
-        <v>SC2_electricity</v>
+        <v/>
       </c>
       <c r="H1" s="2" t="str">
         <f>IF('emission sources'!$A8&lt;&gt;"",'emission sources'!$A8,"")</f>
-        <v>SC2_heat</v>
+        <v/>
       </c>
       <c r="I1" s="2" t="str">
         <f>IF('emission sources'!$A9&lt;&gt;"",'emission sources'!$A9,"")</f>
-        <v>SC3_energy</v>
+        <v/>
       </c>
       <c r="J1" s="2" t="str">
         <f>IF('emission sources'!$A10&lt;&gt;"",'emission sources'!$A10,"")</f>
-        <v>SC3_refrigerants</v>
+        <v/>
       </c>
       <c r="K1" s="2" t="str">
         <f>IF('emission sources'!$A11&lt;&gt;"",'emission sources'!$A11,"")</f>
-        <v>SC3_travel</v>
+        <v/>
       </c>
       <c r="L1" s="2" t="str">
         <f>IF('emission sources'!$A12&lt;&gt;"",'emission sources'!$A12,"")</f>
-        <v>SC3_business</v>
+        <v/>
       </c>
       <c r="M1" s="2" t="str">
         <f>IF('emission sources'!$A13&lt;&gt;"",'emission sources'!$A13,"")</f>
-        <v>SC3_water</v>
+        <v/>
       </c>
       <c r="N1" s="2" t="str">
         <f>IF('emission sources'!$A14&lt;&gt;"",'emission sources'!$A14,"")</f>
-        <v>SC3_waste</v>
+        <v/>
       </c>
       <c r="O1" s="2" t="str">
         <f>IF('emission sources'!$A15&lt;&gt;"",'emission sources'!$A15,"")</f>
-        <v>SC3_logistics</v>
+        <v/>
       </c>
       <c r="P1" s="2" t="str">
         <f>IF('emission sources'!$A16&lt;&gt;"",'emission sources'!$A16,"")</f>
-        <v>SC3_inhalers</v>
+        <v/>
       </c>
       <c r="Q1" s="2" t="str">
         <f>IF('emission sources'!$A17&lt;&gt;"",'emission sources'!$A17,"")</f>
-        <v>SC3_supply</v>
+        <v/>
       </c>
       <c r="R1" s="2" t="str">
         <f>IF('emission sources'!$A18&lt;&gt;"",'emission sources'!$A18,"")</f>
@@ -3055,561 +2766,49 @@
     <row r="2" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>IF('study sites'!$A2&lt;&gt;"",'study sites'!$A2,"")</f>
-        <v>aga-khan_hosp_KE</v>
-      </c>
-      <c r="B2">
-        <f ca="1">RAND()*1000</f>
-        <v>373.30285432862075</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:Q2" ca="1" si="0">RAND()*1000</f>
-        <v>723.94635980403621</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>615.53802072176939</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>594.44708729628235</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ca="1" si="0"/>
-        <v>359.68665101494315</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ca="1" si="0"/>
-        <v>779.58987088948982</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ca="1" si="0"/>
-        <v>325.69695078423075</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ca="1" si="0"/>
-        <v>959.10638084977222</v>
-      </c>
-      <c r="J2">
-        <f t="shared" ca="1" si="0"/>
-        <v>209.71462651243823</v>
-      </c>
-      <c r="K2">
-        <f t="shared" ca="1" si="0"/>
-        <v>598.58179172876862</v>
-      </c>
-      <c r="L2">
-        <f t="shared" ca="1" si="0"/>
-        <v>719.95155031563297</v>
-      </c>
-      <c r="M2">
-        <f t="shared" ca="1" si="0"/>
-        <v>976.81758819781487</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ca="1" si="0"/>
-        <v>923.57279647527878</v>
-      </c>
-      <c r="O2">
-        <f t="shared" ca="1" si="0"/>
-        <v>621.41007886714442</v>
-      </c>
-      <c r="P2">
-        <f t="shared" ca="1" si="0"/>
-        <v>856.27364112950852</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" ca="1" si="0"/>
-        <v>848.90637623414705</v>
+        <v>facility_1</v>
       </c>
     </row>
     <row r="3" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>IF('study sites'!$A3&lt;&gt;"",'study sites'!$A3,"")</f>
-        <v>aga-khan_medi_KE</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:Q9" ca="1" si="1">RAND()*1000</f>
-        <v>288.20229661555442</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ca="1" si="1"/>
-        <v>522.52185426619792</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="1"/>
-        <v>48.827882286853416</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ca="1" si="1"/>
-        <v>972.70502372617329</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ca="1" si="1"/>
-        <v>312.16639387402421</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ca="1" si="1"/>
-        <v>407.79379385563277</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ca="1" si="1"/>
-        <v>728.50419522420782</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ca="1" si="1"/>
-        <v>927.56747931548102</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ca="1" si="1"/>
-        <v>538.7184902947879</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ca="1" si="1"/>
-        <v>718.12298617859392</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ca="1" si="1"/>
-        <v>233.65846328286622</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ca="1" si="1"/>
-        <v>787.31895356189921</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ca="1" si="1"/>
-        <v>210.66776412525613</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ca="1" si="1"/>
-        <v>645.5591131657161</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ca="1" si="1"/>
-        <v>929.59755873000336</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2428229172963832</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>IF('study sites'!$A4&lt;&gt;"",'study sites'!$A4,"")</f>
-        <v>chitse_rhcc_ZW</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ca="1" si="1"/>
-        <v>958.22113902484921</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ca="1" si="1"/>
-        <v>48.179265530529868</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="1"/>
-        <v>546.26103820843377</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="1"/>
-        <v>72.022895958362085</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="1"/>
-        <v>525.3106377212589</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="1"/>
-        <v>812.29353571125318</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ca="1" si="1"/>
-        <v>439.16135763879191</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ca="1" si="1"/>
-        <v>972.24345309993771</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ca="1" si="1"/>
-        <v>225.5583310105408</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ca="1" si="1"/>
-        <v>589.6095190916601</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ca="1" si="1"/>
-        <v>979.9487317923182</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ca="1" si="1"/>
-        <v>812.38840013901745</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ca="1" si="1"/>
-        <v>277.9324215900989</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ca="1" si="1"/>
-        <v>198.33119553387678</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ca="1" si="1"/>
-        <v>512.97811445236289</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ca="1" si="1"/>
-        <v>835.4745666862259</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>IF('study sites'!$A5&lt;&gt;"",'study sites'!$A5,"")</f>
-        <v>dotito_rhcc_ZW</v>
-      </c>
-      <c r="B5">
-        <f t="shared" ca="1" si="1"/>
-        <v>737.45947738279563</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="1"/>
-        <v>682.07517152356297</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="1"/>
-        <v>481.19689590066616</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="1"/>
-        <v>623.2820704170723</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="1"/>
-        <v>392.37640386948146</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="1"/>
-        <v>621.89089923961387</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.31094194485337123</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ca="1" si="1"/>
-        <v>708.47208285624924</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="1"/>
-        <v>925.31831044362957</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ca="1" si="1"/>
-        <v>869.57694371527737</v>
-      </c>
-      <c r="L5">
-        <f t="shared" ca="1" si="1"/>
-        <v>300.49417014791754</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ca="1" si="1"/>
-        <v>359.48637953198494</v>
-      </c>
-      <c r="N5">
-        <f t="shared" ca="1" si="1"/>
-        <v>367.44775234582414</v>
-      </c>
-      <c r="O5">
-        <f t="shared" ca="1" si="1"/>
-        <v>852.0083011188965</v>
-      </c>
-      <c r="P5">
-        <f t="shared" ca="1" si="1"/>
-        <v>425.08491252867441</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" ca="1" si="1"/>
-        <v>106.45881136983459</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>IF('study sites'!$A6&lt;&gt;"",'study sites'!$A6,"")</f>
-        <v>laudium_chc_SA</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ca="1" si="1"/>
-        <v>966.08025816541567</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>492.05553145828185</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="1"/>
-        <v>292.87662019042773</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="1"/>
-        <v>22.681051675540132</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="1"/>
-        <v>735.63992786782694</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="1"/>
-        <v>74.152446727484445</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ca="1" si="1"/>
-        <v>809.82504574028701</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ca="1" si="1"/>
-        <v>926.70617855276566</v>
-      </c>
-      <c r="J6">
-        <f t="shared" ca="1" si="1"/>
-        <v>967.11815962014225</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ca="1" si="1"/>
-        <v>547.60395971004414</v>
-      </c>
-      <c r="L6">
-        <f t="shared" ca="1" si="1"/>
-        <v>293.46927403177614</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ca="1" si="1"/>
-        <v>783.61709207016122</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ca="1" si="1"/>
-        <v>861.69231576087645</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ca="1" si="1"/>
-        <v>454.49026380418212</v>
-      </c>
-      <c r="P6">
-        <f t="shared" ca="1" si="1"/>
-        <v>740.79338788130826</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" ca="1" si="1"/>
-        <v>191.65336913675856</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>IF('study sites'!$A7&lt;&gt;"",'study sites'!$A7,"")</f>
-        <v>mamelodi_hosp_SA</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="1"/>
-        <v>799.84679563645534</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>276.60666950439662</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="1"/>
-        <v>87.378246184630754</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="1"/>
-        <v>412.17152461446318</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="1"/>
-        <v>146.76472438900311</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.071425466765998</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ca="1" si="1"/>
-        <v>217.14180746603441</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.222356162955972</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ca="1" si="1"/>
-        <v>238.63886571949323</v>
-      </c>
-      <c r="K7">
-        <f t="shared" ca="1" si="1"/>
-        <v>849.40216883748246</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ca="1" si="1"/>
-        <v>701.22670363778207</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ca="1" si="1"/>
-        <v>755.60263002612328</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ca="1" si="1"/>
-        <v>89.499067497715416</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ca="1" si="1"/>
-        <v>412.44563345370142</v>
-      </c>
-      <c r="P7">
-        <f t="shared" ca="1" si="1"/>
-        <v>542.0596314469567</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" ca="1" si="1"/>
-        <v>853.49359046635732</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>IF('study sites'!$A8&lt;&gt;"",'study sites'!$A8,"")</f>
-        <v>mt-darwin_hosp_ZW</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="1"/>
-        <v>232.18358433056986</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="1"/>
-        <v>604.12926175995847</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="1"/>
-        <v>293.9725579362742</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="1"/>
-        <v>191.27063407440147</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ca="1" si="1"/>
-        <v>746.07844669684619</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ca="1" si="1"/>
-        <v>985.35491277574397</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ca="1" si="1"/>
-        <v>536.52495506516084</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ca="1" si="1"/>
-        <v>690.88359444972582</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ca="1" si="1"/>
-        <v>746.24231508590321</v>
-      </c>
-      <c r="K8">
-        <f t="shared" ca="1" si="1"/>
-        <v>49.333750981809473</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ca="1" si="1"/>
-        <v>921.36636211188477</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ca="1" si="1"/>
-        <v>342.34073055344641</v>
-      </c>
-      <c r="N8">
-        <f t="shared" ca="1" si="1"/>
-        <v>908.14213259864277</v>
-      </c>
-      <c r="O8">
-        <f t="shared" ca="1" si="1"/>
-        <v>727.50867346495579</v>
-      </c>
-      <c r="P8">
-        <f t="shared" ca="1" si="1"/>
-        <v>245.0655558491377</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" ca="1" si="1"/>
-        <v>850.53305718700597</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>IF('study sites'!$A9&lt;&gt;"",'study sites'!$A9,"")</f>
-        <v>stanza-bopape_chc_SA</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="1"/>
-        <v>327.478286005234</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="1"/>
-        <v>661.06926633416379</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="1"/>
-        <v>344.46536277004134</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="1"/>
-        <v>264.040149833241</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="1"/>
-        <v>323.93155796476793</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="1"/>
-        <v>279.08135233216314</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ca="1" si="1"/>
-        <v>960.79236797849126</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ca="1" si="1"/>
-        <v>498.0577365216048</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ca="1" si="1"/>
-        <v>36.097361335648891</v>
-      </c>
-      <c r="K9">
-        <f t="shared" ca="1" si="1"/>
-        <v>431.17757461582443</v>
-      </c>
-      <c r="L9">
-        <f t="shared" ca="1" si="1"/>
-        <v>151.38973754087016</v>
-      </c>
-      <c r="M9">
-        <f t="shared" ca="1" si="1"/>
-        <v>261.84702262857076</v>
-      </c>
-      <c r="N9">
-        <f t="shared" ca="1" si="1"/>
-        <v>985.38587845446659</v>
-      </c>
-      <c r="O9">
-        <f t="shared" ca="1" si="1"/>
-        <v>342.292014334454</v>
-      </c>
-      <c r="P9">
-        <f t="shared" ca="1" si="1"/>
-        <v>863.83180488446703</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" ca="1" si="1"/>
-        <v>36.541213184581252</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:309" x14ac:dyDescent="0.25">
@@ -6574,6 +5773,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6582,10 +5782,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6597,74 +5797,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -6673,14 +5817,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA988EC4-FD0D-4EAE-8586-15A0C7C4D98A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA988EC4-FD0D-4EAE-8586-15A0C7C4D98A}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:KW309"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6704,71 +5848,71 @@
   <sheetData>
     <row r="1" spans="1:309" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="str">
         <f>IF('emission sources'!$A2&lt;&gt;"",'emission sources'!$A2,"")</f>
-        <v>SC1_energy</v>
+        <v>emission_1</v>
       </c>
       <c r="C1" s="2" t="str">
         <f>IF('emission sources'!$A3&lt;&gt;"",'emission sources'!$A3,"")</f>
-        <v>SC1_travel</v>
+        <v/>
       </c>
       <c r="D1" s="2" t="str">
         <f>IF('emission sources'!$A4&lt;&gt;"",'emission sources'!$A4,"")</f>
-        <v>SC1_refrigerants</v>
+        <v/>
       </c>
       <c r="E1" s="2" t="str">
         <f>IF('emission sources'!$A5&lt;&gt;"",'emission sources'!$A5,"")</f>
-        <v>SC1_waste</v>
+        <v/>
       </c>
       <c r="F1" s="2" t="str">
         <f>IF('emission sources'!$A6&lt;&gt;"",'emission sources'!$A6,"")</f>
-        <v>SC1_anaesthetic</v>
+        <v/>
       </c>
       <c r="G1" s="2" t="str">
         <f>IF('emission sources'!$A7&lt;&gt;"",'emission sources'!$A7,"")</f>
-        <v>SC2_electricity</v>
+        <v/>
       </c>
       <c r="H1" s="2" t="str">
         <f>IF('emission sources'!$A8&lt;&gt;"",'emission sources'!$A8,"")</f>
-        <v>SC2_heat</v>
+        <v/>
       </c>
       <c r="I1" s="2" t="str">
         <f>IF('emission sources'!$A9&lt;&gt;"",'emission sources'!$A9,"")</f>
-        <v>SC3_energy</v>
+        <v/>
       </c>
       <c r="J1" s="2" t="str">
         <f>IF('emission sources'!$A10&lt;&gt;"",'emission sources'!$A10,"")</f>
-        <v>SC3_refrigerants</v>
+        <v/>
       </c>
       <c r="K1" s="2" t="str">
         <f>IF('emission sources'!$A11&lt;&gt;"",'emission sources'!$A11,"")</f>
-        <v>SC3_travel</v>
+        <v/>
       </c>
       <c r="L1" s="2" t="str">
         <f>IF('emission sources'!$A12&lt;&gt;"",'emission sources'!$A12,"")</f>
-        <v>SC3_business</v>
+        <v/>
       </c>
       <c r="M1" s="2" t="str">
         <f>IF('emission sources'!$A13&lt;&gt;"",'emission sources'!$A13,"")</f>
-        <v>SC3_water</v>
+        <v/>
       </c>
       <c r="N1" s="2" t="str">
         <f>IF('emission sources'!$A14&lt;&gt;"",'emission sources'!$A14,"")</f>
-        <v>SC3_waste</v>
+        <v/>
       </c>
       <c r="O1" s="2" t="str">
         <f>IF('emission sources'!$A15&lt;&gt;"",'emission sources'!$A15,"")</f>
-        <v>SC3_logistics</v>
+        <v/>
       </c>
       <c r="P1" s="2" t="str">
         <f>IF('emission sources'!$A16&lt;&gt;"",'emission sources'!$A16,"")</f>
-        <v>SC3_inhalers</v>
+        <v/>
       </c>
       <c r="Q1" s="2" t="str">
         <f>IF('emission sources'!$A17&lt;&gt;"",'emission sources'!$A17,"")</f>
-        <v>SC3_supply</v>
+        <v/>
       </c>
       <c r="R1" s="2" t="str">
         <f>IF('emission sources'!$A18&lt;&gt;"",'emission sources'!$A18,"")</f>
@@ -7942,9 +7086,11 @@
     <row r="2" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>IF(interventions!$A2&lt;&gt;"",interventions!$A2,"")</f>
-        <v>borehole_water</v>
-      </c>
-      <c r="B2" s="4"/>
+        <v>intervention_1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -7955,9 +7101,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -7974,12 +7118,10 @@
     <row r="3" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>IF(interventions!$A3&lt;&gt;"",interventions!$A3,"")</f>
-        <v>electric_cars</v>
+        <v/>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -7987,12 +7129,8 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -8010,18 +7148,14 @@
     <row r="4" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>IF(interventions!$A4&lt;&gt;"",interventions!$A4,"")</f>
-        <v>energy_led</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>85</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -8044,7 +7178,7 @@
     <row r="5" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>IF(interventions!$A5&lt;&gt;"",interventions!$A5,"")</f>
-        <v>local_procure</v>
+        <v/>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -8061,9 +7195,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
@@ -8076,15 +7208,13 @@
     <row r="6" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>IF(interventions!$A6&lt;&gt;"",interventions!$A6,"")</f>
-        <v>low_emit_gas</v>
+        <v/>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -8108,7 +7238,7 @@
     <row r="7" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>IF(interventions!$A7&lt;&gt;"",interventions!$A7,"")</f>
-        <v>low_emit_inhale</v>
+        <v/>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -8124,9 +7254,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -8140,7 +7268,7 @@
     <row r="8" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>IF(interventions!$A8&lt;&gt;"",interventions!$A8,"")</f>
-        <v>low_emit_mat</v>
+        <v/>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -8170,14 +7298,12 @@
     <row r="9" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>IF(interventions!$A9&lt;&gt;"",interventions!$A9,"")</f>
-        <v>recycle</v>
+        <v/>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -10774,18 +9900,19 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F1B10C-2E4C-49C7-807A-7A54154A9E3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F1B10C-2E4C-49C7-807A-7A54154A9E3B}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:KW309"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10803,39 +9930,39 @@
   <sheetData>
     <row r="1" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="str">
         <f>IF(interventions!$A2&lt;&gt;"",interventions!$A2&amp;"_effect","")</f>
-        <v>borehole_water_effect</v>
+        <v>intervention_1_effect</v>
       </c>
       <c r="C1" s="2" t="str">
         <f>IF(interventions!$A3&lt;&gt;"",interventions!$A3&amp;"_effect","")</f>
-        <v>electric_cars_effect</v>
+        <v/>
       </c>
       <c r="D1" s="2" t="str">
         <f>IF(interventions!$A4&lt;&gt;"",interventions!$A4&amp;"_effect","")</f>
-        <v>energy_led_effect</v>
+        <v/>
       </c>
       <c r="E1" s="2" t="str">
         <f>IF(interventions!$A5&lt;&gt;"",interventions!$A5&amp;"_effect","")</f>
-        <v>local_procure_effect</v>
+        <v/>
       </c>
       <c r="F1" s="2" t="str">
         <f>IF(interventions!$A6&lt;&gt;"",interventions!$A6&amp;"_effect","")</f>
-        <v>low_emit_gas_effect</v>
+        <v/>
       </c>
       <c r="G1" s="2" t="str">
         <f>IF(interventions!$A7&lt;&gt;"",interventions!$A7&amp;"_effect","")</f>
-        <v>low_emit_inhale_effect</v>
+        <v/>
       </c>
       <c r="H1" s="2" t="str">
         <f>IF(interventions!$A8&lt;&gt;"",interventions!$A8&amp;"_effect","")</f>
-        <v>low_emit_mat_effect</v>
+        <v/>
       </c>
       <c r="I1" s="2" t="str">
         <f>IF(interventions!$A9&lt;&gt;"",interventions!$A9&amp;"_effect","")</f>
-        <v>recycle_effect</v>
+        <v/>
       </c>
       <c r="J1" s="2" t="str">
         <f>IF(interventions!$A10&lt;&gt;"",interventions!$A10&amp;"_effect","")</f>
@@ -12041,241 +11168,52 @@
     <row r="2" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>IF('study sites'!$A2&lt;&gt;"",'study sites'!$A2,"")</f>
-        <v>aga-khan_hosp_KE</v>
-      </c>
-      <c r="B2">
-        <v>0.83599904956627025</v>
-      </c>
-      <c r="C2">
-        <v>0.6144360710252732</v>
-      </c>
-      <c r="D2">
-        <v>0.14165175415271014</v>
-      </c>
-      <c r="E2">
-        <v>0.86394389731639532</v>
-      </c>
-      <c r="F2">
-        <v>6.461846434216012E-2</v>
-      </c>
-      <c r="G2">
-        <v>0.23839337510027669</v>
-      </c>
-      <c r="H2">
-        <v>7.050089969963258E-4</v>
-      </c>
-      <c r="I2">
-        <v>0.26962188581287161</v>
+        <v>facility_1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>IF('study sites'!$A3&lt;&gt;"",'study sites'!$A3,"")</f>
-        <v>aga-khan_medi_KE</v>
-      </c>
-      <c r="B3">
-        <v>0.71926887187401389</v>
-      </c>
-      <c r="C3">
-        <v>0.74824928788717504</v>
-      </c>
-      <c r="D3">
-        <v>0.99609115405152615</v>
-      </c>
-      <c r="E3">
-        <v>0.63316269070574738</v>
-      </c>
-      <c r="F3">
-        <v>0.92051133752652536</v>
-      </c>
-      <c r="G3">
-        <v>4.007554457203244E-3</v>
-      </c>
-      <c r="H3">
-        <v>0.18000364617894504</v>
-      </c>
-      <c r="I3">
-        <v>0.11561668711244144</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>IF('study sites'!$A4&lt;&gt;"",'study sites'!$A4,"")</f>
-        <v>chitse_rhcc_ZW</v>
-      </c>
-      <c r="B4">
-        <v>0.31515125115452169</v>
-      </c>
-      <c r="C4">
-        <v>0.543773384178727</v>
-      </c>
-      <c r="D4">
-        <v>0.34108262416790169</v>
-      </c>
-      <c r="E4">
-        <v>0.66526691704918672</v>
-      </c>
-      <c r="F4">
-        <v>0.99313181216353696</v>
-      </c>
-      <c r="G4">
-        <v>0.85652983500491009</v>
-      </c>
-      <c r="H4">
-        <v>5.1597415545195258E-2</v>
-      </c>
-      <c r="I4">
-        <v>0.63847305134827781</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>IF('study sites'!$A5&lt;&gt;"",'study sites'!$A5,"")</f>
-        <v>dotito_rhcc_ZW</v>
-      </c>
-      <c r="B5">
-        <v>0.81103451769885582</v>
-      </c>
-      <c r="C5">
-        <v>0.4546852764531657</v>
-      </c>
-      <c r="D5">
-        <v>0.52420185267560437</v>
-      </c>
-      <c r="E5">
-        <v>0.33440381799704444</v>
-      </c>
-      <c r="F5">
-        <v>0.50422116464544364</v>
-      </c>
-      <c r="G5">
-        <v>0.87511657118002539</v>
-      </c>
-      <c r="H5">
-        <v>0.44643923169829536</v>
-      </c>
-      <c r="I5">
-        <v>0.68623453090680953</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>IF('study sites'!$A6&lt;&gt;"",'study sites'!$A6,"")</f>
-        <v>laudium_chc_SA</v>
-      </c>
-      <c r="B6">
-        <v>0.2003043406233519</v>
-      </c>
-      <c r="C6">
-        <v>0.73279063378429776</v>
-      </c>
-      <c r="D6">
-        <v>0.55680949363093601</v>
-      </c>
-      <c r="E6">
-        <v>0.24876439332825684</v>
-      </c>
-      <c r="F6">
-        <v>0.17462576783055395</v>
-      </c>
-      <c r="G6">
-        <v>0.32655323046093254</v>
-      </c>
-      <c r="H6">
-        <v>0.73728573677359788</v>
-      </c>
-      <c r="I6">
-        <v>0.69731967244418824</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>IF('study sites'!$A7&lt;&gt;"",'study sites'!$A7,"")</f>
-        <v>mamelodi_hosp_SA</v>
-      </c>
-      <c r="B7">
-        <v>0.39821977162073929</v>
-      </c>
-      <c r="C7">
-        <v>0.46979474246058461</v>
-      </c>
-      <c r="D7">
-        <v>0.96254701764619044</v>
-      </c>
-      <c r="E7">
-        <v>0.42915087046410172</v>
-      </c>
-      <c r="F7">
-        <v>6.3391868357593695E-2</v>
-      </c>
-      <c r="G7">
-        <v>0.64586416403290392</v>
-      </c>
-      <c r="H7">
-        <v>0.18160197454568761</v>
-      </c>
-      <c r="I7">
-        <v>0.98444019480138212</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>IF('study sites'!$A8&lt;&gt;"",'study sites'!$A8,"")</f>
-        <v>mt-darwin_hosp_ZW</v>
-      </c>
-      <c r="B8">
-        <v>0.21069574276516589</v>
-      </c>
-      <c r="C8">
-        <v>0.28885441784675903</v>
-      </c>
-      <c r="D8">
-        <v>0.17800479041207362</v>
-      </c>
-      <c r="E8">
-        <v>0.18652240872125891</v>
-      </c>
-      <c r="F8">
-        <v>0.34674395201730923</v>
-      </c>
-      <c r="G8">
-        <v>0.50456301794847547</v>
-      </c>
-      <c r="H8">
-        <v>0.10983891746964836</v>
-      </c>
-      <c r="I8">
-        <v>0.30583300550835779</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>IF('study sites'!$A9&lt;&gt;"",'study sites'!$A9,"")</f>
-        <v>stanza-bopape_chc_SA</v>
-      </c>
-      <c r="B9">
-        <v>1.172414838110758E-2</v>
-      </c>
-      <c r="C9">
-        <v>0.50374451860943026</v>
-      </c>
-      <c r="D9">
-        <v>6.3478087664338045E-2</v>
-      </c>
-      <c r="E9">
-        <v>0.85002518272833449</v>
-      </c>
-      <c r="F9">
-        <v>0.2663787616523895</v>
-      </c>
-      <c r="G9">
-        <v>0.64286264253778869</v>
-      </c>
-      <c r="H9">
-        <v>0.1334253728938597</v>
-      </c>
-      <c r="I9">
-        <v>0.95454797320964513</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:309" x14ac:dyDescent="0.25">
@@ -14080,18 +13018,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB34176A-2DBB-4E55-BED7-E81047A94992}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB34176A-2DBB-4E55-BED7-E81047A94992}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:KW309"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14109,39 +13048,39 @@
   <sheetData>
     <row r="1" spans="1:309" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="str">
         <f>IF(interventions!$A2&lt;&gt;"",interventions!$A2&amp;"_cost","")</f>
-        <v>borehole_water_cost</v>
+        <v>intervention_1_cost</v>
       </c>
       <c r="C1" s="2" t="str">
         <f>IF(interventions!$A3&lt;&gt;"",interventions!$A3&amp;"_cost","")</f>
-        <v>electric_cars_cost</v>
+        <v/>
       </c>
       <c r="D1" s="2" t="str">
         <f>IF(interventions!$A4&lt;&gt;"",interventions!$A4&amp;"_cost","")</f>
-        <v>energy_led_cost</v>
+        <v/>
       </c>
       <c r="E1" s="2" t="str">
         <f>IF(interventions!$A5&lt;&gt;"",interventions!$A5&amp;"_cost","")</f>
-        <v>local_procure_cost</v>
+        <v/>
       </c>
       <c r="F1" s="2" t="str">
         <f>IF(interventions!$A6&lt;&gt;"",interventions!$A6&amp;"_cost","")</f>
-        <v>low_emit_gas_cost</v>
+        <v/>
       </c>
       <c r="G1" s="2" t="str">
         <f>IF(interventions!$A7&lt;&gt;"",interventions!$A7&amp;"_cost","")</f>
-        <v>low_emit_inhale_cost</v>
+        <v/>
       </c>
       <c r="H1" s="2" t="str">
         <f>IF(interventions!$A8&lt;&gt;"",interventions!$A8&amp;"_cost","")</f>
-        <v>low_emit_mat_cost</v>
+        <v/>
       </c>
       <c r="I1" s="2" t="str">
         <f>IF(interventions!$A9&lt;&gt;"",interventions!$A9&amp;"_cost","")</f>
-        <v>recycle_cost</v>
+        <v/>
       </c>
       <c r="J1" s="2" t="str">
         <f>IF(interventions!$A10&lt;&gt;"",interventions!$A10&amp;"_cost","")</f>
@@ -15347,242 +14286,114 @@
     <row r="2" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>IF('study sites'!$A2&lt;&gt;"",'study sites'!$A2,"")</f>
-        <v>aga-khan_hosp_KE</v>
-      </c>
-      <c r="B2" s="1">
-        <v>614691.50302552572</v>
-      </c>
-      <c r="C2" s="1">
-        <v>715300.6809100688</v>
-      </c>
-      <c r="D2" s="1">
-        <v>144462.68362339519</v>
-      </c>
-      <c r="E2" s="1">
-        <v>773523.76153253939</v>
-      </c>
-      <c r="F2" s="1">
-        <v>849980.39007960702</v>
-      </c>
-      <c r="G2" s="1">
-        <v>309370.2318849825</v>
-      </c>
-      <c r="H2" s="1">
-        <v>207070.15999527866</v>
-      </c>
-      <c r="I2" s="1">
-        <v>501239.48512815783</v>
-      </c>
+        <v>facility_1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>IF('study sites'!$A3&lt;&gt;"",'study sites'!$A3,"")</f>
-        <v>aga-khan_medi_KE</v>
-      </c>
-      <c r="B3" s="1">
-        <v>214905.39294926735</v>
-      </c>
-      <c r="C3" s="1">
-        <v>839439.36870222108</v>
-      </c>
-      <c r="D3" s="1">
-        <v>663984.20405946148</v>
-      </c>
-      <c r="E3" s="1">
-        <v>680264.52552048268</v>
-      </c>
-      <c r="F3" s="1">
-        <v>615956.15338160086</v>
-      </c>
-      <c r="G3" s="1">
-        <v>476915.06387250137</v>
-      </c>
-      <c r="H3" s="1">
-        <v>608449.2380260526</v>
-      </c>
-      <c r="I3" s="1">
-        <v>571994.15438443073</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>IF('study sites'!$A4&lt;&gt;"",'study sites'!$A4,"")</f>
-        <v>chitse_rhcc_ZW</v>
-      </c>
-      <c r="B4" s="1">
-        <v>73638.904396857717</v>
-      </c>
-      <c r="C4" s="1">
-        <v>24655.32440145146</v>
-      </c>
-      <c r="D4" s="1">
-        <v>740248.74777244159</v>
-      </c>
-      <c r="E4" s="1">
-        <v>14031.083787505395</v>
-      </c>
-      <c r="F4" s="1">
-        <v>80296.797965641817</v>
-      </c>
-      <c r="G4" s="1">
-        <v>584426.09897906845</v>
-      </c>
-      <c r="H4" s="1">
-        <v>593977.68527193822</v>
-      </c>
-      <c r="I4" s="1">
-        <v>183786.79614618211</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>IF('study sites'!$A5&lt;&gt;"",'study sites'!$A5,"")</f>
-        <v>dotito_rhcc_ZW</v>
-      </c>
-      <c r="B5" s="1">
-        <v>787139.07411036105</v>
-      </c>
-      <c r="C5" s="1">
-        <v>551188.30107722466</v>
-      </c>
-      <c r="D5" s="1">
-        <v>752482.40213897557</v>
-      </c>
-      <c r="E5" s="1">
-        <v>412604.44140754081</v>
-      </c>
-      <c r="F5" s="1">
-        <v>650818.83746680466</v>
-      </c>
-      <c r="G5" s="1">
-        <v>888910.44701103866</v>
-      </c>
-      <c r="H5" s="1">
-        <v>62502.796411692987</v>
-      </c>
-      <c r="I5" s="1">
-        <v>969988.55725064897</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>IF('study sites'!$A6&lt;&gt;"",'study sites'!$A6,"")</f>
-        <v>laudium_chc_SA</v>
-      </c>
-      <c r="B6" s="1">
-        <v>896572.5321071716</v>
-      </c>
-      <c r="C6" s="1">
-        <v>450745.70642820856</v>
-      </c>
-      <c r="D6" s="1">
-        <v>144996.5036022588</v>
-      </c>
-      <c r="E6" s="1">
-        <v>322666.03446894028</v>
-      </c>
-      <c r="F6" s="1">
-        <v>460976.08597964502</v>
-      </c>
-      <c r="G6" s="1">
-        <v>841073.21658465744</v>
-      </c>
-      <c r="H6" s="1">
-        <v>158940.73606296166</v>
-      </c>
-      <c r="I6" s="1">
-        <v>100204.9393511486</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>IF('study sites'!$A7&lt;&gt;"",'study sites'!$A7,"")</f>
-        <v>mamelodi_hosp_SA</v>
-      </c>
-      <c r="B7" s="1">
-        <v>822341.25810421561</v>
-      </c>
-      <c r="C7" s="1">
-        <v>172446.74768617185</v>
-      </c>
-      <c r="D7" s="1">
-        <v>15763.697670487241</v>
-      </c>
-      <c r="E7" s="1">
-        <v>576880.87051267643</v>
-      </c>
-      <c r="F7" s="1">
-        <v>595739.62986333878</v>
-      </c>
-      <c r="G7" s="1">
-        <v>336320.71128327423</v>
-      </c>
-      <c r="H7" s="1">
-        <v>516565.80085106572</v>
-      </c>
-      <c r="I7" s="1">
-        <v>927169.93160448468</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>IF('study sites'!$A8&lt;&gt;"",'study sites'!$A8,"")</f>
-        <v>mt-darwin_hosp_ZW</v>
-      </c>
-      <c r="B8" s="1">
-        <v>910190.7282664571</v>
-      </c>
-      <c r="C8" s="1">
-        <v>710905.75883009785</v>
-      </c>
-      <c r="D8" s="1">
-        <v>621796.76830549201</v>
-      </c>
-      <c r="E8" s="1">
-        <v>612399.34874598798</v>
-      </c>
-      <c r="F8" s="1">
-        <v>272951.5231945354</v>
-      </c>
-      <c r="G8" s="1">
-        <v>839415.31182608206</v>
-      </c>
-      <c r="H8" s="1">
-        <v>153921.65108693411</v>
-      </c>
-      <c r="I8" s="1">
-        <v>661599.05551426986</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>IF('study sites'!$A9&lt;&gt;"",'study sites'!$A9,"")</f>
-        <v>stanza-bopape_chc_SA</v>
-      </c>
-      <c r="B9" s="1">
-        <v>484090.86301107774</v>
-      </c>
-      <c r="C9" s="1">
-        <v>745819.89559427788</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4008.9688662193757</v>
-      </c>
-      <c r="E9" s="1">
-        <v>258406.25827147244</v>
-      </c>
-      <c r="F9" s="1">
-        <v>644552.53888234915</v>
-      </c>
-      <c r="G9" s="1">
-        <v>312556.48994250316</v>
-      </c>
-      <c r="H9" s="1">
-        <v>36363.026875500196</v>
-      </c>
-      <c r="I9" s="1">
-        <v>595667.37500297162</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
@@ -17686,5 +16497,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\carbomica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642FF202-11F4-485F-B7BA-AAB46F211A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FAC110-0747-407D-B739-9A169D6E3270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
   </bookViews>
@@ -1425,7 +1425,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,10 +1460,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,16 +1472,15 @@
     <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1503,7 +1502,7 @@
   <dimension ref="A1:KW309"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2767,6 +2766,9 @@
       <c r="A2" s="2" t="str">
         <f>IF('study sites'!$A2&lt;&gt;"",'study sites'!$A2,"")</f>
         <v>facility_1</v>
+      </c>
+      <c r="B2">
+        <v>1.2</v>
       </c>
     </row>
     <row r="3" spans="1:309" x14ac:dyDescent="0.25">
@@ -13030,7 +13032,7 @@
   <dimension ref="A1:KW309"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14288,7 +14290,9 @@
         <f>IF('study sites'!$A2&lt;&gt;"",'study sites'!$A2,"")</f>
         <v>facility_1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>30000</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>

--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\carbomica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FAC110-0747-407D-B739-9A169D6E3270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E18B3F6-AAEA-46FC-B102-F136373E4C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="10" r:id="rId1"/>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>facilities</t>
   </si>
@@ -222,24 +222,6 @@
   </si>
   <si>
     <t>unit costs</t>
-  </si>
-  <si>
-    <t>facility_1</t>
-  </si>
-  <si>
-    <t>Facility 1</t>
-  </si>
-  <si>
-    <t>emission_1</t>
-  </si>
-  <si>
-    <t>Emission source 1</t>
-  </si>
-  <si>
-    <t>intervention_1</t>
-  </si>
-  <si>
-    <t>Intervention 1</t>
   </si>
   <si>
     <t>The first row and column of this table get updated automatically. Fill the table with the emission data for each facility.</t>
@@ -393,6 +375,90 @@
   </si>
   <si>
     <t>The first row and column of this table get updated automatically. Specify the effect sizes of the interventions (if an intervention reduces emissions from a specific source by 80%, then effect size = 0.80).</t>
+  </si>
+  <si>
+    <t>mt_darwin</t>
+  </si>
+  <si>
+    <t>Mt Darwin</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>vehicle_fuel</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>anaesthetic_gases</t>
+  </si>
+  <si>
+    <t>refridgerant</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>inhalers</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Refridgerant</t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>Inhalers</t>
+  </si>
+  <si>
+    <t>Vehicle Fuel</t>
+  </si>
+  <si>
+    <t>Anaesthetic Gases</t>
+  </si>
+  <si>
+    <t>solar_system</t>
+  </si>
+  <si>
+    <t>carpooling_and_ride_sharing</t>
+  </si>
+  <si>
+    <t>low_gpw_anaesthetic_gases</t>
+  </si>
+  <si>
+    <t>low_gpw_refridgerant_gases</t>
+  </si>
+  <si>
+    <t>water_efficient_fixtures_and_appliances</t>
+  </si>
+  <si>
+    <t>low_gpw_inhalers</t>
+  </si>
+  <si>
+    <t>Solar sytem</t>
+  </si>
+  <si>
+    <t>Carpooling and ride sharing</t>
+  </si>
+  <si>
+    <t>Low gpw anaesthetic gases</t>
+  </si>
+  <si>
+    <t>Low gpw refridgerant gases</t>
+  </si>
+  <si>
+    <t>Water efficient fixtures and appliances</t>
+  </si>
+  <si>
+    <t>Low gpw inhalers</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1393,7 @@
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="16.28515625" style="5" customWidth="1"/>
@@ -1345,7 +1411,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -1353,7 +1419,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -1361,7 +1427,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1375,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -1383,7 +1449,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -1391,7 +1457,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -1399,7 +1465,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1424,8 +1490,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,10 +1510,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1460,10 +1526,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,20 +1538,69 @@
     <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1502,19 +1617,19 @@
   <dimension ref="A1:KW309"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -1531,31 +1646,31 @@
       </c>
       <c r="B1" s="2" t="str">
         <f>IF('emission sources'!$A2&lt;&gt;"",'emission sources'!$A2,"")</f>
-        <v>emission_1</v>
+        <v>energy</v>
       </c>
       <c r="C1" s="2" t="str">
         <f>IF('emission sources'!$A3&lt;&gt;"",'emission sources'!$A3,"")</f>
-        <v/>
+        <v>vehicle_fuel</v>
       </c>
       <c r="D1" s="2" t="str">
         <f>IF('emission sources'!$A4&lt;&gt;"",'emission sources'!$A4,"")</f>
-        <v/>
+        <v>travel</v>
       </c>
       <c r="E1" s="2" t="str">
         <f>IF('emission sources'!$A5&lt;&gt;"",'emission sources'!$A5,"")</f>
-        <v/>
+        <v>anaesthetic_gases</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>IF('emission sources'!$A6&lt;&gt;"",'emission sources'!$A6,"")</f>
-        <v/>
+        <v>refridgerant</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>IF('emission sources'!$A7&lt;&gt;"",'emission sources'!$A7,"")</f>
-        <v/>
+        <v>waste</v>
       </c>
       <c r="H1" s="2" t="str">
         <f>IF('emission sources'!$A8&lt;&gt;"",'emission sources'!$A8,"")</f>
-        <v/>
+        <v>inhalers</v>
       </c>
       <c r="I1" s="2" t="str">
         <f>IF('emission sources'!$A9&lt;&gt;"",'emission sources'!$A9,"")</f>
@@ -2765,10 +2880,28 @@
     <row r="2" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>IF('study sites'!$A2&lt;&gt;"",'study sites'!$A2,"")</f>
-        <v>facility_1</v>
+        <v>mt_darwin</v>
       </c>
       <c r="B2">
-        <v>1.2</v>
+        <v>39.729999999999997</v>
+      </c>
+      <c r="C2">
+        <v>27.76</v>
+      </c>
+      <c r="D2">
+        <v>0.12</v>
+      </c>
+      <c r="E2">
+        <v>3.05</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H2">
+        <v>2.34</v>
       </c>
     </row>
     <row r="3" spans="1:309" x14ac:dyDescent="0.25">
@@ -5784,15 +5917,15 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
   </cols>
@@ -5807,10 +5940,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5826,7 +5999,7 @@
   <dimension ref="A1:KW309"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5854,31 +6027,31 @@
       </c>
       <c r="B1" s="2" t="str">
         <f>IF('emission sources'!$A2&lt;&gt;"",'emission sources'!$A2,"")</f>
-        <v>emission_1</v>
+        <v>energy</v>
       </c>
       <c r="C1" s="2" t="str">
         <f>IF('emission sources'!$A3&lt;&gt;"",'emission sources'!$A3,"")</f>
-        <v/>
+        <v>vehicle_fuel</v>
       </c>
       <c r="D1" s="2" t="str">
         <f>IF('emission sources'!$A4&lt;&gt;"",'emission sources'!$A4,"")</f>
-        <v/>
+        <v>travel</v>
       </c>
       <c r="E1" s="2" t="str">
         <f>IF('emission sources'!$A5&lt;&gt;"",'emission sources'!$A5,"")</f>
-        <v/>
+        <v>anaesthetic_gases</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>IF('emission sources'!$A6&lt;&gt;"",'emission sources'!$A6,"")</f>
-        <v/>
+        <v>refridgerant</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>IF('emission sources'!$A7&lt;&gt;"",'emission sources'!$A7,"")</f>
-        <v/>
+        <v>waste</v>
       </c>
       <c r="H1" s="2" t="str">
         <f>IF('emission sources'!$A8&lt;&gt;"",'emission sources'!$A8,"")</f>
-        <v/>
+        <v>inhalers</v>
       </c>
       <c r="I1" s="2" t="str">
         <f>IF('emission sources'!$A9&lt;&gt;"",'emission sources'!$A9,"")</f>
@@ -7088,7 +7261,7 @@
     <row r="2" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>IF(interventions!$A2&lt;&gt;"",interventions!$A2,"")</f>
-        <v>intervention_1</v>
+        <v>solar_system</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -7120,11 +7293,15 @@
     <row r="3" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>IF(interventions!$A3&lt;&gt;"",interventions!$A3,"")</f>
-        <v/>
+        <v>carpooling_and_ride_sharing</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -7150,12 +7327,14 @@
     <row r="4" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>IF(interventions!$A4&lt;&gt;"",interventions!$A4,"")</f>
-        <v/>
+        <v>low_gpw_anaesthetic_gases</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -7180,13 +7359,15 @@
     <row r="5" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>IF(interventions!$A5&lt;&gt;"",interventions!$A5,"")</f>
-        <v/>
+        <v>low_gpw_refridgerant_gases</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -7210,14 +7391,16 @@
     <row r="6" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>IF(interventions!$A6&lt;&gt;"",interventions!$A6,"")</f>
-        <v/>
+        <v>water_efficient_fixtures_and_appliances</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -7240,7 +7423,7 @@
     <row r="7" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>IF(interventions!$A7&lt;&gt;"",interventions!$A7,"")</f>
-        <v/>
+        <v>low_gpw_inhalers</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -7248,7 +7431,9 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -9914,7 +10099,7 @@
   <dimension ref="A1:KW309"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9936,27 +10121,27 @@
       </c>
       <c r="B1" s="2" t="str">
         <f>IF(interventions!$A2&lt;&gt;"",interventions!$A2&amp;"_effect","")</f>
-        <v>intervention_1_effect</v>
+        <v>solar_system_effect</v>
       </c>
       <c r="C1" s="2" t="str">
         <f>IF(interventions!$A3&lt;&gt;"",interventions!$A3&amp;"_effect","")</f>
-        <v/>
+        <v>carpooling_and_ride_sharing_effect</v>
       </c>
       <c r="D1" s="2" t="str">
         <f>IF(interventions!$A4&lt;&gt;"",interventions!$A4&amp;"_effect","")</f>
-        <v/>
+        <v>low_gpw_anaesthetic_gases_effect</v>
       </c>
       <c r="E1" s="2" t="str">
         <f>IF(interventions!$A5&lt;&gt;"",interventions!$A5&amp;"_effect","")</f>
-        <v/>
+        <v>low_gpw_refridgerant_gases_effect</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>IF(interventions!$A6&lt;&gt;"",interventions!$A6&amp;"_effect","")</f>
-        <v/>
+        <v>water_efficient_fixtures_and_appliances_effect</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>IF(interventions!$A7&lt;&gt;"",interventions!$A7&amp;"_effect","")</f>
-        <v/>
+        <v>low_gpw_inhalers_effect</v>
       </c>
       <c r="H1" s="2" t="str">
         <f>IF(interventions!$A8&lt;&gt;"",interventions!$A8&amp;"_effect","")</f>
@@ -11170,10 +11355,25 @@
     <row r="2" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>IF('study sites'!$A2&lt;&gt;"",'study sites'!$A2,"")</f>
-        <v>facility_1</v>
+        <v>mt_darwin</v>
       </c>
       <c r="B2" s="10">
-        <v>0.8</v>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.25</v>
+      </c>
+      <c r="D2">
+        <v>0.99</v>
+      </c>
+      <c r="E2">
+        <v>0.9</v>
+      </c>
+      <c r="F2">
+        <v>0.35</v>
+      </c>
+      <c r="G2">
+        <v>0.84</v>
       </c>
     </row>
     <row r="3" spans="1:309" x14ac:dyDescent="0.25">
@@ -13031,18 +13231,18 @@
   </sheetPr>
   <dimension ref="A1:KW309"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -13054,27 +13254,27 @@
       </c>
       <c r="B1" s="2" t="str">
         <f>IF(interventions!$A2&lt;&gt;"",interventions!$A2&amp;"_cost","")</f>
-        <v>intervention_1_cost</v>
+        <v>solar_system_cost</v>
       </c>
       <c r="C1" s="2" t="str">
         <f>IF(interventions!$A3&lt;&gt;"",interventions!$A3&amp;"_cost","")</f>
-        <v/>
+        <v>carpooling_and_ride_sharing_cost</v>
       </c>
       <c r="D1" s="2" t="str">
         <f>IF(interventions!$A4&lt;&gt;"",interventions!$A4&amp;"_cost","")</f>
-        <v/>
+        <v>low_gpw_anaesthetic_gases_cost</v>
       </c>
       <c r="E1" s="2" t="str">
         <f>IF(interventions!$A5&lt;&gt;"",interventions!$A5&amp;"_cost","")</f>
-        <v/>
+        <v>low_gpw_refridgerant_gases_cost</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>IF(interventions!$A6&lt;&gt;"",interventions!$A6&amp;"_cost","")</f>
-        <v/>
+        <v>water_efficient_fixtures_and_appliances_cost</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>IF(interventions!$A7&lt;&gt;"",interventions!$A7&amp;"_cost","")</f>
-        <v/>
+        <v>low_gpw_inhalers_cost</v>
       </c>
       <c r="H1" s="2" t="str">
         <f>IF(interventions!$A8&lt;&gt;"",interventions!$A8&amp;"_cost","")</f>
@@ -14288,16 +14488,26 @@
     <row r="2" spans="1:309" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>IF('study sites'!$A2&lt;&gt;"",'study sites'!$A2,"")</f>
-        <v>facility_1</v>
+        <v>mt_darwin</v>
       </c>
       <c r="B2" s="1">
-        <v>30000</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+        <v>12500</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9400</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1153</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G2" s="1">
+        <v>33</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>

--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\carbomica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E18B3F6-AAEA-46FC-B102-F136373E4C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E71225C-993C-4FD2-B07B-9204D87639DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="10" r:id="rId1"/>
@@ -56,7 +56,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Farah Houdroge:</t>
         </r>
@@ -65,7 +65,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 The first row and column will get updated automatically from the sheets "study sites" and "emission sources".
@@ -91,7 +91,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Farah Houdroge:</t>
         </r>
@@ -100,7 +100,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Place a 'y' in the cells to designate which emission source the intervention will reduce. 
@@ -127,7 +127,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Farah Houdroge:</t>
         </r>
@@ -136,7 +136,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Specify the effect size of the intervention for each facility. For example, if intervention_1 reduces emissions from emission_1 by 80%, then the effect size is 0.80.</t>
@@ -161,7 +161,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Farah Houdroge:</t>
         </r>
@@ -170,7 +170,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Specify the total cost for implementing the intervention by facility.
@@ -443,22 +443,22 @@
     <t>low_gpw_inhalers</t>
   </si>
   <si>
-    <t>Solar sytem</t>
-  </si>
-  <si>
     <t>Carpooling and ride sharing</t>
-  </si>
-  <si>
-    <t>Low gpw anaesthetic gases</t>
-  </si>
-  <si>
-    <t>Low gpw refridgerant gases</t>
   </si>
   <si>
     <t>Water efficient fixtures and appliances</t>
   </si>
   <si>
-    <t>Low gpw inhalers</t>
+    <t>Low GPW anaesthetic gases</t>
+  </si>
+  <si>
+    <t>Low GPW refridgerant gases</t>
+  </si>
+  <si>
+    <t>Low GPW inhalers</t>
+  </si>
+  <si>
+    <t>Solar system</t>
   </si>
 </sst>
 </file>
@@ -629,14 +629,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1003,7 +1003,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1019,6 +1019,9 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="43" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1616,8 +1619,8 @@
   </sheetPr>
   <dimension ref="A1:KW309"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5920,7 +5923,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5943,7 +5946,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5951,7 +5954,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5975,7 +5978,7 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5983,7 +5986,7 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5999,12 +6002,12 @@
   <dimension ref="A1:KW309"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -10099,13 +10102,13 @@
   <dimension ref="A1:KW309"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -10119,7 +10122,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="11" t="str">
         <f>IF(interventions!$A2&lt;&gt;"",interventions!$A2&amp;"_effect","")</f>
         <v>solar_system_effect</v>
       </c>
@@ -11358,10 +11361,10 @@
         <v>mt_darwin</v>
       </c>
       <c r="B2" s="10">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C2">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D2">
         <v>0.99</v>
@@ -13231,8 +13234,8 @@
   </sheetPr>
   <dimension ref="A1:KW309"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13242,7 +13245,7 @@
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.140625" customWidth="1"/>
+    <col min="6" max="6" width="40" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -14491,13 +14494,13 @@
         <v>mt_darwin</v>
       </c>
       <c r="B2" s="1">
-        <v>12500</v>
+        <v>62500</v>
       </c>
       <c r="C2" s="1">
-        <v>9400</v>
+        <v>18800</v>
       </c>
       <c r="D2" s="1">
-        <v>12</v>
+        <v>358</v>
       </c>
       <c r="E2" s="1">
         <v>1153</v>
@@ -14506,7 +14509,7 @@
         <v>1100</v>
       </c>
       <c r="G2" s="1">
-        <v>33</v>
+        <v>19734</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>

--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\carbomica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E71225C-993C-4FD2-B07B-9204D87639DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04D26EA-B70B-4983-B845-256FD148CFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="10" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="effect sizes" sheetId="6" r:id="rId7"/>
     <sheet name="unit costs" sheetId="2" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -183,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>facilities</t>
   </si>
@@ -377,15 +380,6 @@
     <t>The first row and column of this table get updated automatically. Specify the effect sizes of the interventions (if an intervention reduces emissions from a specific source by 80%, then effect size = 0.80).</t>
   </si>
   <si>
-    <t>mt_darwin</t>
-  </si>
-  <si>
-    <t>Mt Darwin</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>vehicle_fuel</t>
   </si>
   <si>
@@ -395,22 +389,10 @@
     <t>anaesthetic_gases</t>
   </si>
   <si>
-    <t>refridgerant</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
     <t>inhalers</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Travel</t>
-  </si>
-  <si>
-    <t>Refridgerant</t>
   </si>
   <si>
     <t>Waste</t>
@@ -419,16 +401,7 @@
     <t>Inhalers</t>
   </si>
   <si>
-    <t>Vehicle Fuel</t>
-  </si>
-  <si>
-    <t>Anaesthetic Gases</t>
-  </si>
-  <si>
     <t>solar_system</t>
-  </si>
-  <si>
-    <t>carpooling_and_ride_sharing</t>
   </si>
   <si>
     <t>low_gpw_anaesthetic_gases</t>
@@ -437,16 +410,7 @@
     <t>low_gpw_refridgerant_gases</t>
   </si>
   <si>
-    <t>water_efficient_fixtures_and_appliances</t>
-  </si>
-  <si>
     <t>low_gpw_inhalers</t>
-  </si>
-  <si>
-    <t>Carpooling and ride sharing</t>
-  </si>
-  <si>
-    <t>Water efficient fixtures and appliances</t>
   </si>
   <si>
     <t>Low GPW anaesthetic gases</t>
@@ -458,7 +422,94 @@
     <t>Low GPW inhalers</t>
   </si>
   <si>
-    <t>Solar system</t>
+    <t>Aga Khan Hospital, Mombasa</t>
+  </si>
+  <si>
+    <t>AKHS_Mombasa</t>
+  </si>
+  <si>
+    <t>Grid Electricity</t>
+  </si>
+  <si>
+    <t>Bottled gas(LPG)</t>
+  </si>
+  <si>
+    <t>Vehicle Fuel (Owned Vehicles)</t>
+  </si>
+  <si>
+    <t>Business travel (Taxi,Car hires, Train, Airtravel or local bus)</t>
+  </si>
+  <si>
+    <t>Anaesthetic gases</t>
+  </si>
+  <si>
+    <t>Refrigerants</t>
+  </si>
+  <si>
+    <t>bottled_gas</t>
+  </si>
+  <si>
+    <t>refrigerant</t>
+  </si>
+  <si>
+    <t>grid_electricity</t>
+  </si>
+  <si>
+    <t>alternative waste disposal methods</t>
+  </si>
+  <si>
+    <t>Replacing old tube Lights with LEDs Lights</t>
+  </si>
+  <si>
+    <t>Solar Water Heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar Water Pumping </t>
+  </si>
+  <si>
+    <t>Variable Frequency Drivers (VFDs) for Water Pumps</t>
+  </si>
+  <si>
+    <t>Replacing AC split units and old  air-conditioning packaged units for efficient splits/AHUs/VRFs</t>
+  </si>
+  <si>
+    <t>Replacing energy efficient fridges /Cold rooms</t>
+  </si>
+  <si>
+    <t>use renewable LPG such as from agricultural residues, landfill gas or biogas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transition to Hybrid/electric vehicles </t>
+  </si>
+  <si>
+    <t>electric_vehicle</t>
+  </si>
+  <si>
+    <t>PV Solar Power generation system</t>
+  </si>
+  <si>
+    <t>waste_disposal</t>
+  </si>
+  <si>
+    <t>led_lighting</t>
+  </si>
+  <si>
+    <t>solar_water_heating _system</t>
+  </si>
+  <si>
+    <t>solar_water_pumping _system</t>
+  </si>
+  <si>
+    <t>water_pumps</t>
+  </si>
+  <si>
+    <t>air_conditioning _units</t>
+  </si>
+  <si>
+    <t>energy_efficient _refrigetors</t>
+  </si>
+  <si>
+    <t>alternative_cooking _gas</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1054,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1022,6 +1073,8 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1069,7 +1122,37 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1091,6 +1174,48 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Kenya-Mombasa"/>
+      <sheetName val="Review notes"/>
+      <sheetName val="Trend"/>
+      <sheetName val="HH-Kenya Sites data"/>
+      <sheetName val="HH GHGe data-ZM &amp; Kenya site"/>
+      <sheetName val="HH-SA Sites Data"/>
+      <sheetName val="HH Zimbabwe sites Data"/>
+      <sheetName val="Mombasa Yearly Analysis"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="HH Interventions"/>
+      <sheetName val="Overall"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1">
+        <row r="23">
+          <cell r="M23">
+            <v>27079.678770000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1494,7 +1619,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,10 +1638,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1529,10 +1654,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,58 +1677,66 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1617,1375 +1750,1290 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:KW309"/>
+  <dimension ref="A1:KB298"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:309" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:288" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="str">
         <f>IF('emission sources'!$A2&lt;&gt;"",'emission sources'!$A2,"")</f>
-        <v>energy</v>
+        <v>grid_electricity</v>
       </c>
       <c r="C1" s="2" t="str">
         <f>IF('emission sources'!$A3&lt;&gt;"",'emission sources'!$A3,"")</f>
-        <v>vehicle_fuel</v>
+        <v>bottled_gas</v>
       </c>
       <c r="D1" s="2" t="str">
         <f>IF('emission sources'!$A4&lt;&gt;"",'emission sources'!$A4,"")</f>
-        <v>travel</v>
+        <v>vehicle_fuel</v>
       </c>
       <c r="E1" s="2" t="str">
         <f>IF('emission sources'!$A5&lt;&gt;"",'emission sources'!$A5,"")</f>
-        <v>anaesthetic_gases</v>
+        <v>travel</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>IF('emission sources'!$A6&lt;&gt;"",'emission sources'!$A6,"")</f>
-        <v>refridgerant</v>
+        <v>anaesthetic_gases</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>IF('emission sources'!$A7&lt;&gt;"",'emission sources'!$A7,"")</f>
-        <v>waste</v>
+        <v>refrigerant</v>
       </c>
       <c r="H1" s="2" t="str">
         <f>IF('emission sources'!$A8&lt;&gt;"",'emission sources'!$A8,"")</f>
-        <v>inhalers</v>
+        <v>waste</v>
       </c>
       <c r="I1" s="2" t="str">
         <f>IF('emission sources'!$A9&lt;&gt;"",'emission sources'!$A9,"")</f>
-        <v/>
+        <v>inhalers</v>
       </c>
       <c r="J1" s="2" t="str">
         <f>IF('emission sources'!$A10&lt;&gt;"",'emission sources'!$A10,"")</f>
         <v/>
       </c>
       <c r="K1" s="2" t="str">
-        <f>IF('emission sources'!$A11&lt;&gt;"",'emission sources'!$A11,"")</f>
+        <f>IF('emission sources'!$A12&lt;&gt;"",'emission sources'!$A12,"")</f>
         <v/>
       </c>
       <c r="L1" s="2" t="str">
-        <f>IF('emission sources'!$A12&lt;&gt;"",'emission sources'!$A12,"")</f>
+        <f>IF('emission sources'!$A13&lt;&gt;"",'emission sources'!$A13,"")</f>
         <v/>
       </c>
       <c r="M1" s="2" t="str">
-        <f>IF('emission sources'!$A13&lt;&gt;"",'emission sources'!$A13,"")</f>
+        <f>IF('emission sources'!$A14&lt;&gt;"",'emission sources'!$A14,"")</f>
         <v/>
       </c>
       <c r="N1" s="2" t="str">
-        <f>IF('emission sources'!$A14&lt;&gt;"",'emission sources'!$A14,"")</f>
+        <f>IF('emission sources'!$A15&lt;&gt;"",'emission sources'!$A15,"")</f>
         <v/>
       </c>
       <c r="O1" s="2" t="str">
-        <f>IF('emission sources'!$A15&lt;&gt;"",'emission sources'!$A15,"")</f>
+        <f>IF('emission sources'!$A16&lt;&gt;"",'emission sources'!$A16,"")</f>
         <v/>
       </c>
       <c r="P1" s="2" t="str">
-        <f>IF('emission sources'!$A16&lt;&gt;"",'emission sources'!$A16,"")</f>
+        <f>IF('emission sources'!$A17&lt;&gt;"",'emission sources'!$A17,"")</f>
         <v/>
       </c>
       <c r="Q1" s="2" t="str">
-        <f>IF('emission sources'!$A17&lt;&gt;"",'emission sources'!$A17,"")</f>
+        <f>IF('emission sources'!$A18&lt;&gt;"",'emission sources'!$A18,"")</f>
         <v/>
       </c>
       <c r="R1" s="2" t="str">
-        <f>IF('emission sources'!$A18&lt;&gt;"",'emission sources'!$A18,"")</f>
+        <f>IF('emission sources'!$A19&lt;&gt;"",'emission sources'!$A19,"")</f>
         <v/>
       </c>
       <c r="S1" s="2" t="str">
-        <f>IF('emission sources'!$A19&lt;&gt;"",'emission sources'!$A19,"")</f>
+        <f>IF('emission sources'!$A20&lt;&gt;"",'emission sources'!$A20,"")</f>
         <v/>
       </c>
       <c r="T1" s="2" t="str">
-        <f>IF('emission sources'!$A20&lt;&gt;"",'emission sources'!$A20,"")</f>
+        <f>IF('emission sources'!$A21&lt;&gt;"",'emission sources'!$A21,"")</f>
         <v/>
       </c>
       <c r="U1" s="2" t="str">
-        <f>IF('emission sources'!$A21&lt;&gt;"",'emission sources'!$A21,"")</f>
+        <f>IF('emission sources'!$A22&lt;&gt;"",'emission sources'!$A22,"")</f>
         <v/>
       </c>
       <c r="V1" s="2" t="str">
-        <f>IF('emission sources'!$A22&lt;&gt;"",'emission sources'!$A22,"")</f>
+        <f>IF('emission sources'!$A23&lt;&gt;"",'emission sources'!$A23,"")</f>
         <v/>
       </c>
       <c r="W1" s="2" t="str">
-        <f>IF('emission sources'!$A23&lt;&gt;"",'emission sources'!$A23,"")</f>
+        <f>IF('emission sources'!$A24&lt;&gt;"",'emission sources'!$A24,"")</f>
         <v/>
       </c>
       <c r="X1" s="2" t="str">
-        <f>IF('emission sources'!$A24&lt;&gt;"",'emission sources'!$A24,"")</f>
+        <f>IF('emission sources'!$A25&lt;&gt;"",'emission sources'!$A25,"")</f>
         <v/>
       </c>
       <c r="Y1" s="2" t="str">
-        <f>IF('emission sources'!$A25&lt;&gt;"",'emission sources'!$A25,"")</f>
+        <f>IF('emission sources'!$A26&lt;&gt;"",'emission sources'!$A26,"")</f>
         <v/>
       </c>
       <c r="Z1" s="2" t="str">
-        <f>IF('emission sources'!$A26&lt;&gt;"",'emission sources'!$A26,"")</f>
+        <f>IF('emission sources'!$A27&lt;&gt;"",'emission sources'!$A27,"")</f>
         <v/>
       </c>
       <c r="AA1" s="2" t="str">
-        <f>IF('emission sources'!$A27&lt;&gt;"",'emission sources'!$A27,"")</f>
+        <f>IF('emission sources'!$A28&lt;&gt;"",'emission sources'!$A28,"")</f>
         <v/>
       </c>
       <c r="AB1" s="2" t="str">
-        <f>IF('emission sources'!$A28&lt;&gt;"",'emission sources'!$A28,"")</f>
+        <f>IF('emission sources'!$A29&lt;&gt;"",'emission sources'!$A29,"")</f>
         <v/>
       </c>
       <c r="AC1" s="2" t="str">
-        <f>IF('emission sources'!$A29&lt;&gt;"",'emission sources'!$A29,"")</f>
+        <f>IF('emission sources'!$A30&lt;&gt;"",'emission sources'!$A30,"")</f>
         <v/>
       </c>
       <c r="AD1" s="2" t="str">
-        <f>IF('emission sources'!$A30&lt;&gt;"",'emission sources'!$A30,"")</f>
+        <f>IF('emission sources'!$A31&lt;&gt;"",'emission sources'!$A31,"")</f>
         <v/>
       </c>
       <c r="AE1" s="2" t="str">
-        <f>IF('emission sources'!$A31&lt;&gt;"",'emission sources'!$A31,"")</f>
+        <f>IF('emission sources'!$A32&lt;&gt;"",'emission sources'!$A32,"")</f>
         <v/>
       </c>
       <c r="AF1" s="2" t="str">
-        <f>IF('emission sources'!$A32&lt;&gt;"",'emission sources'!$A32,"")</f>
+        <f>IF('emission sources'!$A33&lt;&gt;"",'emission sources'!$A33,"")</f>
         <v/>
       </c>
       <c r="AG1" s="2" t="str">
-        <f>IF('emission sources'!$A33&lt;&gt;"",'emission sources'!$A33,"")</f>
+        <f>IF('emission sources'!$A34&lt;&gt;"",'emission sources'!$A34,"")</f>
         <v/>
       </c>
       <c r="AH1" s="2" t="str">
-        <f>IF('emission sources'!$A34&lt;&gt;"",'emission sources'!$A34,"")</f>
+        <f>IF('emission sources'!$A35&lt;&gt;"",'emission sources'!$A35,"")</f>
         <v/>
       </c>
       <c r="AI1" s="2" t="str">
-        <f>IF('emission sources'!$A35&lt;&gt;"",'emission sources'!$A35,"")</f>
+        <f>IF('emission sources'!$A36&lt;&gt;"",'emission sources'!$A36,"")</f>
         <v/>
       </c>
       <c r="AJ1" s="2" t="str">
-        <f>IF('emission sources'!$A36&lt;&gt;"",'emission sources'!$A36,"")</f>
+        <f>IF('emission sources'!$A37&lt;&gt;"",'emission sources'!$A37,"")</f>
         <v/>
       </c>
       <c r="AK1" s="2" t="str">
-        <f>IF('emission sources'!$A37&lt;&gt;"",'emission sources'!$A37,"")</f>
+        <f>IF('emission sources'!$A38&lt;&gt;"",'emission sources'!$A38,"")</f>
         <v/>
       </c>
       <c r="AL1" s="2" t="str">
-        <f>IF('emission sources'!$A38&lt;&gt;"",'emission sources'!$A38,"")</f>
+        <f>IF('emission sources'!$A39&lt;&gt;"",'emission sources'!$A39,"")</f>
         <v/>
       </c>
       <c r="AM1" s="2" t="str">
-        <f>IF('emission sources'!$A39&lt;&gt;"",'emission sources'!$A39,"")</f>
+        <f>IF('emission sources'!$A40&lt;&gt;"",'emission sources'!$A40,"")</f>
         <v/>
       </c>
       <c r="AN1" s="2" t="str">
-        <f>IF('emission sources'!$A40&lt;&gt;"",'emission sources'!$A40,"")</f>
+        <f>IF('emission sources'!$A41&lt;&gt;"",'emission sources'!$A41,"")</f>
         <v/>
       </c>
       <c r="AO1" s="2" t="str">
-        <f>IF('emission sources'!$A41&lt;&gt;"",'emission sources'!$A41,"")</f>
+        <f>IF('emission sources'!$A42&lt;&gt;"",'emission sources'!$A42,"")</f>
         <v/>
       </c>
       <c r="AP1" s="2" t="str">
-        <f>IF('emission sources'!$A42&lt;&gt;"",'emission sources'!$A42,"")</f>
+        <f>IF('emission sources'!$A43&lt;&gt;"",'emission sources'!$A43,"")</f>
         <v/>
       </c>
       <c r="AQ1" s="2" t="str">
-        <f>IF('emission sources'!$A43&lt;&gt;"",'emission sources'!$A43,"")</f>
+        <f>IF('emission sources'!$A44&lt;&gt;"",'emission sources'!$A44,"")</f>
         <v/>
       </c>
       <c r="AR1" s="2" t="str">
-        <f>IF('emission sources'!$A44&lt;&gt;"",'emission sources'!$A44,"")</f>
+        <f>IF('emission sources'!$A45&lt;&gt;"",'emission sources'!$A45,"")</f>
         <v/>
       </c>
       <c r="AS1" s="2" t="str">
-        <f>IF('emission sources'!$A45&lt;&gt;"",'emission sources'!$A45,"")</f>
+        <f>IF('emission sources'!$A46&lt;&gt;"",'emission sources'!$A46,"")</f>
         <v/>
       </c>
       <c r="AT1" s="2" t="str">
-        <f>IF('emission sources'!$A46&lt;&gt;"",'emission sources'!$A46,"")</f>
+        <f>IF('emission sources'!$A47&lt;&gt;"",'emission sources'!$A47,"")</f>
         <v/>
       </c>
       <c r="AU1" s="2" t="str">
-        <f>IF('emission sources'!$A47&lt;&gt;"",'emission sources'!$A47,"")</f>
+        <f>IF('emission sources'!$A48&lt;&gt;"",'emission sources'!$A48,"")</f>
         <v/>
       </c>
       <c r="AV1" s="2" t="str">
-        <f>IF('emission sources'!$A48&lt;&gt;"",'emission sources'!$A48,"")</f>
+        <f>IF('emission sources'!$A49&lt;&gt;"",'emission sources'!$A49,"")</f>
         <v/>
       </c>
       <c r="AW1" s="2" t="str">
-        <f>IF('emission sources'!$A49&lt;&gt;"",'emission sources'!$A49,"")</f>
+        <f>IF('emission sources'!$A50&lt;&gt;"",'emission sources'!$A50,"")</f>
         <v/>
       </c>
       <c r="AX1" s="2" t="str">
-        <f>IF('emission sources'!$A50&lt;&gt;"",'emission sources'!$A50,"")</f>
+        <f>IF('emission sources'!$A51&lt;&gt;"",'emission sources'!$A51,"")</f>
         <v/>
       </c>
       <c r="AY1" s="2" t="str">
-        <f>IF('emission sources'!$A51&lt;&gt;"",'emission sources'!$A51,"")</f>
+        <f>IF('emission sources'!$A52&lt;&gt;"",'emission sources'!$A52,"")</f>
         <v/>
       </c>
       <c r="AZ1" s="2" t="str">
-        <f>IF('emission sources'!$A52&lt;&gt;"",'emission sources'!$A52,"")</f>
+        <f>IF('emission sources'!$A53&lt;&gt;"",'emission sources'!$A53,"")</f>
         <v/>
       </c>
       <c r="BA1" s="2" t="str">
-        <f>IF('emission sources'!$A53&lt;&gt;"",'emission sources'!$A53,"")</f>
+        <f>IF('emission sources'!$A54&lt;&gt;"",'emission sources'!$A54,"")</f>
         <v/>
       </c>
       <c r="BB1" s="2" t="str">
-        <f>IF('emission sources'!$A54&lt;&gt;"",'emission sources'!$A54,"")</f>
+        <f>IF('emission sources'!$A55&lt;&gt;"",'emission sources'!$A55,"")</f>
         <v/>
       </c>
       <c r="BC1" s="2" t="str">
-        <f>IF('emission sources'!$A55&lt;&gt;"",'emission sources'!$A55,"")</f>
+        <f>IF('emission sources'!$A56&lt;&gt;"",'emission sources'!$A56,"")</f>
         <v/>
       </c>
       <c r="BD1" s="2" t="str">
-        <f>IF('emission sources'!$A56&lt;&gt;"",'emission sources'!$A56,"")</f>
+        <f>IF('emission sources'!$A57&lt;&gt;"",'emission sources'!$A57,"")</f>
         <v/>
       </c>
       <c r="BE1" s="2" t="str">
-        <f>IF('emission sources'!$A57&lt;&gt;"",'emission sources'!$A57,"")</f>
+        <f>IF('emission sources'!$A58&lt;&gt;"",'emission sources'!$A58,"")</f>
         <v/>
       </c>
       <c r="BF1" s="2" t="str">
-        <f>IF('emission sources'!$A58&lt;&gt;"",'emission sources'!$A58,"")</f>
+        <f>IF('emission sources'!$A59&lt;&gt;"",'emission sources'!$A59,"")</f>
         <v/>
       </c>
       <c r="BG1" s="2" t="str">
-        <f>IF('emission sources'!$A59&lt;&gt;"",'emission sources'!$A59,"")</f>
+        <f>IF('emission sources'!$A60&lt;&gt;"",'emission sources'!$A60,"")</f>
         <v/>
       </c>
       <c r="BH1" s="2" t="str">
-        <f>IF('emission sources'!$A60&lt;&gt;"",'emission sources'!$A60,"")</f>
+        <f>IF('emission sources'!$A61&lt;&gt;"",'emission sources'!$A61,"")</f>
         <v/>
       </c>
       <c r="BI1" s="2" t="str">
-        <f>IF('emission sources'!$A61&lt;&gt;"",'emission sources'!$A61,"")</f>
+        <f>IF('emission sources'!$A62&lt;&gt;"",'emission sources'!$A62,"")</f>
         <v/>
       </c>
       <c r="BJ1" s="2" t="str">
-        <f>IF('emission sources'!$A62&lt;&gt;"",'emission sources'!$A62,"")</f>
+        <f>IF('emission sources'!$A63&lt;&gt;"",'emission sources'!$A63,"")</f>
         <v/>
       </c>
       <c r="BK1" s="2" t="str">
-        <f>IF('emission sources'!$A63&lt;&gt;"",'emission sources'!$A63,"")</f>
+        <f>IF('emission sources'!$A64&lt;&gt;"",'emission sources'!$A64,"")</f>
         <v/>
       </c>
       <c r="BL1" s="2" t="str">
-        <f>IF('emission sources'!$A64&lt;&gt;"",'emission sources'!$A64,"")</f>
+        <f>IF('emission sources'!$A65&lt;&gt;"",'emission sources'!$A65,"")</f>
         <v/>
       </c>
       <c r="BM1" s="2" t="str">
-        <f>IF('emission sources'!$A65&lt;&gt;"",'emission sources'!$A65,"")</f>
+        <f>IF('emission sources'!$A66&lt;&gt;"",'emission sources'!$A66,"")</f>
         <v/>
       </c>
       <c r="BN1" s="2" t="str">
-        <f>IF('emission sources'!$A66&lt;&gt;"",'emission sources'!$A66,"")</f>
+        <f>IF('emission sources'!$A67&lt;&gt;"",'emission sources'!$A67,"")</f>
         <v/>
       </c>
       <c r="BO1" s="2" t="str">
-        <f>IF('emission sources'!$A67&lt;&gt;"",'emission sources'!$A67,"")</f>
+        <f>IF('emission sources'!$A68&lt;&gt;"",'emission sources'!$A68,"")</f>
         <v/>
       </c>
       <c r="BP1" s="2" t="str">
-        <f>IF('emission sources'!$A68&lt;&gt;"",'emission sources'!$A68,"")</f>
+        <f>IF('emission sources'!$A69&lt;&gt;"",'emission sources'!$A69,"")</f>
         <v/>
       </c>
       <c r="BQ1" s="2" t="str">
-        <f>IF('emission sources'!$A69&lt;&gt;"",'emission sources'!$A69,"")</f>
+        <f>IF('emission sources'!$A70&lt;&gt;"",'emission sources'!$A70,"")</f>
         <v/>
       </c>
       <c r="BR1" s="2" t="str">
-        <f>IF('emission sources'!$A70&lt;&gt;"",'emission sources'!$A70,"")</f>
+        <f>IF('emission sources'!$A71&lt;&gt;"",'emission sources'!$A71,"")</f>
         <v/>
       </c>
       <c r="BS1" s="2" t="str">
-        <f>IF('emission sources'!$A71&lt;&gt;"",'emission sources'!$A71,"")</f>
+        <f>IF('emission sources'!$A72&lt;&gt;"",'emission sources'!$A72,"")</f>
         <v/>
       </c>
       <c r="BT1" s="2" t="str">
-        <f>IF('emission sources'!$A72&lt;&gt;"",'emission sources'!$A72,"")</f>
+        <f>IF('emission sources'!$A73&lt;&gt;"",'emission sources'!$A73,"")</f>
         <v/>
       </c>
       <c r="BU1" s="2" t="str">
-        <f>IF('emission sources'!$A73&lt;&gt;"",'emission sources'!$A73,"")</f>
+        <f>IF('emission sources'!$A74&lt;&gt;"",'emission sources'!$A74,"")</f>
         <v/>
       </c>
       <c r="BV1" s="2" t="str">
-        <f>IF('emission sources'!$A74&lt;&gt;"",'emission sources'!$A74,"")</f>
+        <f>IF('emission sources'!$A75&lt;&gt;"",'emission sources'!$A75,"")</f>
         <v/>
       </c>
       <c r="BW1" s="2" t="str">
-        <f>IF('emission sources'!$A75&lt;&gt;"",'emission sources'!$A75,"")</f>
+        <f>IF('emission sources'!$A76&lt;&gt;"",'emission sources'!$A76,"")</f>
         <v/>
       </c>
       <c r="BX1" s="2" t="str">
-        <f>IF('emission sources'!$A76&lt;&gt;"",'emission sources'!$A76,"")</f>
+        <f>IF('emission sources'!$A77&lt;&gt;"",'emission sources'!$A77,"")</f>
         <v/>
       </c>
       <c r="BY1" s="2" t="str">
-        <f>IF('emission sources'!$A77&lt;&gt;"",'emission sources'!$A77,"")</f>
+        <f>IF('emission sources'!$A78&lt;&gt;"",'emission sources'!$A78,"")</f>
         <v/>
       </c>
       <c r="BZ1" s="2" t="str">
-        <f>IF('emission sources'!$A78&lt;&gt;"",'emission sources'!$A78,"")</f>
+        <f>IF('emission sources'!$A79&lt;&gt;"",'emission sources'!$A79,"")</f>
         <v/>
       </c>
       <c r="CA1" s="2" t="str">
-        <f>IF('emission sources'!$A79&lt;&gt;"",'emission sources'!$A79,"")</f>
+        <f>IF('emission sources'!$A80&lt;&gt;"",'emission sources'!$A80,"")</f>
         <v/>
       </c>
       <c r="CB1" s="2" t="str">
-        <f>IF('emission sources'!$A80&lt;&gt;"",'emission sources'!$A80,"")</f>
+        <f>IF('emission sources'!$A81&lt;&gt;"",'emission sources'!$A81,"")</f>
         <v/>
       </c>
       <c r="CC1" s="2" t="str">
-        <f>IF('emission sources'!$A81&lt;&gt;"",'emission sources'!$A81,"")</f>
+        <f>IF('emission sources'!$A82&lt;&gt;"",'emission sources'!$A82,"")</f>
         <v/>
       </c>
       <c r="CD1" s="2" t="str">
-        <f>IF('emission sources'!$A82&lt;&gt;"",'emission sources'!$A82,"")</f>
+        <f>IF('emission sources'!$A83&lt;&gt;"",'emission sources'!$A83,"")</f>
         <v/>
       </c>
       <c r="CE1" s="2" t="str">
-        <f>IF('emission sources'!$A83&lt;&gt;"",'emission sources'!$A83,"")</f>
+        <f>IF('emission sources'!$A84&lt;&gt;"",'emission sources'!$A84,"")</f>
         <v/>
       </c>
       <c r="CF1" s="2" t="str">
-        <f>IF('emission sources'!$A84&lt;&gt;"",'emission sources'!$A84,"")</f>
+        <f>IF('emission sources'!$A85&lt;&gt;"",'emission sources'!$A85,"")</f>
         <v/>
       </c>
       <c r="CG1" s="2" t="str">
-        <f>IF('emission sources'!$A85&lt;&gt;"",'emission sources'!$A85,"")</f>
+        <f>IF('emission sources'!$A86&lt;&gt;"",'emission sources'!$A86,"")</f>
         <v/>
       </c>
       <c r="CH1" s="2" t="str">
-        <f>IF('emission sources'!$A86&lt;&gt;"",'emission sources'!$A86,"")</f>
+        <f>IF('emission sources'!$A87&lt;&gt;"",'emission sources'!$A87,"")</f>
         <v/>
       </c>
       <c r="CI1" s="2" t="str">
-        <f>IF('emission sources'!$A87&lt;&gt;"",'emission sources'!$A87,"")</f>
+        <f>IF('emission sources'!$A88&lt;&gt;"",'emission sources'!$A88,"")</f>
         <v/>
       </c>
       <c r="CJ1" s="2" t="str">
-        <f>IF('emission sources'!$A88&lt;&gt;"",'emission sources'!$A88,"")</f>
+        <f>IF('emission sources'!$A89&lt;&gt;"",'emission sources'!$A89,"")</f>
         <v/>
       </c>
       <c r="CK1" s="2" t="str">
-        <f>IF('emission sources'!$A89&lt;&gt;"",'emission sources'!$A89,"")</f>
+        <f>IF('emission sources'!$A90&lt;&gt;"",'emission sources'!$A90,"")</f>
         <v/>
       </c>
       <c r="CL1" s="2" t="str">
-        <f>IF('emission sources'!$A90&lt;&gt;"",'emission sources'!$A90,"")</f>
+        <f>IF('emission sources'!$A91&lt;&gt;"",'emission sources'!$A91,"")</f>
         <v/>
       </c>
       <c r="CM1" s="2" t="str">
-        <f>IF('emission sources'!$A91&lt;&gt;"",'emission sources'!$A91,"")</f>
+        <f>IF('emission sources'!$A92&lt;&gt;"",'emission sources'!$A92,"")</f>
         <v/>
       </c>
       <c r="CN1" s="2" t="str">
-        <f>IF('emission sources'!$A92&lt;&gt;"",'emission sources'!$A92,"")</f>
+        <f>IF('emission sources'!$A93&lt;&gt;"",'emission sources'!$A93,"")</f>
         <v/>
       </c>
       <c r="CO1" s="2" t="str">
-        <f>IF('emission sources'!$A93&lt;&gt;"",'emission sources'!$A93,"")</f>
+        <f>IF('emission sources'!$A94&lt;&gt;"",'emission sources'!$A94,"")</f>
         <v/>
       </c>
       <c r="CP1" s="2" t="str">
-        <f>IF('emission sources'!$A94&lt;&gt;"",'emission sources'!$A94,"")</f>
+        <f>IF('emission sources'!$A95&lt;&gt;"",'emission sources'!$A95,"")</f>
         <v/>
       </c>
       <c r="CQ1" s="2" t="str">
-        <f>IF('emission sources'!$A95&lt;&gt;"",'emission sources'!$A95,"")</f>
+        <f>IF('emission sources'!$A96&lt;&gt;"",'emission sources'!$A96,"")</f>
         <v/>
       </c>
       <c r="CR1" s="2" t="str">
-        <f>IF('emission sources'!$A96&lt;&gt;"",'emission sources'!$A96,"")</f>
+        <f>IF('emission sources'!$A97&lt;&gt;"",'emission sources'!$A97,"")</f>
         <v/>
       </c>
       <c r="CS1" s="2" t="str">
-        <f>IF('emission sources'!$A97&lt;&gt;"",'emission sources'!$A97,"")</f>
+        <f>IF('emission sources'!$A98&lt;&gt;"",'emission sources'!$A98,"")</f>
         <v/>
       </c>
       <c r="CT1" s="2" t="str">
-        <f>IF('emission sources'!$A98&lt;&gt;"",'emission sources'!$A98,"")</f>
+        <f>IF('emission sources'!$A99&lt;&gt;"",'emission sources'!$A99,"")</f>
         <v/>
       </c>
       <c r="CU1" s="2" t="str">
-        <f>IF('emission sources'!$A99&lt;&gt;"",'emission sources'!$A99,"")</f>
+        <f>IF('emission sources'!$A100&lt;&gt;"",'emission sources'!$A100,"")</f>
         <v/>
       </c>
       <c r="CV1" s="2" t="str">
-        <f>IF('emission sources'!$A100&lt;&gt;"",'emission sources'!$A100,"")</f>
+        <f>IF('emission sources'!$A101&lt;&gt;"",'emission sources'!$A101,"")</f>
         <v/>
       </c>
       <c r="CW1" s="2" t="str">
-        <f>IF('emission sources'!$A101&lt;&gt;"",'emission sources'!$A101,"")</f>
+        <f>IF('emission sources'!$A102&lt;&gt;"",'emission sources'!$A102,"")</f>
         <v/>
       </c>
       <c r="CX1" s="2" t="str">
-        <f>IF('emission sources'!$A102&lt;&gt;"",'emission sources'!$A102,"")</f>
+        <f>IF('emission sources'!$A103&lt;&gt;"",'emission sources'!$A103,"")</f>
         <v/>
       </c>
       <c r="CY1" s="2" t="str">
-        <f>IF('emission sources'!$A103&lt;&gt;"",'emission sources'!$A103,"")</f>
+        <f>IF('emission sources'!$A104&lt;&gt;"",'emission sources'!$A104,"")</f>
         <v/>
       </c>
       <c r="CZ1" s="2" t="str">
-        <f>IF('emission sources'!$A104&lt;&gt;"",'emission sources'!$A104,"")</f>
+        <f>IF('emission sources'!$A105&lt;&gt;"",'emission sources'!$A105,"")</f>
         <v/>
       </c>
       <c r="DA1" s="2" t="str">
-        <f>IF('emission sources'!$A105&lt;&gt;"",'emission sources'!$A105,"")</f>
+        <f>IF('emission sources'!$A106&lt;&gt;"",'emission sources'!$A106,"")</f>
         <v/>
       </c>
       <c r="DB1" s="2" t="str">
-        <f>IF('emission sources'!$A106&lt;&gt;"",'emission sources'!$A106,"")</f>
+        <f>IF('emission sources'!$A107&lt;&gt;"",'emission sources'!$A107,"")</f>
         <v/>
       </c>
       <c r="DC1" s="2" t="str">
-        <f>IF('emission sources'!$A107&lt;&gt;"",'emission sources'!$A107,"")</f>
+        <f>IF('emission sources'!$A108&lt;&gt;"",'emission sources'!$A108,"")</f>
         <v/>
       </c>
       <c r="DD1" s="2" t="str">
-        <f>IF('emission sources'!$A108&lt;&gt;"",'emission sources'!$A108,"")</f>
+        <f>IF('emission sources'!$A109&lt;&gt;"",'emission sources'!$A109,"")</f>
         <v/>
       </c>
       <c r="DE1" s="2" t="str">
-        <f>IF('emission sources'!$A109&lt;&gt;"",'emission sources'!$A109,"")</f>
+        <f>IF('emission sources'!$A110&lt;&gt;"",'emission sources'!$A110,"")</f>
         <v/>
       </c>
       <c r="DF1" s="2" t="str">
-        <f>IF('emission sources'!$A110&lt;&gt;"",'emission sources'!$A110,"")</f>
+        <f>IF('emission sources'!$A111&lt;&gt;"",'emission sources'!$A111,"")</f>
         <v/>
       </c>
       <c r="DG1" s="2" t="str">
-        <f>IF('emission sources'!$A111&lt;&gt;"",'emission sources'!$A111,"")</f>
+        <f>IF('emission sources'!$A112&lt;&gt;"",'emission sources'!$A112,"")</f>
         <v/>
       </c>
       <c r="DH1" s="2" t="str">
-        <f>IF('emission sources'!$A112&lt;&gt;"",'emission sources'!$A112,"")</f>
+        <f>IF('emission sources'!$A113&lt;&gt;"",'emission sources'!$A113,"")</f>
         <v/>
       </c>
       <c r="DI1" s="2" t="str">
-        <f>IF('emission sources'!$A113&lt;&gt;"",'emission sources'!$A113,"")</f>
+        <f>IF('emission sources'!$A114&lt;&gt;"",'emission sources'!$A114,"")</f>
         <v/>
       </c>
       <c r="DJ1" s="2" t="str">
-        <f>IF('emission sources'!$A114&lt;&gt;"",'emission sources'!$A114,"")</f>
+        <f>IF('emission sources'!$A115&lt;&gt;"",'emission sources'!$A115,"")</f>
         <v/>
       </c>
       <c r="DK1" s="2" t="str">
-        <f>IF('emission sources'!$A115&lt;&gt;"",'emission sources'!$A115,"")</f>
+        <f>IF('emission sources'!$A116&lt;&gt;"",'emission sources'!$A116,"")</f>
         <v/>
       </c>
       <c r="DL1" s="2" t="str">
-        <f>IF('emission sources'!$A116&lt;&gt;"",'emission sources'!$A116,"")</f>
+        <f>IF('emission sources'!$A117&lt;&gt;"",'emission sources'!$A117,"")</f>
         <v/>
       </c>
       <c r="DM1" s="2" t="str">
-        <f>IF('emission sources'!$A117&lt;&gt;"",'emission sources'!$A117,"")</f>
+        <f>IF('emission sources'!$A118&lt;&gt;"",'emission sources'!$A118,"")</f>
         <v/>
       </c>
       <c r="DN1" s="2" t="str">
-        <f>IF('emission sources'!$A118&lt;&gt;"",'emission sources'!$A118,"")</f>
+        <f>IF('emission sources'!$A119&lt;&gt;"",'emission sources'!$A119,"")</f>
         <v/>
       </c>
       <c r="DO1" s="2" t="str">
-        <f>IF('emission sources'!$A119&lt;&gt;"",'emission sources'!$A119,"")</f>
+        <f>IF('emission sources'!$A120&lt;&gt;"",'emission sources'!$A120,"")</f>
         <v/>
       </c>
       <c r="DP1" s="2" t="str">
-        <f>IF('emission sources'!$A120&lt;&gt;"",'emission sources'!$A120,"")</f>
+        <f>IF('emission sources'!$A121&lt;&gt;"",'emission sources'!$A121,"")</f>
         <v/>
       </c>
       <c r="DQ1" s="2" t="str">
-        <f>IF('emission sources'!$A121&lt;&gt;"",'emission sources'!$A121,"")</f>
+        <f>IF('emission sources'!$A122&lt;&gt;"",'emission sources'!$A122,"")</f>
         <v/>
       </c>
       <c r="DR1" s="2" t="str">
-        <f>IF('emission sources'!$A122&lt;&gt;"",'emission sources'!$A122,"")</f>
+        <f>IF('emission sources'!$A123&lt;&gt;"",'emission sources'!$A123,"")</f>
         <v/>
       </c>
       <c r="DS1" s="2" t="str">
-        <f>IF('emission sources'!$A123&lt;&gt;"",'emission sources'!$A123,"")</f>
+        <f>IF('emission sources'!$A124&lt;&gt;"",'emission sources'!$A124,"")</f>
         <v/>
       </c>
       <c r="DT1" s="2" t="str">
-        <f>IF('emission sources'!$A124&lt;&gt;"",'emission sources'!$A124,"")</f>
+        <f>IF('emission sources'!$A125&lt;&gt;"",'emission sources'!$A125,"")</f>
         <v/>
       </c>
       <c r="DU1" s="2" t="str">
-        <f>IF('emission sources'!$A125&lt;&gt;"",'emission sources'!$A125,"")</f>
+        <f>IF('emission sources'!$A126&lt;&gt;"",'emission sources'!$A126,"")</f>
         <v/>
       </c>
       <c r="DV1" s="2" t="str">
-        <f>IF('emission sources'!$A126&lt;&gt;"",'emission sources'!$A126,"")</f>
+        <f>IF('emission sources'!$A127&lt;&gt;"",'emission sources'!$A127,"")</f>
         <v/>
       </c>
       <c r="DW1" s="2" t="str">
-        <f>IF('emission sources'!$A127&lt;&gt;"",'emission sources'!$A127,"")</f>
+        <f>IF('emission sources'!$A128&lt;&gt;"",'emission sources'!$A128,"")</f>
         <v/>
       </c>
       <c r="DX1" s="2" t="str">
-        <f>IF('emission sources'!$A128&lt;&gt;"",'emission sources'!$A128,"")</f>
+        <f>IF('emission sources'!$A129&lt;&gt;"",'emission sources'!$A129,"")</f>
         <v/>
       </c>
       <c r="DY1" s="2" t="str">
-        <f>IF('emission sources'!$A129&lt;&gt;"",'emission sources'!$A129,"")</f>
+        <f>IF('emission sources'!$A130&lt;&gt;"",'emission sources'!$A130,"")</f>
         <v/>
       </c>
       <c r="DZ1" s="2" t="str">
-        <f>IF('emission sources'!$A130&lt;&gt;"",'emission sources'!$A130,"")</f>
+        <f>IF('emission sources'!$A131&lt;&gt;"",'emission sources'!$A131,"")</f>
         <v/>
       </c>
       <c r="EA1" s="2" t="str">
-        <f>IF('emission sources'!$A131&lt;&gt;"",'emission sources'!$A131,"")</f>
+        <f>IF('emission sources'!$A132&lt;&gt;"",'emission sources'!$A132,"")</f>
         <v/>
       </c>
       <c r="EB1" s="2" t="str">
-        <f>IF('emission sources'!$A132&lt;&gt;"",'emission sources'!$A132,"")</f>
+        <f>IF('emission sources'!$A133&lt;&gt;"",'emission sources'!$A133,"")</f>
         <v/>
       </c>
       <c r="EC1" s="2" t="str">
-        <f>IF('emission sources'!$A133&lt;&gt;"",'emission sources'!$A133,"")</f>
+        <f>IF('emission sources'!$A134&lt;&gt;"",'emission sources'!$A134,"")</f>
         <v/>
       </c>
       <c r="ED1" s="2" t="str">
-        <f>IF('emission sources'!$A134&lt;&gt;"",'emission sources'!$A134,"")</f>
+        <f>IF('emission sources'!$A135&lt;&gt;"",'emission sources'!$A135,"")</f>
         <v/>
       </c>
       <c r="EE1" s="2" t="str">
-        <f>IF('emission sources'!$A135&lt;&gt;"",'emission sources'!$A135,"")</f>
+        <f>IF('emission sources'!$A136&lt;&gt;"",'emission sources'!$A136,"")</f>
         <v/>
       </c>
       <c r="EF1" s="2" t="str">
-        <f>IF('emission sources'!$A136&lt;&gt;"",'emission sources'!$A136,"")</f>
+        <f>IF('emission sources'!$A137&lt;&gt;"",'emission sources'!$A137,"")</f>
         <v/>
       </c>
       <c r="EG1" s="2" t="str">
-        <f>IF('emission sources'!$A137&lt;&gt;"",'emission sources'!$A137,"")</f>
+        <f>IF('emission sources'!$A138&lt;&gt;"",'emission sources'!$A138,"")</f>
         <v/>
       </c>
       <c r="EH1" s="2" t="str">
-        <f>IF('emission sources'!$A138&lt;&gt;"",'emission sources'!$A138,"")</f>
+        <f>IF('emission sources'!$A139&lt;&gt;"",'emission sources'!$A139,"")</f>
         <v/>
       </c>
       <c r="EI1" s="2" t="str">
-        <f>IF('emission sources'!$A139&lt;&gt;"",'emission sources'!$A139,"")</f>
+        <f>IF('emission sources'!$A140&lt;&gt;"",'emission sources'!$A140,"")</f>
         <v/>
       </c>
       <c r="EJ1" s="2" t="str">
-        <f>IF('emission sources'!$A140&lt;&gt;"",'emission sources'!$A140,"")</f>
+        <f>IF('emission sources'!$A141&lt;&gt;"",'emission sources'!$A141,"")</f>
         <v/>
       </c>
       <c r="EK1" s="2" t="str">
-        <f>IF('emission sources'!$A141&lt;&gt;"",'emission sources'!$A141,"")</f>
+        <f>IF('emission sources'!$A142&lt;&gt;"",'emission sources'!$A142,"")</f>
         <v/>
       </c>
       <c r="EL1" s="2" t="str">
-        <f>IF('emission sources'!$A142&lt;&gt;"",'emission sources'!$A142,"")</f>
+        <f>IF('emission sources'!$A143&lt;&gt;"",'emission sources'!$A143,"")</f>
         <v/>
       </c>
       <c r="EM1" s="2" t="str">
-        <f>IF('emission sources'!$A143&lt;&gt;"",'emission sources'!$A143,"")</f>
+        <f>IF('emission sources'!$A144&lt;&gt;"",'emission sources'!$A144,"")</f>
         <v/>
       </c>
       <c r="EN1" s="2" t="str">
-        <f>IF('emission sources'!$A144&lt;&gt;"",'emission sources'!$A144,"")</f>
+        <f>IF('emission sources'!$A145&lt;&gt;"",'emission sources'!$A145,"")</f>
         <v/>
       </c>
       <c r="EO1" s="2" t="str">
-        <f>IF('emission sources'!$A145&lt;&gt;"",'emission sources'!$A145,"")</f>
+        <f>IF('emission sources'!$A146&lt;&gt;"",'emission sources'!$A146,"")</f>
         <v/>
       </c>
       <c r="EP1" s="2" t="str">
-        <f>IF('emission sources'!$A146&lt;&gt;"",'emission sources'!$A146,"")</f>
+        <f>IF('emission sources'!$A147&lt;&gt;"",'emission sources'!$A147,"")</f>
         <v/>
       </c>
       <c r="EQ1" s="2" t="str">
-        <f>IF('emission sources'!$A147&lt;&gt;"",'emission sources'!$A147,"")</f>
+        <f>IF('emission sources'!$A148&lt;&gt;"",'emission sources'!$A148,"")</f>
         <v/>
       </c>
       <c r="ER1" s="2" t="str">
-        <f>IF('emission sources'!$A148&lt;&gt;"",'emission sources'!$A148,"")</f>
+        <f>IF('emission sources'!$A149&lt;&gt;"",'emission sources'!$A149,"")</f>
         <v/>
       </c>
       <c r="ES1" s="2" t="str">
-        <f>IF('emission sources'!$A149&lt;&gt;"",'emission sources'!$A149,"")</f>
+        <f>IF('emission sources'!$A150&lt;&gt;"",'emission sources'!$A150,"")</f>
         <v/>
       </c>
       <c r="ET1" s="2" t="str">
-        <f>IF('emission sources'!$A150&lt;&gt;"",'emission sources'!$A150,"")</f>
+        <f>IF('emission sources'!$A151&lt;&gt;"",'emission sources'!$A151,"")</f>
         <v/>
       </c>
       <c r="EU1" s="2" t="str">
-        <f>IF('emission sources'!$A151&lt;&gt;"",'emission sources'!$A151,"")</f>
+        <f>IF('emission sources'!$A152&lt;&gt;"",'emission sources'!$A152,"")</f>
         <v/>
       </c>
       <c r="EV1" s="2" t="str">
-        <f>IF('emission sources'!$A152&lt;&gt;"",'emission sources'!$A152,"")</f>
+        <f>IF('emission sources'!$A153&lt;&gt;"",'emission sources'!$A153,"")</f>
         <v/>
       </c>
       <c r="EW1" s="2" t="str">
-        <f>IF('emission sources'!$A153&lt;&gt;"",'emission sources'!$A153,"")</f>
+        <f>IF('emission sources'!$A154&lt;&gt;"",'emission sources'!$A154,"")</f>
         <v/>
       </c>
       <c r="EX1" s="2" t="str">
-        <f>IF('emission sources'!$A154&lt;&gt;"",'emission sources'!$A154,"")</f>
+        <f>IF('emission sources'!$A155&lt;&gt;"",'emission sources'!$A155,"")</f>
         <v/>
       </c>
       <c r="EY1" s="2" t="str">
-        <f>IF('emission sources'!$A155&lt;&gt;"",'emission sources'!$A155,"")</f>
+        <f>IF('emission sources'!$A156&lt;&gt;"",'emission sources'!$A156,"")</f>
         <v/>
       </c>
       <c r="EZ1" s="2" t="str">
-        <f>IF('emission sources'!$A156&lt;&gt;"",'emission sources'!$A156,"")</f>
+        <f>IF('emission sources'!$A157&lt;&gt;"",'emission sources'!$A157,"")</f>
         <v/>
       </c>
       <c r="FA1" s="2" t="str">
-        <f>IF('emission sources'!$A157&lt;&gt;"",'emission sources'!$A157,"")</f>
+        <f>IF('emission sources'!$A158&lt;&gt;"",'emission sources'!$A158,"")</f>
         <v/>
       </c>
       <c r="FB1" s="2" t="str">
-        <f>IF('emission sources'!$A158&lt;&gt;"",'emission sources'!$A158,"")</f>
+        <f>IF('emission sources'!$A159&lt;&gt;"",'emission sources'!$A159,"")</f>
         <v/>
       </c>
       <c r="FC1" s="2" t="str">
-        <f>IF('emission sources'!$A159&lt;&gt;"",'emission sources'!$A159,"")</f>
+        <f>IF('emission sources'!$A160&lt;&gt;"",'emission sources'!$A160,"")</f>
         <v/>
       </c>
       <c r="FD1" s="2" t="str">
-        <f>IF('emission sources'!$A160&lt;&gt;"",'emission sources'!$A160,"")</f>
+        <f>IF('emission sources'!$A161&lt;&gt;"",'emission sources'!$A161,"")</f>
         <v/>
       </c>
       <c r="FE1" s="2" t="str">
-        <f>IF('emission sources'!$A161&lt;&gt;"",'emission sources'!$A161,"")</f>
+        <f>IF('emission sources'!$A162&lt;&gt;"",'emission sources'!$A162,"")</f>
         <v/>
       </c>
       <c r="FF1" s="2" t="str">
-        <f>IF('emission sources'!$A162&lt;&gt;"",'emission sources'!$A162,"")</f>
+        <f>IF('emission sources'!$A163&lt;&gt;"",'emission sources'!$A163,"")</f>
         <v/>
       </c>
       <c r="FG1" s="2" t="str">
-        <f>IF('emission sources'!$A163&lt;&gt;"",'emission sources'!$A163,"")</f>
+        <f>IF('emission sources'!$A164&lt;&gt;"",'emission sources'!$A164,"")</f>
         <v/>
       </c>
       <c r="FH1" s="2" t="str">
-        <f>IF('emission sources'!$A164&lt;&gt;"",'emission sources'!$A164,"")</f>
+        <f>IF('emission sources'!$A165&lt;&gt;"",'emission sources'!$A165,"")</f>
         <v/>
       </c>
       <c r="FI1" s="2" t="str">
-        <f>IF('emission sources'!$A165&lt;&gt;"",'emission sources'!$A165,"")</f>
+        <f>IF('emission sources'!$A166&lt;&gt;"",'emission sources'!$A166,"")</f>
         <v/>
       </c>
       <c r="FJ1" s="2" t="str">
-        <f>IF('emission sources'!$A166&lt;&gt;"",'emission sources'!$A166,"")</f>
+        <f>IF('emission sources'!$A167&lt;&gt;"",'emission sources'!$A167,"")</f>
         <v/>
       </c>
       <c r="FK1" s="2" t="str">
-        <f>IF('emission sources'!$A167&lt;&gt;"",'emission sources'!$A167,"")</f>
+        <f>IF('emission sources'!$A168&lt;&gt;"",'emission sources'!$A168,"")</f>
         <v/>
       </c>
       <c r="FL1" s="2" t="str">
-        <f>IF('emission sources'!$A168&lt;&gt;"",'emission sources'!$A168,"")</f>
+        <f>IF('emission sources'!$A169&lt;&gt;"",'emission sources'!$A169,"")</f>
         <v/>
       </c>
       <c r="FM1" s="2" t="str">
-        <f>IF('emission sources'!$A169&lt;&gt;"",'emission sources'!$A169,"")</f>
+        <f>IF('emission sources'!$A170&lt;&gt;"",'emission sources'!$A170,"")</f>
         <v/>
       </c>
       <c r="FN1" s="2" t="str">
-        <f>IF('emission sources'!$A170&lt;&gt;"",'emission sources'!$A170,"")</f>
+        <f>IF('emission sources'!$A171&lt;&gt;"",'emission sources'!$A171,"")</f>
         <v/>
       </c>
       <c r="FO1" s="2" t="str">
-        <f>IF('emission sources'!$A171&lt;&gt;"",'emission sources'!$A171,"")</f>
+        <f>IF('emission sources'!$A172&lt;&gt;"",'emission sources'!$A172,"")</f>
         <v/>
       </c>
       <c r="FP1" s="2" t="str">
-        <f>IF('emission sources'!$A172&lt;&gt;"",'emission sources'!$A172,"")</f>
+        <f>IF('emission sources'!$A173&lt;&gt;"",'emission sources'!$A173,"")</f>
         <v/>
       </c>
       <c r="FQ1" s="2" t="str">
-        <f>IF('emission sources'!$A173&lt;&gt;"",'emission sources'!$A173,"")</f>
+        <f>IF('emission sources'!$A174&lt;&gt;"",'emission sources'!$A174,"")</f>
         <v/>
       </c>
       <c r="FR1" s="2" t="str">
-        <f>IF('emission sources'!$A174&lt;&gt;"",'emission sources'!$A174,"")</f>
+        <f>IF('emission sources'!$A175&lt;&gt;"",'emission sources'!$A175,"")</f>
         <v/>
       </c>
       <c r="FS1" s="2" t="str">
-        <f>IF('emission sources'!$A175&lt;&gt;"",'emission sources'!$A175,"")</f>
+        <f>IF('emission sources'!$A176&lt;&gt;"",'emission sources'!$A176,"")</f>
         <v/>
       </c>
       <c r="FT1" s="2" t="str">
-        <f>IF('emission sources'!$A176&lt;&gt;"",'emission sources'!$A176,"")</f>
+        <f>IF('emission sources'!$A177&lt;&gt;"",'emission sources'!$A177,"")</f>
         <v/>
       </c>
       <c r="FU1" s="2" t="str">
-        <f>IF('emission sources'!$A177&lt;&gt;"",'emission sources'!$A177,"")</f>
+        <f>IF('emission sources'!$A178&lt;&gt;"",'emission sources'!$A178,"")</f>
         <v/>
       </c>
       <c r="FV1" s="2" t="str">
-        <f>IF('emission sources'!$A178&lt;&gt;"",'emission sources'!$A178,"")</f>
+        <f>IF('emission sources'!$A179&lt;&gt;"",'emission sources'!$A179,"")</f>
         <v/>
       </c>
       <c r="FW1" s="2" t="str">
-        <f>IF('emission sources'!$A179&lt;&gt;"",'emission sources'!$A179,"")</f>
+        <f>IF('emission sources'!$A180&lt;&gt;"",'emission sources'!$A180,"")</f>
         <v/>
       </c>
       <c r="FX1" s="2" t="str">
-        <f>IF('emission sources'!$A180&lt;&gt;"",'emission sources'!$A180,"")</f>
+        <f>IF('emission sources'!$A181&lt;&gt;"",'emission sources'!$A181,"")</f>
         <v/>
       </c>
       <c r="FY1" s="2" t="str">
-        <f>IF('emission sources'!$A181&lt;&gt;"",'emission sources'!$A181,"")</f>
+        <f>IF('emission sources'!$A182&lt;&gt;"",'emission sources'!$A182,"")</f>
         <v/>
       </c>
       <c r="FZ1" s="2" t="str">
-        <f>IF('emission sources'!$A182&lt;&gt;"",'emission sources'!$A182,"")</f>
+        <f>IF('emission sources'!$A183&lt;&gt;"",'emission sources'!$A183,"")</f>
         <v/>
       </c>
       <c r="GA1" s="2" t="str">
-        <f>IF('emission sources'!$A183&lt;&gt;"",'emission sources'!$A183,"")</f>
+        <f>IF('emission sources'!$A184&lt;&gt;"",'emission sources'!$A184,"")</f>
         <v/>
       </c>
       <c r="GB1" s="2" t="str">
-        <f>IF('emission sources'!$A184&lt;&gt;"",'emission sources'!$A184,"")</f>
+        <f>IF('emission sources'!$A185&lt;&gt;"",'emission sources'!$A185,"")</f>
         <v/>
       </c>
       <c r="GC1" s="2" t="str">
-        <f>IF('emission sources'!$A185&lt;&gt;"",'emission sources'!$A185,"")</f>
+        <f>IF('emission sources'!$A186&lt;&gt;"",'emission sources'!$A186,"")</f>
         <v/>
       </c>
       <c r="GD1" s="2" t="str">
-        <f>IF('emission sources'!$A186&lt;&gt;"",'emission sources'!$A186,"")</f>
+        <f>IF('emission sources'!$A187&lt;&gt;"",'emission sources'!$A187,"")</f>
         <v/>
       </c>
       <c r="GE1" s="2" t="str">
-        <f>IF('emission sources'!$A187&lt;&gt;"",'emission sources'!$A187,"")</f>
+        <f>IF('emission sources'!$A188&lt;&gt;"",'emission sources'!$A188,"")</f>
         <v/>
       </c>
       <c r="GF1" s="2" t="str">
-        <f>IF('emission sources'!$A188&lt;&gt;"",'emission sources'!$A188,"")</f>
+        <f>IF('emission sources'!$A189&lt;&gt;"",'emission sources'!$A189,"")</f>
         <v/>
       </c>
       <c r="GG1" s="2" t="str">
-        <f>IF('emission sources'!$A189&lt;&gt;"",'emission sources'!$A189,"")</f>
+        <f>IF('emission sources'!$A190&lt;&gt;"",'emission sources'!$A190,"")</f>
         <v/>
       </c>
       <c r="GH1" s="2" t="str">
-        <f>IF('emission sources'!$A190&lt;&gt;"",'emission sources'!$A190,"")</f>
+        <f>IF('emission sources'!$A191&lt;&gt;"",'emission sources'!$A191,"")</f>
         <v/>
       </c>
       <c r="GI1" s="2" t="str">
-        <f>IF('emission sources'!$A191&lt;&gt;"",'emission sources'!$A191,"")</f>
+        <f>IF('emission sources'!$A192&lt;&gt;"",'emission sources'!$A192,"")</f>
         <v/>
       </c>
       <c r="GJ1" s="2" t="str">
-        <f>IF('emission sources'!$A192&lt;&gt;"",'emission sources'!$A192,"")</f>
+        <f>IF('emission sources'!$A193&lt;&gt;"",'emission sources'!$A193,"")</f>
         <v/>
       </c>
       <c r="GK1" s="2" t="str">
-        <f>IF('emission sources'!$A193&lt;&gt;"",'emission sources'!$A193,"")</f>
+        <f>IF('emission sources'!$A194&lt;&gt;"",'emission sources'!$A194,"")</f>
         <v/>
       </c>
       <c r="GL1" s="2" t="str">
-        <f>IF('emission sources'!$A194&lt;&gt;"",'emission sources'!$A194,"")</f>
+        <f>IF('emission sources'!$A195&lt;&gt;"",'emission sources'!$A195,"")</f>
         <v/>
       </c>
       <c r="GM1" s="2" t="str">
-        <f>IF('emission sources'!$A195&lt;&gt;"",'emission sources'!$A195,"")</f>
+        <f>IF('emission sources'!$A196&lt;&gt;"",'emission sources'!$A196,"")</f>
         <v/>
       </c>
       <c r="GN1" s="2" t="str">
-        <f>IF('emission sources'!$A196&lt;&gt;"",'emission sources'!$A196,"")</f>
+        <f>IF('emission sources'!$A197&lt;&gt;"",'emission sources'!$A197,"")</f>
         <v/>
       </c>
       <c r="GO1" s="2" t="str">
-        <f>IF('emission sources'!$A197&lt;&gt;"",'emission sources'!$A197,"")</f>
+        <f>IF('emission sources'!$A198&lt;&gt;"",'emission sources'!$A198,"")</f>
         <v/>
       </c>
       <c r="GP1" s="2" t="str">
-        <f>IF('emission sources'!$A198&lt;&gt;"",'emission sources'!$A198,"")</f>
+        <f>IF('emission sources'!$A199&lt;&gt;"",'emission sources'!$A199,"")</f>
         <v/>
       </c>
       <c r="GQ1" s="2" t="str">
-        <f>IF('emission sources'!$A199&lt;&gt;"",'emission sources'!$A199,"")</f>
+        <f>IF('emission sources'!$A200&lt;&gt;"",'emission sources'!$A200,"")</f>
         <v/>
       </c>
       <c r="GR1" s="2" t="str">
-        <f>IF('emission sources'!$A200&lt;&gt;"",'emission sources'!$A200,"")</f>
+        <f>IF('emission sources'!$A201&lt;&gt;"",'emission sources'!$A201,"")</f>
         <v/>
       </c>
       <c r="GS1" s="2" t="str">
-        <f>IF('emission sources'!$A201&lt;&gt;"",'emission sources'!$A201,"")</f>
+        <f>IF('emission sources'!$A202&lt;&gt;"",'emission sources'!$A202,"")</f>
         <v/>
       </c>
       <c r="GT1" s="2" t="str">
-        <f>IF('emission sources'!$A202&lt;&gt;"",'emission sources'!$A202,"")</f>
+        <f>IF('emission sources'!$A203&lt;&gt;"",'emission sources'!$A203,"")</f>
         <v/>
       </c>
       <c r="GU1" s="2" t="str">
-        <f>IF('emission sources'!$A203&lt;&gt;"",'emission sources'!$A203,"")</f>
+        <f>IF('emission sources'!$A204&lt;&gt;"",'emission sources'!$A204,"")</f>
         <v/>
       </c>
       <c r="GV1" s="2" t="str">
-        <f>IF('emission sources'!$A204&lt;&gt;"",'emission sources'!$A204,"")</f>
+        <f>IF('emission sources'!$A205&lt;&gt;"",'emission sources'!$A205,"")</f>
         <v/>
       </c>
       <c r="GW1" s="2" t="str">
-        <f>IF('emission sources'!$A205&lt;&gt;"",'emission sources'!$A205,"")</f>
+        <f>IF('emission sources'!$A206&lt;&gt;"",'emission sources'!$A206,"")</f>
         <v/>
       </c>
       <c r="GX1" s="2" t="str">
-        <f>IF('emission sources'!$A206&lt;&gt;"",'emission sources'!$A206,"")</f>
+        <f>IF('emission sources'!$A207&lt;&gt;"",'emission sources'!$A207,"")</f>
         <v/>
       </c>
       <c r="GY1" s="2" t="str">
-        <f>IF('emission sources'!$A207&lt;&gt;"",'emission sources'!$A207,"")</f>
+        <f>IF('emission sources'!$A208&lt;&gt;"",'emission sources'!$A208,"")</f>
         <v/>
       </c>
       <c r="GZ1" s="2" t="str">
-        <f>IF('emission sources'!$A208&lt;&gt;"",'emission sources'!$A208,"")</f>
+        <f>IF('emission sources'!$A209&lt;&gt;"",'emission sources'!$A209,"")</f>
         <v/>
       </c>
       <c r="HA1" s="2" t="str">
-        <f>IF('emission sources'!$A209&lt;&gt;"",'emission sources'!$A209,"")</f>
+        <f>IF('emission sources'!$A210&lt;&gt;"",'emission sources'!$A210,"")</f>
         <v/>
       </c>
       <c r="HB1" s="2" t="str">
-        <f>IF('emission sources'!$A210&lt;&gt;"",'emission sources'!$A210,"")</f>
+        <f>IF('emission sources'!$A211&lt;&gt;"",'emission sources'!$A211,"")</f>
         <v/>
       </c>
       <c r="HC1" s="2" t="str">
-        <f>IF('emission sources'!$A211&lt;&gt;"",'emission sources'!$A211,"")</f>
+        <f>IF('emission sources'!$A212&lt;&gt;"",'emission sources'!$A212,"")</f>
         <v/>
       </c>
       <c r="HD1" s="2" t="str">
-        <f>IF('emission sources'!$A212&lt;&gt;"",'emission sources'!$A212,"")</f>
+        <f>IF('emission sources'!$A213&lt;&gt;"",'emission sources'!$A213,"")</f>
         <v/>
       </c>
       <c r="HE1" s="2" t="str">
-        <f>IF('emission sources'!$A213&lt;&gt;"",'emission sources'!$A213,"")</f>
+        <f>IF('emission sources'!$A214&lt;&gt;"",'emission sources'!$A214,"")</f>
         <v/>
       </c>
       <c r="HF1" s="2" t="str">
-        <f>IF('emission sources'!$A214&lt;&gt;"",'emission sources'!$A214,"")</f>
+        <f>IF('emission sources'!$A215&lt;&gt;"",'emission sources'!$A215,"")</f>
         <v/>
       </c>
       <c r="HG1" s="2" t="str">
-        <f>IF('emission sources'!$A215&lt;&gt;"",'emission sources'!$A215,"")</f>
+        <f>IF('emission sources'!$A216&lt;&gt;"",'emission sources'!$A216,"")</f>
         <v/>
       </c>
       <c r="HH1" s="2" t="str">
-        <f>IF('emission sources'!$A216&lt;&gt;"",'emission sources'!$A216,"")</f>
+        <f>IF('emission sources'!$A217&lt;&gt;"",'emission sources'!$A217,"")</f>
         <v/>
       </c>
       <c r="HI1" s="2" t="str">
-        <f>IF('emission sources'!$A217&lt;&gt;"",'emission sources'!$A217,"")</f>
+        <f>IF('emission sources'!$A218&lt;&gt;"",'emission sources'!$A218,"")</f>
         <v/>
       </c>
       <c r="HJ1" s="2" t="str">
-        <f>IF('emission sources'!$A218&lt;&gt;"",'emission sources'!$A218,"")</f>
+        <f>IF('emission sources'!$A219&lt;&gt;"",'emission sources'!$A219,"")</f>
         <v/>
       </c>
       <c r="HK1" s="2" t="str">
-        <f>IF('emission sources'!$A219&lt;&gt;"",'emission sources'!$A219,"")</f>
+        <f>IF('emission sources'!$A220&lt;&gt;"",'emission sources'!$A220,"")</f>
         <v/>
       </c>
       <c r="HL1" s="2" t="str">
-        <f>IF('emission sources'!$A220&lt;&gt;"",'emission sources'!$A220,"")</f>
+        <f>IF('emission sources'!$A221&lt;&gt;"",'emission sources'!$A221,"")</f>
         <v/>
       </c>
       <c r="HM1" s="2" t="str">
-        <f>IF('emission sources'!$A221&lt;&gt;"",'emission sources'!$A221,"")</f>
+        <f>IF('emission sources'!$A222&lt;&gt;"",'emission sources'!$A222,"")</f>
         <v/>
       </c>
       <c r="HN1" s="2" t="str">
-        <f>IF('emission sources'!$A222&lt;&gt;"",'emission sources'!$A222,"")</f>
+        <f>IF('emission sources'!$A223&lt;&gt;"",'emission sources'!$A223,"")</f>
         <v/>
       </c>
       <c r="HO1" s="2" t="str">
-        <f>IF('emission sources'!$A223&lt;&gt;"",'emission sources'!$A223,"")</f>
+        <f>IF('emission sources'!$A224&lt;&gt;"",'emission sources'!$A224,"")</f>
         <v/>
       </c>
       <c r="HP1" s="2" t="str">
-        <f>IF('emission sources'!$A224&lt;&gt;"",'emission sources'!$A224,"")</f>
+        <f>IF('emission sources'!$A225&lt;&gt;"",'emission sources'!$A225,"")</f>
         <v/>
       </c>
       <c r="HQ1" s="2" t="str">
-        <f>IF('emission sources'!$A225&lt;&gt;"",'emission sources'!$A225,"")</f>
+        <f>IF('emission sources'!$A226&lt;&gt;"",'emission sources'!$A226,"")</f>
         <v/>
       </c>
       <c r="HR1" s="2" t="str">
-        <f>IF('emission sources'!$A226&lt;&gt;"",'emission sources'!$A226,"")</f>
+        <f>IF('emission sources'!$A227&lt;&gt;"",'emission sources'!$A227,"")</f>
         <v/>
       </c>
       <c r="HS1" s="2" t="str">
-        <f>IF('emission sources'!$A227&lt;&gt;"",'emission sources'!$A227,"")</f>
+        <f>IF('emission sources'!$A228&lt;&gt;"",'emission sources'!$A228,"")</f>
         <v/>
       </c>
       <c r="HT1" s="2" t="str">
-        <f>IF('emission sources'!$A228&lt;&gt;"",'emission sources'!$A228,"")</f>
+        <f>IF('emission sources'!$A229&lt;&gt;"",'emission sources'!$A229,"")</f>
         <v/>
       </c>
       <c r="HU1" s="2" t="str">
-        <f>IF('emission sources'!$A229&lt;&gt;"",'emission sources'!$A229,"")</f>
+        <f>IF('emission sources'!$A230&lt;&gt;"",'emission sources'!$A230,"")</f>
         <v/>
       </c>
       <c r="HV1" s="2" t="str">
-        <f>IF('emission sources'!$A230&lt;&gt;"",'emission sources'!$A230,"")</f>
+        <f>IF('emission sources'!$A231&lt;&gt;"",'emission sources'!$A231,"")</f>
         <v/>
       </c>
       <c r="HW1" s="2" t="str">
-        <f>IF('emission sources'!$A231&lt;&gt;"",'emission sources'!$A231,"")</f>
+        <f>IF('emission sources'!$A232&lt;&gt;"",'emission sources'!$A232,"")</f>
         <v/>
       </c>
       <c r="HX1" s="2" t="str">
-        <f>IF('emission sources'!$A232&lt;&gt;"",'emission sources'!$A232,"")</f>
+        <f>IF('emission sources'!$A233&lt;&gt;"",'emission sources'!$A233,"")</f>
         <v/>
       </c>
       <c r="HY1" s="2" t="str">
-        <f>IF('emission sources'!$A233&lt;&gt;"",'emission sources'!$A233,"")</f>
+        <f>IF('emission sources'!$A234&lt;&gt;"",'emission sources'!$A234,"")</f>
         <v/>
       </c>
       <c r="HZ1" s="2" t="str">
-        <f>IF('emission sources'!$A234&lt;&gt;"",'emission sources'!$A234,"")</f>
+        <f>IF('emission sources'!$A235&lt;&gt;"",'emission sources'!$A235,"")</f>
         <v/>
       </c>
       <c r="IA1" s="2" t="str">
-        <f>IF('emission sources'!$A235&lt;&gt;"",'emission sources'!$A235,"")</f>
+        <f>IF('emission sources'!$A236&lt;&gt;"",'emission sources'!$A236,"")</f>
         <v/>
       </c>
       <c r="IB1" s="2" t="str">
-        <f>IF('emission sources'!$A236&lt;&gt;"",'emission sources'!$A236,"")</f>
+        <f>IF('emission sources'!$A237&lt;&gt;"",'emission sources'!$A237,"")</f>
         <v/>
       </c>
       <c r="IC1" s="2" t="str">
-        <f>IF('emission sources'!$A237&lt;&gt;"",'emission sources'!$A237,"")</f>
+        <f>IF('emission sources'!$A238&lt;&gt;"",'emission sources'!$A238,"")</f>
         <v/>
       </c>
       <c r="ID1" s="2" t="str">
-        <f>IF('emission sources'!$A238&lt;&gt;"",'emission sources'!$A238,"")</f>
+        <f>IF('emission sources'!$A239&lt;&gt;"",'emission sources'!$A239,"")</f>
         <v/>
       </c>
       <c r="IE1" s="2" t="str">
-        <f>IF('emission sources'!$A239&lt;&gt;"",'emission sources'!$A239,"")</f>
+        <f>IF('emission sources'!$A240&lt;&gt;"",'emission sources'!$A240,"")</f>
         <v/>
       </c>
       <c r="IF1" s="2" t="str">
-        <f>IF('emission sources'!$A240&lt;&gt;"",'emission sources'!$A240,"")</f>
+        <f>IF('emission sources'!$A241&lt;&gt;"",'emission sources'!$A241,"")</f>
         <v/>
       </c>
       <c r="IG1" s="2" t="str">
-        <f>IF('emission sources'!$A241&lt;&gt;"",'emission sources'!$A241,"")</f>
+        <f>IF('emission sources'!$A242&lt;&gt;"",'emission sources'!$A242,"")</f>
         <v/>
       </c>
       <c r="IH1" s="2" t="str">
-        <f>IF('emission sources'!$A242&lt;&gt;"",'emission sources'!$A242,"")</f>
+        <f>IF('emission sources'!$A243&lt;&gt;"",'emission sources'!$A243,"")</f>
         <v/>
       </c>
       <c r="II1" s="2" t="str">
-        <f>IF('emission sources'!$A243&lt;&gt;"",'emission sources'!$A243,"")</f>
+        <f>IF('emission sources'!$A244&lt;&gt;"",'emission sources'!$A244,"")</f>
         <v/>
       </c>
       <c r="IJ1" s="2" t="str">
-        <f>IF('emission sources'!$A244&lt;&gt;"",'emission sources'!$A244,"")</f>
+        <f>IF('emission sources'!$A245&lt;&gt;"",'emission sources'!$A245,"")</f>
         <v/>
       </c>
       <c r="IK1" s="2" t="str">
-        <f>IF('emission sources'!$A245&lt;&gt;"",'emission sources'!$A245,"")</f>
+        <f>IF('emission sources'!$A246&lt;&gt;"",'emission sources'!$A246,"")</f>
         <v/>
       </c>
       <c r="IL1" s="2" t="str">
-        <f>IF('emission sources'!$A246&lt;&gt;"",'emission sources'!$A246,"")</f>
+        <f>IF('emission sources'!$A247&lt;&gt;"",'emission sources'!$A247,"")</f>
         <v/>
       </c>
       <c r="IM1" s="2" t="str">
-        <f>IF('emission sources'!$A247&lt;&gt;"",'emission sources'!$A247,"")</f>
+        <f>IF('emission sources'!$A248&lt;&gt;"",'emission sources'!$A248,"")</f>
         <v/>
       </c>
       <c r="IN1" s="2" t="str">
-        <f>IF('emission sources'!$A248&lt;&gt;"",'emission sources'!$A248,"")</f>
+        <f>IF('emission sources'!$A249&lt;&gt;"",'emission sources'!$A249,"")</f>
         <v/>
       </c>
       <c r="IO1" s="2" t="str">
-        <f>IF('emission sources'!$A249&lt;&gt;"",'emission sources'!$A249,"")</f>
+        <f>IF('emission sources'!$A250&lt;&gt;"",'emission sources'!$A250,"")</f>
         <v/>
       </c>
       <c r="IP1" s="2" t="str">
-        <f>IF('emission sources'!$A250&lt;&gt;"",'emission sources'!$A250,"")</f>
+        <f>IF('emission sources'!$A251&lt;&gt;"",'emission sources'!$A251,"")</f>
         <v/>
       </c>
       <c r="IQ1" s="2" t="str">
-        <f>IF('emission sources'!$A251&lt;&gt;"",'emission sources'!$A251,"")</f>
+        <f>IF('emission sources'!$A252&lt;&gt;"",'emission sources'!$A252,"")</f>
         <v/>
       </c>
       <c r="IR1" s="2" t="str">
-        <f>IF('emission sources'!$A252&lt;&gt;"",'emission sources'!$A252,"")</f>
+        <f>IF('emission sources'!$A253&lt;&gt;"",'emission sources'!$A253,"")</f>
         <v/>
       </c>
       <c r="IS1" s="2" t="str">
-        <f>IF('emission sources'!$A253&lt;&gt;"",'emission sources'!$A253,"")</f>
+        <f>IF('emission sources'!$A254&lt;&gt;"",'emission sources'!$A254,"")</f>
         <v/>
       </c>
       <c r="IT1" s="2" t="str">
-        <f>IF('emission sources'!$A254&lt;&gt;"",'emission sources'!$A254,"")</f>
+        <f>IF('emission sources'!$A255&lt;&gt;"",'emission sources'!$A255,"")</f>
         <v/>
       </c>
       <c r="IU1" s="2" t="str">
-        <f>IF('emission sources'!$A255&lt;&gt;"",'emission sources'!$A255,"")</f>
+        <f>IF('emission sources'!$A256&lt;&gt;"",'emission sources'!$A256,"")</f>
         <v/>
       </c>
       <c r="IV1" s="2" t="str">
-        <f>IF('emission sources'!$A256&lt;&gt;"",'emission sources'!$A256,"")</f>
+        <f>IF('emission sources'!$A257&lt;&gt;"",'emission sources'!$A257,"")</f>
         <v/>
       </c>
       <c r="IW1" s="2" t="str">
-        <f>IF('emission sources'!$A257&lt;&gt;"",'emission sources'!$A257,"")</f>
+        <f>IF('emission sources'!$A258&lt;&gt;"",'emission sources'!$A258,"")</f>
         <v/>
       </c>
       <c r="IX1" s="2" t="str">
-        <f>IF('emission sources'!$A258&lt;&gt;"",'emission sources'!$A258,"")</f>
+        <f>IF('emission sources'!$A259&lt;&gt;"",'emission sources'!$A259,"")</f>
         <v/>
       </c>
       <c r="IY1" s="2" t="str">
-        <f>IF('emission sources'!$A259&lt;&gt;"",'emission sources'!$A259,"")</f>
+        <f>IF('emission sources'!$A260&lt;&gt;"",'emission sources'!$A260,"")</f>
         <v/>
       </c>
       <c r="IZ1" s="2" t="str">
-        <f>IF('emission sources'!$A260&lt;&gt;"",'emission sources'!$A260,"")</f>
+        <f>IF('emission sources'!$A261&lt;&gt;"",'emission sources'!$A261,"")</f>
         <v/>
       </c>
       <c r="JA1" s="2" t="str">
-        <f>IF('emission sources'!$A261&lt;&gt;"",'emission sources'!$A261,"")</f>
+        <f>IF('emission sources'!$A262&lt;&gt;"",'emission sources'!$A262,"")</f>
         <v/>
       </c>
       <c r="JB1" s="2" t="str">
-        <f>IF('emission sources'!$A262&lt;&gt;"",'emission sources'!$A262,"")</f>
+        <f>IF('emission sources'!$A263&lt;&gt;"",'emission sources'!$A263,"")</f>
         <v/>
       </c>
       <c r="JC1" s="2" t="str">
-        <f>IF('emission sources'!$A263&lt;&gt;"",'emission sources'!$A263,"")</f>
+        <f>IF('emission sources'!$A264&lt;&gt;"",'emission sources'!$A264,"")</f>
         <v/>
       </c>
       <c r="JD1" s="2" t="str">
-        <f>IF('emission sources'!$A264&lt;&gt;"",'emission sources'!$A264,"")</f>
+        <f>IF('emission sources'!$A265&lt;&gt;"",'emission sources'!$A265,"")</f>
         <v/>
       </c>
       <c r="JE1" s="2" t="str">
-        <f>IF('emission sources'!$A265&lt;&gt;"",'emission sources'!$A265,"")</f>
+        <f>IF('emission sources'!$A266&lt;&gt;"",'emission sources'!$A266,"")</f>
         <v/>
       </c>
       <c r="JF1" s="2" t="str">
-        <f>IF('emission sources'!$A266&lt;&gt;"",'emission sources'!$A266,"")</f>
+        <f>IF('emission sources'!$A267&lt;&gt;"",'emission sources'!$A267,"")</f>
         <v/>
       </c>
       <c r="JG1" s="2" t="str">
-        <f>IF('emission sources'!$A267&lt;&gt;"",'emission sources'!$A267,"")</f>
+        <f>IF('emission sources'!$A268&lt;&gt;"",'emission sources'!$A268,"")</f>
         <v/>
       </c>
       <c r="JH1" s="2" t="str">
-        <f>IF('emission sources'!$A268&lt;&gt;"",'emission sources'!$A268,"")</f>
+        <f>IF('emission sources'!$A269&lt;&gt;"",'emission sources'!$A269,"")</f>
         <v/>
       </c>
       <c r="JI1" s="2" t="str">
-        <f>IF('emission sources'!$A269&lt;&gt;"",'emission sources'!$A269,"")</f>
+        <f>IF('emission sources'!$A270&lt;&gt;"",'emission sources'!$A270,"")</f>
         <v/>
       </c>
       <c r="JJ1" s="2" t="str">
-        <f>IF('emission sources'!$A270&lt;&gt;"",'emission sources'!$A270,"")</f>
+        <f>IF('emission sources'!$A271&lt;&gt;"",'emission sources'!$A271,"")</f>
         <v/>
       </c>
       <c r="JK1" s="2" t="str">
-        <f>IF('emission sources'!$A271&lt;&gt;"",'emission sources'!$A271,"")</f>
+        <f>IF('emission sources'!$A272&lt;&gt;"",'emission sources'!$A272,"")</f>
         <v/>
       </c>
       <c r="JL1" s="2" t="str">
-        <f>IF('emission sources'!$A272&lt;&gt;"",'emission sources'!$A272,"")</f>
+        <f>IF('emission sources'!$A273&lt;&gt;"",'emission sources'!$A273,"")</f>
         <v/>
       </c>
       <c r="JM1" s="2" t="str">
-        <f>IF('emission sources'!$A273&lt;&gt;"",'emission sources'!$A273,"")</f>
+        <f>IF('emission sources'!$A274&lt;&gt;"",'emission sources'!$A274,"")</f>
         <v/>
       </c>
       <c r="JN1" s="2" t="str">
-        <f>IF('emission sources'!$A274&lt;&gt;"",'emission sources'!$A274,"")</f>
+        <f>IF('emission sources'!$A275&lt;&gt;"",'emission sources'!$A275,"")</f>
         <v/>
       </c>
       <c r="JO1" s="2" t="str">
-        <f>IF('emission sources'!$A275&lt;&gt;"",'emission sources'!$A275,"")</f>
+        <f>IF('emission sources'!$A276&lt;&gt;"",'emission sources'!$A276,"")</f>
         <v/>
       </c>
       <c r="JP1" s="2" t="str">
-        <f>IF('emission sources'!$A276&lt;&gt;"",'emission sources'!$A276,"")</f>
+        <f>IF('emission sources'!$A277&lt;&gt;"",'emission sources'!$A277,"")</f>
         <v/>
       </c>
       <c r="JQ1" s="2" t="str">
-        <f>IF('emission sources'!$A277&lt;&gt;"",'emission sources'!$A277,"")</f>
+        <f>IF('emission sources'!$A278&lt;&gt;"",'emission sources'!$A278,"")</f>
         <v/>
       </c>
       <c r="JR1" s="2" t="str">
-        <f>IF('emission sources'!$A278&lt;&gt;"",'emission sources'!$A278,"")</f>
+        <f>IF('emission sources'!$A279&lt;&gt;"",'emission sources'!$A279,"")</f>
         <v/>
       </c>
       <c r="JS1" s="2" t="str">
-        <f>IF('emission sources'!$A279&lt;&gt;"",'emission sources'!$A279,"")</f>
+        <f>IF('emission sources'!$A280&lt;&gt;"",'emission sources'!$A280,"")</f>
         <v/>
       </c>
       <c r="JT1" s="2" t="str">
-        <f>IF('emission sources'!$A280&lt;&gt;"",'emission sources'!$A280,"")</f>
+        <f>IF('emission sources'!$A281&lt;&gt;"",'emission sources'!$A281,"")</f>
         <v/>
       </c>
       <c r="JU1" s="2" t="str">
-        <f>IF('emission sources'!$A281&lt;&gt;"",'emission sources'!$A281,"")</f>
+        <f>IF('emission sources'!$A282&lt;&gt;"",'emission sources'!$A282,"")</f>
         <v/>
       </c>
       <c r="JV1" s="2" t="str">
-        <f>IF('emission sources'!$A282&lt;&gt;"",'emission sources'!$A282,"")</f>
+        <f>IF('emission sources'!$A283&lt;&gt;"",'emission sources'!$A283,"")</f>
         <v/>
       </c>
       <c r="JW1" s="2" t="str">
-        <f>IF('emission sources'!$A283&lt;&gt;"",'emission sources'!$A283,"")</f>
+        <f>IF('emission sources'!$A284&lt;&gt;"",'emission sources'!$A284,"")</f>
         <v/>
       </c>
       <c r="JX1" s="2" t="str">
-        <f>IF('emission sources'!$A284&lt;&gt;"",'emission sources'!$A284,"")</f>
+        <f>IF('emission sources'!$A285&lt;&gt;"",'emission sources'!$A285,"")</f>
         <v/>
       </c>
       <c r="JY1" s="2" t="str">
-        <f>IF('emission sources'!$A285&lt;&gt;"",'emission sources'!$A285,"")</f>
+        <f>IF('emission sources'!$A286&lt;&gt;"",'emission sources'!$A286,"")</f>
         <v/>
       </c>
       <c r="JZ1" s="2" t="str">
-        <f>IF('emission sources'!$A286&lt;&gt;"",'emission sources'!$A286,"")</f>
+        <f>IF('emission sources'!$A287&lt;&gt;"",'emission sources'!$A287,"")</f>
         <v/>
       </c>
       <c r="KA1" s="2" t="str">
-        <f>IF('emission sources'!$A287&lt;&gt;"",'emission sources'!$A287,"")</f>
+        <f>IF('emission sources'!$A288&lt;&gt;"",'emission sources'!$A288,"")</f>
         <v/>
       </c>
       <c r="KB1" s="2" t="str">
-        <f>IF('emission sources'!$A288&lt;&gt;"",'emission sources'!$A288,"")</f>
-        <v/>
-      </c>
-      <c r="KC1" s="2" t="str">
         <f>IF('emission sources'!$A289&lt;&gt;"",'emission sources'!$A289,"")</f>
         <v/>
       </c>
-      <c r="KD1" s="2" t="str">
-        <f>IF('emission sources'!$A290&lt;&gt;"",'emission sources'!$A290,"")</f>
-        <v/>
-      </c>
-      <c r="KE1" s="2" t="str">
-        <f>IF('emission sources'!$A291&lt;&gt;"",'emission sources'!$A291,"")</f>
-        <v/>
-      </c>
-      <c r="KF1" s="2" t="str">
-        <f>IF('emission sources'!$A292&lt;&gt;"",'emission sources'!$A292,"")</f>
-        <v/>
-      </c>
-      <c r="KG1" s="2" t="str">
-        <f>IF('emission sources'!$A293&lt;&gt;"",'emission sources'!$A293,"")</f>
-        <v/>
-      </c>
-      <c r="KH1" s="2" t="str">
-        <f>IF('emission sources'!$A294&lt;&gt;"",'emission sources'!$A294,"")</f>
-        <v/>
-      </c>
-      <c r="KI1" s="2" t="str">
-        <f>IF('emission sources'!$A295&lt;&gt;"",'emission sources'!$A295,"")</f>
-        <v/>
-      </c>
-      <c r="KJ1" s="2" t="str">
-        <f>IF('emission sources'!$A296&lt;&gt;"",'emission sources'!$A296,"")</f>
-        <v/>
-      </c>
-      <c r="KK1" s="2" t="str">
-        <f>IF('emission sources'!$A297&lt;&gt;"",'emission sources'!$A297,"")</f>
-        <v/>
-      </c>
-      <c r="KL1" s="2" t="str">
-        <f>IF('emission sources'!$A298&lt;&gt;"",'emission sources'!$A298,"")</f>
-        <v/>
-      </c>
-      <c r="KM1" s="2" t="str">
-        <f>IF('emission sources'!$A299&lt;&gt;"",'emission sources'!$A299,"")</f>
-        <v/>
-      </c>
-      <c r="KN1" s="2" t="str">
-        <f>IF('emission sources'!$A300&lt;&gt;"",'emission sources'!$A300,"")</f>
-        <v/>
-      </c>
-      <c r="KO1" s="2" t="str">
-        <f>IF('emission sources'!$A301&lt;&gt;"",'emission sources'!$A301,"")</f>
-        <v/>
-      </c>
-      <c r="KP1" s="2" t="str">
-        <f>IF('emission sources'!$A302&lt;&gt;"",'emission sources'!$A302,"")</f>
-        <v/>
-      </c>
-      <c r="KQ1" s="2" t="str">
-        <f>IF('emission sources'!$A303&lt;&gt;"",'emission sources'!$A303,"")</f>
-        <v/>
-      </c>
-      <c r="KR1" s="2" t="str">
-        <f>IF('emission sources'!$A304&lt;&gt;"",'emission sources'!$A304,"")</f>
-        <v/>
-      </c>
-      <c r="KS1" s="2" t="str">
-        <f>IF('emission sources'!$A305&lt;&gt;"",'emission sources'!$A305,"")</f>
-        <v/>
-      </c>
-      <c r="KT1" s="2" t="str">
-        <f>IF('emission sources'!$A306&lt;&gt;"",'emission sources'!$A306,"")</f>
-        <v/>
-      </c>
-      <c r="KU1" s="2" t="str">
-        <f>IF('emission sources'!$A307&lt;&gt;"",'emission sources'!$A307,"")</f>
-        <v/>
-      </c>
-      <c r="KV1" s="2" t="str">
-        <f>IF('emission sources'!$A308&lt;&gt;"",'emission sources'!$A308,"")</f>
-        <v/>
-      </c>
-      <c r="KW1" s="2" t="str">
-        <f>IF('emission sources'!$A309&lt;&gt;"",'emission sources'!$A309,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>IF('study sites'!$A2&lt;&gt;"",'study sites'!$A2,"")</f>
-        <v>mt_darwin</v>
-      </c>
-      <c r="B2">
-        <v>39.729999999999997</v>
-      </c>
-      <c r="C2">
-        <v>27.76</v>
-      </c>
-      <c r="D2">
-        <v>0.12</v>
-      </c>
-      <c r="E2">
-        <v>3.05</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="H2">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:309" x14ac:dyDescent="0.25">
+        <v>AKHS_Mombasa</v>
+      </c>
+      <c r="B2" s="13">
+        <v>109530.344</v>
+      </c>
+      <c r="C2" s="13">
+        <f>'[1]HH GHGe data-ZM &amp; Kenya site'!$M$23</f>
+        <v>27079.678770000002</v>
+      </c>
+      <c r="D2" s="13">
+        <v>5636.8052399999997</v>
+      </c>
+      <c r="E2" s="13">
+        <v>32266.703559720838</v>
+      </c>
+      <c r="F2" s="13">
+        <v>23932.031199999998</v>
+      </c>
+      <c r="G2" s="13">
+        <v>64549.918875000003</v>
+      </c>
+      <c r="H2" s="13">
+        <v>129723.45024000001</v>
+      </c>
+      <c r="I2" s="13">
+        <v>27984.052307692305</v>
+      </c>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>IF('study sites'!$A3&lt;&gt;"",'study sites'!$A3,"")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>IF('study sites'!$A4&lt;&gt;"",'study sites'!$A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>IF('study sites'!$A5&lt;&gt;"",'study sites'!$A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>IF('study sites'!$A6&lt;&gt;"",'study sites'!$A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>IF('study sites'!$A7&lt;&gt;"",'study sites'!$A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>IF('study sites'!$A8&lt;&gt;"",'study sites'!$A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>IF('study sites'!$A9&lt;&gt;"",'study sites'!$A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>IF('study sites'!$A10&lt;&gt;"",'study sites'!$A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>IF('study sites'!$A11&lt;&gt;"",'study sites'!$A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f>IF('study sites'!$A12&lt;&gt;"",'study sites'!$A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>IF('study sites'!$A13&lt;&gt;"",'study sites'!$A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>IF('study sites'!$A14&lt;&gt;"",'study sites'!$A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>IF('study sites'!$A15&lt;&gt;"",'study sites'!$A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:288" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>IF('study sites'!$A16&lt;&gt;"",'study sites'!$A16,"")</f>
         <v/>
@@ -3008,2904 +3056,2794 @@
         <f>IF('study sites'!$A19&lt;&gt;"",'study sites'!$A19,"")</f>
         <v/>
       </c>
+      <c r="B19" t="str">
+        <f>IF('emission sources'!$A11&lt;&gt;"",'emission sources'!$A11,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
-        <f>IF('study sites'!$A20&lt;&gt;"",'study sites'!$A20,"")</f>
+        <f>IF('study sites'!$A31&lt;&gt;"",'study sites'!$A31,"")</f>
         <v/>
       </c>
       <c r="B20" t="str">
-        <f>IF('emission sources'!$A20&lt;&gt;"",'emission sources'!$A20,"")</f>
+        <f>IF('emission sources'!$A12&lt;&gt;"",'emission sources'!$A12,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
-        <f>IF('study sites'!$A21&lt;&gt;"",'study sites'!$A21,"")</f>
+        <f>IF('study sites'!$A32&lt;&gt;"",'study sites'!$A32,"")</f>
         <v/>
       </c>
       <c r="B21" t="str">
-        <f>IF('emission sources'!$A21&lt;&gt;"",'emission sources'!$A21,"")</f>
+        <f>IF('emission sources'!$A13&lt;&gt;"",'emission sources'!$A13,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
-        <f>IF('study sites'!$A22&lt;&gt;"",'study sites'!$A22,"")</f>
+        <f>IF('study sites'!$A33&lt;&gt;"",'study sites'!$A33,"")</f>
         <v/>
       </c>
       <c r="B22" t="str">
-        <f>IF('emission sources'!$A22&lt;&gt;"",'emission sources'!$A22,"")</f>
+        <f>IF('emission sources'!$A14&lt;&gt;"",'emission sources'!$A14,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
-        <f>IF('study sites'!$A23&lt;&gt;"",'study sites'!$A23,"")</f>
+        <f>IF('study sites'!$A34&lt;&gt;"",'study sites'!$A34,"")</f>
         <v/>
       </c>
       <c r="B23" t="str">
-        <f>IF('emission sources'!$A23&lt;&gt;"",'emission sources'!$A23,"")</f>
+        <f>IF('emission sources'!$A15&lt;&gt;"",'emission sources'!$A15,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
-        <f>IF('study sites'!$A24&lt;&gt;"",'study sites'!$A24,"")</f>
+        <f>IF('study sites'!$A35&lt;&gt;"",'study sites'!$A35,"")</f>
         <v/>
       </c>
       <c r="B24" t="str">
-        <f>IF('emission sources'!$A24&lt;&gt;"",'emission sources'!$A24,"")</f>
+        <f>IF('emission sources'!$A16&lt;&gt;"",'emission sources'!$A16,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
-        <f>IF('study sites'!$A25&lt;&gt;"",'study sites'!$A25,"")</f>
+        <f>IF('study sites'!$A36&lt;&gt;"",'study sites'!$A36,"")</f>
         <v/>
       </c>
       <c r="B25" t="str">
-        <f>IF('emission sources'!$A25&lt;&gt;"",'emission sources'!$A25,"")</f>
+        <f>IF('emission sources'!$A17&lt;&gt;"",'emission sources'!$A17,"")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
-        <f>IF('study sites'!$A26&lt;&gt;"",'study sites'!$A26,"")</f>
+        <f>IF('study sites'!$A37&lt;&gt;"",'study sites'!$A37,"")</f>
         <v/>
       </c>
       <c r="B26" t="str">
-        <f>IF('emission sources'!$A26&lt;&gt;"",'emission sources'!$A26,"")</f>
+        <f>IF('emission sources'!$A18&lt;&gt;"",'emission sources'!$A18,"")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
-        <f>IF('study sites'!$A27&lt;&gt;"",'study sites'!$A27,"")</f>
+        <f>IF('study sites'!$A38&lt;&gt;"",'study sites'!$A38,"")</f>
         <v/>
       </c>
       <c r="B27" t="str">
-        <f>IF('emission sources'!$A27&lt;&gt;"",'emission sources'!$A27,"")</f>
+        <f>IF('emission sources'!$A19&lt;&gt;"",'emission sources'!$A19,"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
-        <f>IF('study sites'!$A28&lt;&gt;"",'study sites'!$A28,"")</f>
+        <f>IF('study sites'!$A39&lt;&gt;"",'study sites'!$A39,"")</f>
         <v/>
       </c>
       <c r="B28" t="str">
-        <f>IF('emission sources'!$A28&lt;&gt;"",'emission sources'!$A28,"")</f>
+        <f>IF('emission sources'!$A20&lt;&gt;"",'emission sources'!$A20,"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
-        <f>IF('study sites'!$A29&lt;&gt;"",'study sites'!$A29,"")</f>
+        <f>IF('study sites'!$A40&lt;&gt;"",'study sites'!$A40,"")</f>
         <v/>
       </c>
       <c r="B29" t="str">
-        <f>IF('emission sources'!$A29&lt;&gt;"",'emission sources'!$A29,"")</f>
+        <f>IF('emission sources'!$A21&lt;&gt;"",'emission sources'!$A21,"")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
-        <f>IF('study sites'!$A30&lt;&gt;"",'study sites'!$A30,"")</f>
+        <f>IF('study sites'!$A41&lt;&gt;"",'study sites'!$A41,"")</f>
         <v/>
       </c>
       <c r="B30" t="str">
-        <f>IF('emission sources'!$A30&lt;&gt;"",'emission sources'!$A30,"")</f>
+        <f>IF('emission sources'!$A22&lt;&gt;"",'emission sources'!$A22,"")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
-        <f>IF('study sites'!$A31&lt;&gt;"",'study sites'!$A31,"")</f>
+        <f>IF('study sites'!$A42&lt;&gt;"",'study sites'!$A42,"")</f>
         <v/>
       </c>
       <c r="B31" t="str">
-        <f>IF('emission sources'!$A31&lt;&gt;"",'emission sources'!$A31,"")</f>
+        <f>IF('emission sources'!$A23&lt;&gt;"",'emission sources'!$A23,"")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
-        <f>IF('study sites'!$A32&lt;&gt;"",'study sites'!$A32,"")</f>
+        <f>IF('study sites'!$A43&lt;&gt;"",'study sites'!$A43,"")</f>
         <v/>
       </c>
       <c r="B32" t="str">
-        <f>IF('emission sources'!$A32&lt;&gt;"",'emission sources'!$A32,"")</f>
+        <f>IF('emission sources'!$A24&lt;&gt;"",'emission sources'!$A24,"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
-        <f>IF('study sites'!$A33&lt;&gt;"",'study sites'!$A33,"")</f>
+        <f>IF('study sites'!$A44&lt;&gt;"",'study sites'!$A44,"")</f>
         <v/>
       </c>
       <c r="B33" t="str">
-        <f>IF('emission sources'!$A33&lt;&gt;"",'emission sources'!$A33,"")</f>
+        <f>IF('emission sources'!$A25&lt;&gt;"",'emission sources'!$A25,"")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
-        <f>IF('study sites'!$A34&lt;&gt;"",'study sites'!$A34,"")</f>
+        <f>IF('study sites'!$A45&lt;&gt;"",'study sites'!$A45,"")</f>
         <v/>
       </c>
       <c r="B34" t="str">
-        <f>IF('emission sources'!$A34&lt;&gt;"",'emission sources'!$A34,"")</f>
+        <f>IF('emission sources'!$A26&lt;&gt;"",'emission sources'!$A26,"")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
-        <f>IF('study sites'!$A35&lt;&gt;"",'study sites'!$A35,"")</f>
+        <f>IF('study sites'!$A46&lt;&gt;"",'study sites'!$A46,"")</f>
         <v/>
       </c>
       <c r="B35" t="str">
-        <f>IF('emission sources'!$A35&lt;&gt;"",'emission sources'!$A35,"")</f>
+        <f>IF('emission sources'!$A27&lt;&gt;"",'emission sources'!$A27,"")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
-        <f>IF('study sites'!$A36&lt;&gt;"",'study sites'!$A36,"")</f>
+        <f>IF('study sites'!$A47&lt;&gt;"",'study sites'!$A47,"")</f>
         <v/>
       </c>
       <c r="B36" t="str">
-        <f>IF('emission sources'!$A36&lt;&gt;"",'emission sources'!$A36,"")</f>
+        <f>IF('emission sources'!$A28&lt;&gt;"",'emission sources'!$A28,"")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="str">
-        <f>IF('study sites'!$A37&lt;&gt;"",'study sites'!$A37,"")</f>
+        <f>IF('study sites'!$A48&lt;&gt;"",'study sites'!$A48,"")</f>
         <v/>
       </c>
       <c r="B37" t="str">
-        <f>IF('emission sources'!$A37&lt;&gt;"",'emission sources'!$A37,"")</f>
+        <f>IF('emission sources'!$A29&lt;&gt;"",'emission sources'!$A29,"")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="str">
-        <f>IF('study sites'!$A38&lt;&gt;"",'study sites'!$A38,"")</f>
+        <f>IF('study sites'!$A49&lt;&gt;"",'study sites'!$A49,"")</f>
         <v/>
       </c>
       <c r="B38" t="str">
-        <f>IF('emission sources'!$A38&lt;&gt;"",'emission sources'!$A38,"")</f>
+        <f>IF('emission sources'!$A30&lt;&gt;"",'emission sources'!$A30,"")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
-        <f>IF('study sites'!$A39&lt;&gt;"",'study sites'!$A39,"")</f>
+        <f>IF('study sites'!$A50&lt;&gt;"",'study sites'!$A50,"")</f>
         <v/>
       </c>
       <c r="B39" t="str">
-        <f>IF('emission sources'!$A39&lt;&gt;"",'emission sources'!$A39,"")</f>
+        <f>IF('emission sources'!$A31&lt;&gt;"",'emission sources'!$A31,"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="str">
-        <f>IF('study sites'!$A40&lt;&gt;"",'study sites'!$A40,"")</f>
+        <f>IF('study sites'!$A51&lt;&gt;"",'study sites'!$A51,"")</f>
         <v/>
       </c>
       <c r="B40" t="str">
-        <f>IF('emission sources'!$A40&lt;&gt;"",'emission sources'!$A40,"")</f>
+        <f>IF('emission sources'!$A32&lt;&gt;"",'emission sources'!$A32,"")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="str">
-        <f>IF('study sites'!$A41&lt;&gt;"",'study sites'!$A41,"")</f>
+        <f>IF('study sites'!$A52&lt;&gt;"",'study sites'!$A52,"")</f>
         <v/>
       </c>
       <c r="B41" t="str">
-        <f>IF('emission sources'!$A41&lt;&gt;"",'emission sources'!$A41,"")</f>
+        <f>IF('emission sources'!$A33&lt;&gt;"",'emission sources'!$A33,"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="str">
-        <f>IF('study sites'!$A42&lt;&gt;"",'study sites'!$A42,"")</f>
+        <f>IF('study sites'!$A53&lt;&gt;"",'study sites'!$A53,"")</f>
         <v/>
       </c>
       <c r="B42" t="str">
-        <f>IF('emission sources'!$A42&lt;&gt;"",'emission sources'!$A42,"")</f>
+        <f>IF('emission sources'!$A34&lt;&gt;"",'emission sources'!$A34,"")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
-        <f>IF('study sites'!$A43&lt;&gt;"",'study sites'!$A43,"")</f>
+        <f>IF('study sites'!$A54&lt;&gt;"",'study sites'!$A54,"")</f>
         <v/>
       </c>
       <c r="B43" t="str">
-        <f>IF('emission sources'!$A43&lt;&gt;"",'emission sources'!$A43,"")</f>
+        <f>IF('emission sources'!$A35&lt;&gt;"",'emission sources'!$A35,"")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
-        <f>IF('study sites'!$A44&lt;&gt;"",'study sites'!$A44,"")</f>
+        <f>IF('study sites'!$A55&lt;&gt;"",'study sites'!$A55,"")</f>
         <v/>
       </c>
       <c r="B44" t="str">
-        <f>IF('emission sources'!$A44&lt;&gt;"",'emission sources'!$A44,"")</f>
+        <f>IF('emission sources'!$A36&lt;&gt;"",'emission sources'!$A36,"")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="str">
-        <f>IF('study sites'!$A45&lt;&gt;"",'study sites'!$A45,"")</f>
+        <f>IF('study sites'!$A56&lt;&gt;"",'study sites'!$A56,"")</f>
         <v/>
       </c>
       <c r="B45" t="str">
-        <f>IF('emission sources'!$A45&lt;&gt;"",'emission sources'!$A45,"")</f>
+        <f>IF('emission sources'!$A37&lt;&gt;"",'emission sources'!$A37,"")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="str">
-        <f>IF('study sites'!$A46&lt;&gt;"",'study sites'!$A46,"")</f>
+        <f>IF('study sites'!$A57&lt;&gt;"",'study sites'!$A57,"")</f>
         <v/>
       </c>
       <c r="B46" t="str">
-        <f>IF('emission sources'!$A46&lt;&gt;"",'emission sources'!$A46,"")</f>
+        <f>IF('emission sources'!$A38&lt;&gt;"",'emission sources'!$A38,"")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="str">
-        <f>IF('study sites'!$A47&lt;&gt;"",'study sites'!$A47,"")</f>
+        <f>IF('study sites'!$A58&lt;&gt;"",'study sites'!$A58,"")</f>
         <v/>
       </c>
       <c r="B47" t="str">
-        <f>IF('emission sources'!$A47&lt;&gt;"",'emission sources'!$A47,"")</f>
+        <f>IF('emission sources'!$A39&lt;&gt;"",'emission sources'!$A39,"")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="str">
-        <f>IF('study sites'!$A48&lt;&gt;"",'study sites'!$A48,"")</f>
+        <f>IF('study sites'!$A59&lt;&gt;"",'study sites'!$A59,"")</f>
         <v/>
       </c>
       <c r="B48" t="str">
-        <f>IF('emission sources'!$A48&lt;&gt;"",'emission sources'!$A48,"")</f>
+        <f>IF('emission sources'!$A40&lt;&gt;"",'emission sources'!$A40,"")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="str">
-        <f>IF('study sites'!$A49&lt;&gt;"",'study sites'!$A49,"")</f>
+        <f>IF('study sites'!$A60&lt;&gt;"",'study sites'!$A60,"")</f>
         <v/>
       </c>
       <c r="B49" t="str">
-        <f>IF('emission sources'!$A49&lt;&gt;"",'emission sources'!$A49,"")</f>
+        <f>IF('emission sources'!$A41&lt;&gt;"",'emission sources'!$A41,"")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="str">
-        <f>IF('study sites'!$A50&lt;&gt;"",'study sites'!$A50,"")</f>
+        <f>IF('study sites'!$A61&lt;&gt;"",'study sites'!$A61,"")</f>
         <v/>
       </c>
       <c r="B50" t="str">
-        <f>IF('emission sources'!$A50&lt;&gt;"",'emission sources'!$A50,"")</f>
+        <f>IF('emission sources'!$A42&lt;&gt;"",'emission sources'!$A42,"")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="str">
-        <f>IF('study sites'!$A51&lt;&gt;"",'study sites'!$A51,"")</f>
+        <f>IF('study sites'!$A62&lt;&gt;"",'study sites'!$A62,"")</f>
         <v/>
       </c>
       <c r="B51" t="str">
-        <f>IF('emission sources'!$A51&lt;&gt;"",'emission sources'!$A51,"")</f>
+        <f>IF('emission sources'!$A43&lt;&gt;"",'emission sources'!$A43,"")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="str">
-        <f>IF('study sites'!$A52&lt;&gt;"",'study sites'!$A52,"")</f>
+        <f>IF('study sites'!$A63&lt;&gt;"",'study sites'!$A63,"")</f>
         <v/>
       </c>
       <c r="B52" t="str">
-        <f>IF('emission sources'!$A52&lt;&gt;"",'emission sources'!$A52,"")</f>
+        <f>IF('emission sources'!$A44&lt;&gt;"",'emission sources'!$A44,"")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="str">
-        <f>IF('study sites'!$A53&lt;&gt;"",'study sites'!$A53,"")</f>
+        <f>IF('study sites'!$A64&lt;&gt;"",'study sites'!$A64,"")</f>
         <v/>
       </c>
       <c r="B53" t="str">
-        <f>IF('emission sources'!$A53&lt;&gt;"",'emission sources'!$A53,"")</f>
+        <f>IF('emission sources'!$A45&lt;&gt;"",'emission sources'!$A45,"")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="str">
-        <f>IF('study sites'!$A54&lt;&gt;"",'study sites'!$A54,"")</f>
+        <f>IF('study sites'!$A65&lt;&gt;"",'study sites'!$A65,"")</f>
         <v/>
       </c>
       <c r="B54" t="str">
-        <f>IF('emission sources'!$A54&lt;&gt;"",'emission sources'!$A54,"")</f>
+        <f>IF('emission sources'!$A46&lt;&gt;"",'emission sources'!$A46,"")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="str">
-        <f>IF('study sites'!$A55&lt;&gt;"",'study sites'!$A55,"")</f>
+        <f>IF('study sites'!$A66&lt;&gt;"",'study sites'!$A66,"")</f>
         <v/>
       </c>
       <c r="B55" t="str">
-        <f>IF('emission sources'!$A55&lt;&gt;"",'emission sources'!$A55,"")</f>
+        <f>IF('emission sources'!$A47&lt;&gt;"",'emission sources'!$A47,"")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="str">
-        <f>IF('study sites'!$A56&lt;&gt;"",'study sites'!$A56,"")</f>
+        <f>IF('study sites'!$A67&lt;&gt;"",'study sites'!$A67,"")</f>
         <v/>
       </c>
       <c r="B56" t="str">
-        <f>IF('emission sources'!$A56&lt;&gt;"",'emission sources'!$A56,"")</f>
+        <f>IF('emission sources'!$A48&lt;&gt;"",'emission sources'!$A48,"")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="str">
-        <f>IF('study sites'!$A57&lt;&gt;"",'study sites'!$A57,"")</f>
+        <f>IF('study sites'!$A68&lt;&gt;"",'study sites'!$A68,"")</f>
         <v/>
       </c>
       <c r="B57" t="str">
-        <f>IF('emission sources'!$A57&lt;&gt;"",'emission sources'!$A57,"")</f>
+        <f>IF('emission sources'!$A49&lt;&gt;"",'emission sources'!$A49,"")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="str">
-        <f>IF('study sites'!$A58&lt;&gt;"",'study sites'!$A58,"")</f>
+        <f>IF('study sites'!$A69&lt;&gt;"",'study sites'!$A69,"")</f>
         <v/>
       </c>
       <c r="B58" t="str">
-        <f>IF('emission sources'!$A58&lt;&gt;"",'emission sources'!$A58,"")</f>
+        <f>IF('emission sources'!$A50&lt;&gt;"",'emission sources'!$A50,"")</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="str">
-        <f>IF('study sites'!$A59&lt;&gt;"",'study sites'!$A59,"")</f>
+        <f>IF('study sites'!$A70&lt;&gt;"",'study sites'!$A70,"")</f>
         <v/>
       </c>
       <c r="B59" t="str">
-        <f>IF('emission sources'!$A59&lt;&gt;"",'emission sources'!$A59,"")</f>
+        <f>IF('emission sources'!$A51&lt;&gt;"",'emission sources'!$A51,"")</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="str">
-        <f>IF('study sites'!$A60&lt;&gt;"",'study sites'!$A60,"")</f>
+        <f>IF('study sites'!$A71&lt;&gt;"",'study sites'!$A71,"")</f>
         <v/>
       </c>
       <c r="B60" t="str">
-        <f>IF('emission sources'!$A60&lt;&gt;"",'emission sources'!$A60,"")</f>
+        <f>IF('emission sources'!$A52&lt;&gt;"",'emission sources'!$A52,"")</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="str">
-        <f>IF('study sites'!$A61&lt;&gt;"",'study sites'!$A61,"")</f>
+        <f>IF('study sites'!$A72&lt;&gt;"",'study sites'!$A72,"")</f>
         <v/>
       </c>
       <c r="B61" t="str">
-        <f>IF('emission sources'!$A61&lt;&gt;"",'emission sources'!$A61,"")</f>
+        <f>IF('emission sources'!$A53&lt;&gt;"",'emission sources'!$A53,"")</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="str">
-        <f>IF('study sites'!$A62&lt;&gt;"",'study sites'!$A62,"")</f>
+        <f>IF('study sites'!$A73&lt;&gt;"",'study sites'!$A73,"")</f>
         <v/>
       </c>
       <c r="B62" t="str">
-        <f>IF('emission sources'!$A62&lt;&gt;"",'emission sources'!$A62,"")</f>
+        <f>IF('emission sources'!$A54&lt;&gt;"",'emission sources'!$A54,"")</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="str">
-        <f>IF('study sites'!$A63&lt;&gt;"",'study sites'!$A63,"")</f>
+        <f>IF('study sites'!$A74&lt;&gt;"",'study sites'!$A74,"")</f>
         <v/>
       </c>
       <c r="B63" t="str">
-        <f>IF('emission sources'!$A63&lt;&gt;"",'emission sources'!$A63,"")</f>
+        <f>IF('emission sources'!$A55&lt;&gt;"",'emission sources'!$A55,"")</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="str">
-        <f>IF('study sites'!$A64&lt;&gt;"",'study sites'!$A64,"")</f>
+        <f>IF('study sites'!$A75&lt;&gt;"",'study sites'!$A75,"")</f>
         <v/>
       </c>
       <c r="B64" t="str">
-        <f>IF('emission sources'!$A64&lt;&gt;"",'emission sources'!$A64,"")</f>
+        <f>IF('emission sources'!$A56&lt;&gt;"",'emission sources'!$A56,"")</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="str">
-        <f>IF('study sites'!$A65&lt;&gt;"",'study sites'!$A65,"")</f>
+        <f>IF('study sites'!$A76&lt;&gt;"",'study sites'!$A76,"")</f>
         <v/>
       </c>
       <c r="B65" t="str">
-        <f>IF('emission sources'!$A65&lt;&gt;"",'emission sources'!$A65,"")</f>
+        <f>IF('emission sources'!$A57&lt;&gt;"",'emission sources'!$A57,"")</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="str">
-        <f>IF('study sites'!$A66&lt;&gt;"",'study sites'!$A66,"")</f>
+        <f>IF('study sites'!$A77&lt;&gt;"",'study sites'!$A77,"")</f>
         <v/>
       </c>
       <c r="B66" t="str">
-        <f>IF('emission sources'!$A66&lt;&gt;"",'emission sources'!$A66,"")</f>
+        <f>IF('emission sources'!$A58&lt;&gt;"",'emission sources'!$A58,"")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="str">
-        <f>IF('study sites'!$A67&lt;&gt;"",'study sites'!$A67,"")</f>
+        <f>IF('study sites'!$A78&lt;&gt;"",'study sites'!$A78,"")</f>
         <v/>
       </c>
       <c r="B67" t="str">
-        <f>IF('emission sources'!$A67&lt;&gt;"",'emission sources'!$A67,"")</f>
+        <f>IF('emission sources'!$A59&lt;&gt;"",'emission sources'!$A59,"")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="str">
-        <f>IF('study sites'!$A68&lt;&gt;"",'study sites'!$A68,"")</f>
+        <f>IF('study sites'!$A79&lt;&gt;"",'study sites'!$A79,"")</f>
         <v/>
       </c>
       <c r="B68" t="str">
-        <f>IF('emission sources'!$A68&lt;&gt;"",'emission sources'!$A68,"")</f>
+        <f>IF('emission sources'!$A60&lt;&gt;"",'emission sources'!$A60,"")</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="str">
-        <f>IF('study sites'!$A69&lt;&gt;"",'study sites'!$A69,"")</f>
+        <f>IF('study sites'!$A80&lt;&gt;"",'study sites'!$A80,"")</f>
         <v/>
       </c>
       <c r="B69" t="str">
-        <f>IF('emission sources'!$A69&lt;&gt;"",'emission sources'!$A69,"")</f>
+        <f>IF('emission sources'!$A61&lt;&gt;"",'emission sources'!$A61,"")</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="str">
-        <f>IF('study sites'!$A70&lt;&gt;"",'study sites'!$A70,"")</f>
+        <f>IF('study sites'!$A81&lt;&gt;"",'study sites'!$A81,"")</f>
         <v/>
       </c>
       <c r="B70" t="str">
-        <f>IF('emission sources'!$A70&lt;&gt;"",'emission sources'!$A70,"")</f>
+        <f>IF('emission sources'!$A62&lt;&gt;"",'emission sources'!$A62,"")</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="str">
-        <f>IF('study sites'!$A71&lt;&gt;"",'study sites'!$A71,"")</f>
+        <f>IF('study sites'!$A82&lt;&gt;"",'study sites'!$A82,"")</f>
         <v/>
       </c>
       <c r="B71" t="str">
-        <f>IF('emission sources'!$A71&lt;&gt;"",'emission sources'!$A71,"")</f>
+        <f>IF('emission sources'!$A63&lt;&gt;"",'emission sources'!$A63,"")</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="str">
-        <f>IF('study sites'!$A72&lt;&gt;"",'study sites'!$A72,"")</f>
+        <f>IF('study sites'!$A83&lt;&gt;"",'study sites'!$A83,"")</f>
         <v/>
       </c>
       <c r="B72" t="str">
-        <f>IF('emission sources'!$A72&lt;&gt;"",'emission sources'!$A72,"")</f>
+        <f>IF('emission sources'!$A64&lt;&gt;"",'emission sources'!$A64,"")</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="str">
-        <f>IF('study sites'!$A73&lt;&gt;"",'study sites'!$A73,"")</f>
+        <f>IF('study sites'!$A84&lt;&gt;"",'study sites'!$A84,"")</f>
         <v/>
       </c>
       <c r="B73" t="str">
-        <f>IF('emission sources'!$A73&lt;&gt;"",'emission sources'!$A73,"")</f>
+        <f>IF('emission sources'!$A65&lt;&gt;"",'emission sources'!$A65,"")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="str">
-        <f>IF('study sites'!$A74&lt;&gt;"",'study sites'!$A74,"")</f>
+        <f>IF('study sites'!$A85&lt;&gt;"",'study sites'!$A85,"")</f>
         <v/>
       </c>
       <c r="B74" t="str">
-        <f>IF('emission sources'!$A74&lt;&gt;"",'emission sources'!$A74,"")</f>
+        <f>IF('emission sources'!$A66&lt;&gt;"",'emission sources'!$A66,"")</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="str">
-        <f>IF('study sites'!$A75&lt;&gt;"",'study sites'!$A75,"")</f>
+        <f>IF('study sites'!$A86&lt;&gt;"",'study sites'!$A86,"")</f>
         <v/>
       </c>
       <c r="B75" t="str">
-        <f>IF('emission sources'!$A75&lt;&gt;"",'emission sources'!$A75,"")</f>
+        <f>IF('emission sources'!$A67&lt;&gt;"",'emission sources'!$A67,"")</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="str">
-        <f>IF('study sites'!$A76&lt;&gt;"",'study sites'!$A76,"")</f>
+        <f>IF('study sites'!$A87&lt;&gt;"",'study sites'!$A87,"")</f>
         <v/>
       </c>
       <c r="B76" t="str">
-        <f>IF('emission sources'!$A76&lt;&gt;"",'emission sources'!$A76,"")</f>
+        <f>IF('emission sources'!$A68&lt;&gt;"",'emission sources'!$A68,"")</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="str">
-        <f>IF('study sites'!$A77&lt;&gt;"",'study sites'!$A77,"")</f>
+        <f>IF('study sites'!$A88&lt;&gt;"",'study sites'!$A88,"")</f>
         <v/>
       </c>
       <c r="B77" t="str">
-        <f>IF('emission sources'!$A77&lt;&gt;"",'emission sources'!$A77,"")</f>
+        <f>IF('emission sources'!$A69&lt;&gt;"",'emission sources'!$A69,"")</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="str">
-        <f>IF('study sites'!$A78&lt;&gt;"",'study sites'!$A78,"")</f>
+        <f>IF('study sites'!$A89&lt;&gt;"",'study sites'!$A89,"")</f>
         <v/>
       </c>
       <c r="B78" t="str">
-        <f>IF('emission sources'!$A78&lt;&gt;"",'emission sources'!$A78,"")</f>
+        <f>IF('emission sources'!$A70&lt;&gt;"",'emission sources'!$A70,"")</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="str">
-        <f>IF('study sites'!$A79&lt;&gt;"",'study sites'!$A79,"")</f>
+        <f>IF('study sites'!$A90&lt;&gt;"",'study sites'!$A90,"")</f>
         <v/>
       </c>
       <c r="B79" t="str">
-        <f>IF('emission sources'!$A79&lt;&gt;"",'emission sources'!$A79,"")</f>
+        <f>IF('emission sources'!$A71&lt;&gt;"",'emission sources'!$A71,"")</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="str">
-        <f>IF('study sites'!$A80&lt;&gt;"",'study sites'!$A80,"")</f>
+        <f>IF('study sites'!$A91&lt;&gt;"",'study sites'!$A91,"")</f>
         <v/>
       </c>
       <c r="B80" t="str">
-        <f>IF('emission sources'!$A80&lt;&gt;"",'emission sources'!$A80,"")</f>
+        <f>IF('emission sources'!$A72&lt;&gt;"",'emission sources'!$A72,"")</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="str">
-        <f>IF('study sites'!$A81&lt;&gt;"",'study sites'!$A81,"")</f>
+        <f>IF('study sites'!$A92&lt;&gt;"",'study sites'!$A92,"")</f>
         <v/>
       </c>
       <c r="B81" t="str">
-        <f>IF('emission sources'!$A81&lt;&gt;"",'emission sources'!$A81,"")</f>
+        <f>IF('emission sources'!$A73&lt;&gt;"",'emission sources'!$A73,"")</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="str">
-        <f>IF('study sites'!$A82&lt;&gt;"",'study sites'!$A82,"")</f>
+        <f>IF('study sites'!$A93&lt;&gt;"",'study sites'!$A93,"")</f>
         <v/>
       </c>
       <c r="B82" t="str">
-        <f>IF('emission sources'!$A82&lt;&gt;"",'emission sources'!$A82,"")</f>
+        <f>IF('emission sources'!$A74&lt;&gt;"",'emission sources'!$A74,"")</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="str">
-        <f>IF('study sites'!$A83&lt;&gt;"",'study sites'!$A83,"")</f>
+        <f>IF('study sites'!$A94&lt;&gt;"",'study sites'!$A94,"")</f>
         <v/>
       </c>
       <c r="B83" t="str">
-        <f>IF('emission sources'!$A83&lt;&gt;"",'emission sources'!$A83,"")</f>
+        <f>IF('emission sources'!$A75&lt;&gt;"",'emission sources'!$A75,"")</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="str">
-        <f>IF('study sites'!$A84&lt;&gt;"",'study sites'!$A84,"")</f>
+        <f>IF('study sites'!$A95&lt;&gt;"",'study sites'!$A95,"")</f>
         <v/>
       </c>
       <c r="B84" t="str">
-        <f>IF('emission sources'!$A84&lt;&gt;"",'emission sources'!$A84,"")</f>
+        <f>IF('emission sources'!$A76&lt;&gt;"",'emission sources'!$A76,"")</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
-        <f>IF('study sites'!$A85&lt;&gt;"",'study sites'!$A85,"")</f>
+        <f>IF('study sites'!$A96&lt;&gt;"",'study sites'!$A96,"")</f>
         <v/>
       </c>
       <c r="B85" t="str">
-        <f>IF('emission sources'!$A85&lt;&gt;"",'emission sources'!$A85,"")</f>
+        <f>IF('emission sources'!$A77&lt;&gt;"",'emission sources'!$A77,"")</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="str">
-        <f>IF('study sites'!$A86&lt;&gt;"",'study sites'!$A86,"")</f>
+        <f>IF('study sites'!$A97&lt;&gt;"",'study sites'!$A97,"")</f>
         <v/>
       </c>
       <c r="B86" t="str">
-        <f>IF('emission sources'!$A86&lt;&gt;"",'emission sources'!$A86,"")</f>
+        <f>IF('emission sources'!$A78&lt;&gt;"",'emission sources'!$A78,"")</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="str">
-        <f>IF('study sites'!$A87&lt;&gt;"",'study sites'!$A87,"")</f>
+        <f>IF('study sites'!$A98&lt;&gt;"",'study sites'!$A98,"")</f>
         <v/>
       </c>
       <c r="B87" t="str">
-        <f>IF('emission sources'!$A87&lt;&gt;"",'emission sources'!$A87,"")</f>
+        <f>IF('emission sources'!$A79&lt;&gt;"",'emission sources'!$A79,"")</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="str">
-        <f>IF('study sites'!$A88&lt;&gt;"",'study sites'!$A88,"")</f>
+        <f>IF('study sites'!$A99&lt;&gt;"",'study sites'!$A99,"")</f>
         <v/>
       </c>
       <c r="B88" t="str">
-        <f>IF('emission sources'!$A88&lt;&gt;"",'emission sources'!$A88,"")</f>
+        <f>IF('emission sources'!$A80&lt;&gt;"",'emission sources'!$A80,"")</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="str">
-        <f>IF('study sites'!$A89&lt;&gt;"",'study sites'!$A89,"")</f>
+        <f>IF('study sites'!$A100&lt;&gt;"",'study sites'!$A100,"")</f>
         <v/>
       </c>
       <c r="B89" t="str">
-        <f>IF('emission sources'!$A89&lt;&gt;"",'emission sources'!$A89,"")</f>
+        <f>IF('emission sources'!$A81&lt;&gt;"",'emission sources'!$A81,"")</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="str">
-        <f>IF('study sites'!$A90&lt;&gt;"",'study sites'!$A90,"")</f>
+        <f>IF('study sites'!$A101&lt;&gt;"",'study sites'!$A101,"")</f>
         <v/>
       </c>
       <c r="B90" t="str">
-        <f>IF('emission sources'!$A90&lt;&gt;"",'emission sources'!$A90,"")</f>
+        <f>IF('emission sources'!$A82&lt;&gt;"",'emission sources'!$A82,"")</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="str">
-        <f>IF('study sites'!$A91&lt;&gt;"",'study sites'!$A91,"")</f>
+        <f>IF('study sites'!$A102&lt;&gt;"",'study sites'!$A102,"")</f>
         <v/>
       </c>
       <c r="B91" t="str">
-        <f>IF('emission sources'!$A91&lt;&gt;"",'emission sources'!$A91,"")</f>
+        <f>IF('emission sources'!$A83&lt;&gt;"",'emission sources'!$A83,"")</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="str">
-        <f>IF('study sites'!$A92&lt;&gt;"",'study sites'!$A92,"")</f>
+        <f>IF('study sites'!$A103&lt;&gt;"",'study sites'!$A103,"")</f>
         <v/>
       </c>
       <c r="B92" t="str">
-        <f>IF('emission sources'!$A92&lt;&gt;"",'emission sources'!$A92,"")</f>
+        <f>IF('emission sources'!$A84&lt;&gt;"",'emission sources'!$A84,"")</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="str">
-        <f>IF('study sites'!$A93&lt;&gt;"",'study sites'!$A93,"")</f>
+        <f>IF('study sites'!$A104&lt;&gt;"",'study sites'!$A104,"")</f>
         <v/>
       </c>
       <c r="B93" t="str">
-        <f>IF('emission sources'!$A93&lt;&gt;"",'emission sources'!$A93,"")</f>
+        <f>IF('emission sources'!$A85&lt;&gt;"",'emission sources'!$A85,"")</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="str">
-        <f>IF('study sites'!$A94&lt;&gt;"",'study sites'!$A94,"")</f>
+        <f>IF('study sites'!$A105&lt;&gt;"",'study sites'!$A105,"")</f>
         <v/>
       </c>
       <c r="B94" t="str">
-        <f>IF('emission sources'!$A94&lt;&gt;"",'emission sources'!$A94,"")</f>
+        <f>IF('emission sources'!$A86&lt;&gt;"",'emission sources'!$A86,"")</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="str">
-        <f>IF('study sites'!$A95&lt;&gt;"",'study sites'!$A95,"")</f>
+        <f>IF('study sites'!$A106&lt;&gt;"",'study sites'!$A106,"")</f>
         <v/>
       </c>
       <c r="B95" t="str">
-        <f>IF('emission sources'!$A95&lt;&gt;"",'emission sources'!$A95,"")</f>
+        <f>IF('emission sources'!$A87&lt;&gt;"",'emission sources'!$A87,"")</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="str">
-        <f>IF('study sites'!$A96&lt;&gt;"",'study sites'!$A96,"")</f>
+        <f>IF('study sites'!$A107&lt;&gt;"",'study sites'!$A107,"")</f>
         <v/>
       </c>
       <c r="B96" t="str">
-        <f>IF('emission sources'!$A96&lt;&gt;"",'emission sources'!$A96,"")</f>
+        <f>IF('emission sources'!$A88&lt;&gt;"",'emission sources'!$A88,"")</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="str">
-        <f>IF('study sites'!$A97&lt;&gt;"",'study sites'!$A97,"")</f>
+        <f>IF('study sites'!$A108&lt;&gt;"",'study sites'!$A108,"")</f>
         <v/>
       </c>
       <c r="B97" t="str">
-        <f>IF('emission sources'!$A97&lt;&gt;"",'emission sources'!$A97,"")</f>
+        <f>IF('emission sources'!$A89&lt;&gt;"",'emission sources'!$A89,"")</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="str">
-        <f>IF('study sites'!$A98&lt;&gt;"",'study sites'!$A98,"")</f>
+        <f>IF('study sites'!$A109&lt;&gt;"",'study sites'!$A109,"")</f>
         <v/>
       </c>
       <c r="B98" t="str">
-        <f>IF('emission sources'!$A98&lt;&gt;"",'emission sources'!$A98,"")</f>
+        <f>IF('emission sources'!$A90&lt;&gt;"",'emission sources'!$A90,"")</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="str">
-        <f>IF('study sites'!$A99&lt;&gt;"",'study sites'!$A99,"")</f>
+        <f>IF('study sites'!$A110&lt;&gt;"",'study sites'!$A110,"")</f>
         <v/>
       </c>
       <c r="B99" t="str">
-        <f>IF('emission sources'!$A99&lt;&gt;"",'emission sources'!$A99,"")</f>
+        <f>IF('emission sources'!$A91&lt;&gt;"",'emission sources'!$A91,"")</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="str">
-        <f>IF('study sites'!$A100&lt;&gt;"",'study sites'!$A100,"")</f>
+        <f>IF('study sites'!$A111&lt;&gt;"",'study sites'!$A111,"")</f>
         <v/>
       </c>
       <c r="B100" t="str">
-        <f>IF('emission sources'!$A100&lt;&gt;"",'emission sources'!$A100,"")</f>
+        <f>IF('emission sources'!$A92&lt;&gt;"",'emission sources'!$A92,"")</f>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="str">
-        <f>IF('study sites'!$A101&lt;&gt;"",'study sites'!$A101,"")</f>
+        <f>IF('study sites'!$A112&lt;&gt;"",'study sites'!$A112,"")</f>
         <v/>
       </c>
       <c r="B101" t="str">
-        <f>IF('emission sources'!$A101&lt;&gt;"",'emission sources'!$A101,"")</f>
+        <f>IF('emission sources'!$A93&lt;&gt;"",'emission sources'!$A93,"")</f>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="str">
-        <f>IF('study sites'!$A102&lt;&gt;"",'study sites'!$A102,"")</f>
+        <f>IF('study sites'!$A113&lt;&gt;"",'study sites'!$A113,"")</f>
         <v/>
       </c>
       <c r="B102" t="str">
-        <f>IF('emission sources'!$A102&lt;&gt;"",'emission sources'!$A102,"")</f>
+        <f>IF('emission sources'!$A94&lt;&gt;"",'emission sources'!$A94,"")</f>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="str">
-        <f>IF('study sites'!$A103&lt;&gt;"",'study sites'!$A103,"")</f>
+        <f>IF('study sites'!$A114&lt;&gt;"",'study sites'!$A114,"")</f>
         <v/>
       </c>
       <c r="B103" t="str">
-        <f>IF('emission sources'!$A103&lt;&gt;"",'emission sources'!$A103,"")</f>
+        <f>IF('emission sources'!$A95&lt;&gt;"",'emission sources'!$A95,"")</f>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="str">
-        <f>IF('study sites'!$A104&lt;&gt;"",'study sites'!$A104,"")</f>
+        <f>IF('study sites'!$A115&lt;&gt;"",'study sites'!$A115,"")</f>
         <v/>
       </c>
       <c r="B104" t="str">
-        <f>IF('emission sources'!$A104&lt;&gt;"",'emission sources'!$A104,"")</f>
+        <f>IF('emission sources'!$A96&lt;&gt;"",'emission sources'!$A96,"")</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="str">
-        <f>IF('study sites'!$A105&lt;&gt;"",'study sites'!$A105,"")</f>
+        <f>IF('study sites'!$A116&lt;&gt;"",'study sites'!$A116,"")</f>
         <v/>
       </c>
       <c r="B105" t="str">
-        <f>IF('emission sources'!$A105&lt;&gt;"",'emission sources'!$A105,"")</f>
+        <f>IF('emission sources'!$A97&lt;&gt;"",'emission sources'!$A97,"")</f>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="str">
-        <f>IF('study sites'!$A106&lt;&gt;"",'study sites'!$A106,"")</f>
+        <f>IF('study sites'!$A117&lt;&gt;"",'study sites'!$A117,"")</f>
         <v/>
       </c>
       <c r="B106" t="str">
-        <f>IF('emission sources'!$A106&lt;&gt;"",'emission sources'!$A106,"")</f>
+        <f>IF('emission sources'!$A98&lt;&gt;"",'emission sources'!$A98,"")</f>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="str">
-        <f>IF('study sites'!$A107&lt;&gt;"",'study sites'!$A107,"")</f>
+        <f>IF('study sites'!$A118&lt;&gt;"",'study sites'!$A118,"")</f>
         <v/>
       </c>
       <c r="B107" t="str">
-        <f>IF('emission sources'!$A107&lt;&gt;"",'emission sources'!$A107,"")</f>
+        <f>IF('emission sources'!$A99&lt;&gt;"",'emission sources'!$A99,"")</f>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="str">
-        <f>IF('study sites'!$A108&lt;&gt;"",'study sites'!$A108,"")</f>
+        <f>IF('study sites'!$A119&lt;&gt;"",'study sites'!$A119,"")</f>
         <v/>
       </c>
       <c r="B108" t="str">
-        <f>IF('emission sources'!$A108&lt;&gt;"",'emission sources'!$A108,"")</f>
+        <f>IF('emission sources'!$A100&lt;&gt;"",'emission sources'!$A100,"")</f>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="str">
-        <f>IF('study sites'!$A109&lt;&gt;"",'study sites'!$A109,"")</f>
+        <f>IF('study sites'!$A120&lt;&gt;"",'study sites'!$A120,"")</f>
         <v/>
       </c>
       <c r="B109" t="str">
-        <f>IF('emission sources'!$A109&lt;&gt;"",'emission sources'!$A109,"")</f>
+        <f>IF('emission sources'!$A101&lt;&gt;"",'emission sources'!$A101,"")</f>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="str">
-        <f>IF('study sites'!$A110&lt;&gt;"",'study sites'!$A110,"")</f>
+        <f>IF('study sites'!$A121&lt;&gt;"",'study sites'!$A121,"")</f>
         <v/>
       </c>
       <c r="B110" t="str">
-        <f>IF('emission sources'!$A110&lt;&gt;"",'emission sources'!$A110,"")</f>
+        <f>IF('emission sources'!$A102&lt;&gt;"",'emission sources'!$A102,"")</f>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="str">
-        <f>IF('study sites'!$A111&lt;&gt;"",'study sites'!$A111,"")</f>
+        <f>IF('study sites'!$A122&lt;&gt;"",'study sites'!$A122,"")</f>
         <v/>
       </c>
       <c r="B111" t="str">
-        <f>IF('emission sources'!$A111&lt;&gt;"",'emission sources'!$A111,"")</f>
+        <f>IF('emission sources'!$A103&lt;&gt;"",'emission sources'!$A103,"")</f>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="str">
-        <f>IF('study sites'!$A112&lt;&gt;"",'study sites'!$A112,"")</f>
+        <f>IF('study sites'!$A123&lt;&gt;"",'study sites'!$A123,"")</f>
         <v/>
       </c>
       <c r="B112" t="str">
-        <f>IF('emission sources'!$A112&lt;&gt;"",'emission sources'!$A112,"")</f>
+        <f>IF('emission sources'!$A104&lt;&gt;"",'emission sources'!$A104,"")</f>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="str">
-        <f>IF('study sites'!$A113&lt;&gt;"",'study sites'!$A113,"")</f>
+        <f>IF('study sites'!$A124&lt;&gt;"",'study sites'!$A124,"")</f>
         <v/>
       </c>
       <c r="B113" t="str">
-        <f>IF('emission sources'!$A113&lt;&gt;"",'emission sources'!$A113,"")</f>
+        <f>IF('emission sources'!$A105&lt;&gt;"",'emission sources'!$A105,"")</f>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="str">
-        <f>IF('study sites'!$A114&lt;&gt;"",'study sites'!$A114,"")</f>
+        <f>IF('study sites'!$A125&lt;&gt;"",'study sites'!$A125,"")</f>
         <v/>
       </c>
       <c r="B114" t="str">
-        <f>IF('emission sources'!$A114&lt;&gt;"",'emission sources'!$A114,"")</f>
+        <f>IF('emission sources'!$A106&lt;&gt;"",'emission sources'!$A106,"")</f>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="str">
-        <f>IF('study sites'!$A115&lt;&gt;"",'study sites'!$A115,"")</f>
+        <f>IF('study sites'!$A126&lt;&gt;"",'study sites'!$A126,"")</f>
         <v/>
       </c>
       <c r="B115" t="str">
-        <f>IF('emission sources'!$A115&lt;&gt;"",'emission sources'!$A115,"")</f>
+        <f>IF('emission sources'!$A107&lt;&gt;"",'emission sources'!$A107,"")</f>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="str">
-        <f>IF('study sites'!$A116&lt;&gt;"",'study sites'!$A116,"")</f>
+        <f>IF('study sites'!$A127&lt;&gt;"",'study sites'!$A127,"")</f>
         <v/>
       </c>
       <c r="B116" t="str">
-        <f>IF('emission sources'!$A116&lt;&gt;"",'emission sources'!$A116,"")</f>
+        <f>IF('emission sources'!$A108&lt;&gt;"",'emission sources'!$A108,"")</f>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="str">
-        <f>IF('study sites'!$A117&lt;&gt;"",'study sites'!$A117,"")</f>
+        <f>IF('study sites'!$A128&lt;&gt;"",'study sites'!$A128,"")</f>
         <v/>
       </c>
       <c r="B117" t="str">
-        <f>IF('emission sources'!$A117&lt;&gt;"",'emission sources'!$A117,"")</f>
+        <f>IF('emission sources'!$A109&lt;&gt;"",'emission sources'!$A109,"")</f>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="str">
-        <f>IF('study sites'!$A118&lt;&gt;"",'study sites'!$A118,"")</f>
+        <f>IF('study sites'!$A129&lt;&gt;"",'study sites'!$A129,"")</f>
         <v/>
       </c>
       <c r="B118" t="str">
-        <f>IF('emission sources'!$A118&lt;&gt;"",'emission sources'!$A118,"")</f>
+        <f>IF('emission sources'!$A110&lt;&gt;"",'emission sources'!$A110,"")</f>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="str">
-        <f>IF('study sites'!$A119&lt;&gt;"",'study sites'!$A119,"")</f>
+        <f>IF('study sites'!$A130&lt;&gt;"",'study sites'!$A130,"")</f>
         <v/>
       </c>
       <c r="B119" t="str">
-        <f>IF('emission sources'!$A119&lt;&gt;"",'emission sources'!$A119,"")</f>
+        <f>IF('emission sources'!$A111&lt;&gt;"",'emission sources'!$A111,"")</f>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="str">
-        <f>IF('study sites'!$A120&lt;&gt;"",'study sites'!$A120,"")</f>
+        <f>IF('study sites'!$A131&lt;&gt;"",'study sites'!$A131,"")</f>
         <v/>
       </c>
       <c r="B120" t="str">
-        <f>IF('emission sources'!$A120&lt;&gt;"",'emission sources'!$A120,"")</f>
+        <f>IF('emission sources'!$A112&lt;&gt;"",'emission sources'!$A112,"")</f>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="str">
-        <f>IF('study sites'!$A121&lt;&gt;"",'study sites'!$A121,"")</f>
+        <f>IF('study sites'!$A132&lt;&gt;"",'study sites'!$A132,"")</f>
         <v/>
       </c>
       <c r="B121" t="str">
-        <f>IF('emission sources'!$A121&lt;&gt;"",'emission sources'!$A121,"")</f>
+        <f>IF('emission sources'!$A113&lt;&gt;"",'emission sources'!$A113,"")</f>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="str">
-        <f>IF('study sites'!$A122&lt;&gt;"",'study sites'!$A122,"")</f>
+        <f>IF('study sites'!$A133&lt;&gt;"",'study sites'!$A133,"")</f>
         <v/>
       </c>
       <c r="B122" t="str">
-        <f>IF('emission sources'!$A122&lt;&gt;"",'emission sources'!$A122,"")</f>
+        <f>IF('emission sources'!$A114&lt;&gt;"",'emission sources'!$A114,"")</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="str">
-        <f>IF('study sites'!$A123&lt;&gt;"",'study sites'!$A123,"")</f>
+        <f>IF('study sites'!$A134&lt;&gt;"",'study sites'!$A134,"")</f>
         <v/>
       </c>
       <c r="B123" t="str">
-        <f>IF('emission sources'!$A123&lt;&gt;"",'emission sources'!$A123,"")</f>
+        <f>IF('emission sources'!$A115&lt;&gt;"",'emission sources'!$A115,"")</f>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="str">
-        <f>IF('study sites'!$A124&lt;&gt;"",'study sites'!$A124,"")</f>
+        <f>IF('study sites'!$A135&lt;&gt;"",'study sites'!$A135,"")</f>
         <v/>
       </c>
       <c r="B124" t="str">
-        <f>IF('emission sources'!$A124&lt;&gt;"",'emission sources'!$A124,"")</f>
+        <f>IF('emission sources'!$A116&lt;&gt;"",'emission sources'!$A116,"")</f>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="str">
-        <f>IF('study sites'!$A125&lt;&gt;"",'study sites'!$A125,"")</f>
+        <f>IF('study sites'!$A136&lt;&gt;"",'study sites'!$A136,"")</f>
         <v/>
       </c>
       <c r="B125" t="str">
-        <f>IF('emission sources'!$A125&lt;&gt;"",'emission sources'!$A125,"")</f>
+        <f>IF('emission sources'!$A117&lt;&gt;"",'emission sources'!$A117,"")</f>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="str">
-        <f>IF('study sites'!$A126&lt;&gt;"",'study sites'!$A126,"")</f>
+        <f>IF('study sites'!$A137&lt;&gt;"",'study sites'!$A137,"")</f>
         <v/>
       </c>
       <c r="B126" t="str">
-        <f>IF('emission sources'!$A126&lt;&gt;"",'emission sources'!$A126,"")</f>
+        <f>IF('emission sources'!$A118&lt;&gt;"",'emission sources'!$A118,"")</f>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="str">
-        <f>IF('study sites'!$A127&lt;&gt;"",'study sites'!$A127,"")</f>
+        <f>IF('study sites'!$A138&lt;&gt;"",'study sites'!$A138,"")</f>
         <v/>
       </c>
       <c r="B127" t="str">
-        <f>IF('emission sources'!$A127&lt;&gt;"",'emission sources'!$A127,"")</f>
+        <f>IF('emission sources'!$A119&lt;&gt;"",'emission sources'!$A119,"")</f>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="str">
-        <f>IF('study sites'!$A128&lt;&gt;"",'study sites'!$A128,"")</f>
+        <f>IF('study sites'!$A139&lt;&gt;"",'study sites'!$A139,"")</f>
         <v/>
       </c>
       <c r="B128" t="str">
-        <f>IF('emission sources'!$A128&lt;&gt;"",'emission sources'!$A128,"")</f>
+        <f>IF('emission sources'!$A120&lt;&gt;"",'emission sources'!$A120,"")</f>
         <v/>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="str">
-        <f>IF('study sites'!$A129&lt;&gt;"",'study sites'!$A129,"")</f>
+        <f>IF('study sites'!$A140&lt;&gt;"",'study sites'!$A140,"")</f>
         <v/>
       </c>
       <c r="B129" t="str">
-        <f>IF('emission sources'!$A129&lt;&gt;"",'emission sources'!$A129,"")</f>
+        <f>IF('emission sources'!$A121&lt;&gt;"",'emission sources'!$A121,"")</f>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="str">
-        <f>IF('study sites'!$A130&lt;&gt;"",'study sites'!$A130,"")</f>
+        <f>IF('study sites'!$A141&lt;&gt;"",'study sites'!$A141,"")</f>
         <v/>
       </c>
       <c r="B130" t="str">
-        <f>IF('emission sources'!$A130&lt;&gt;"",'emission sources'!$A130,"")</f>
+        <f>IF('emission sources'!$A122&lt;&gt;"",'emission sources'!$A122,"")</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="str">
-        <f>IF('study sites'!$A131&lt;&gt;"",'study sites'!$A131,"")</f>
+        <f>IF('study sites'!$A142&lt;&gt;"",'study sites'!$A142,"")</f>
         <v/>
       </c>
       <c r="B131" t="str">
-        <f>IF('emission sources'!$A131&lt;&gt;"",'emission sources'!$A131,"")</f>
+        <f>IF('emission sources'!$A123&lt;&gt;"",'emission sources'!$A123,"")</f>
         <v/>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="str">
-        <f>IF('study sites'!$A132&lt;&gt;"",'study sites'!$A132,"")</f>
+        <f>IF('study sites'!$A143&lt;&gt;"",'study sites'!$A143,"")</f>
         <v/>
       </c>
       <c r="B132" t="str">
-        <f>IF('emission sources'!$A132&lt;&gt;"",'emission sources'!$A132,"")</f>
+        <f>IF('emission sources'!$A124&lt;&gt;"",'emission sources'!$A124,"")</f>
         <v/>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="str">
-        <f>IF('study sites'!$A133&lt;&gt;"",'study sites'!$A133,"")</f>
+        <f>IF('study sites'!$A144&lt;&gt;"",'study sites'!$A144,"")</f>
         <v/>
       </c>
       <c r="B133" t="str">
-        <f>IF('emission sources'!$A133&lt;&gt;"",'emission sources'!$A133,"")</f>
+        <f>IF('emission sources'!$A125&lt;&gt;"",'emission sources'!$A125,"")</f>
         <v/>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="str">
-        <f>IF('study sites'!$A134&lt;&gt;"",'study sites'!$A134,"")</f>
+        <f>IF('study sites'!$A145&lt;&gt;"",'study sites'!$A145,"")</f>
         <v/>
       </c>
       <c r="B134" t="str">
-        <f>IF('emission sources'!$A134&lt;&gt;"",'emission sources'!$A134,"")</f>
+        <f>IF('emission sources'!$A126&lt;&gt;"",'emission sources'!$A126,"")</f>
         <v/>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="str">
-        <f>IF('study sites'!$A135&lt;&gt;"",'study sites'!$A135,"")</f>
+        <f>IF('study sites'!$A146&lt;&gt;"",'study sites'!$A146,"")</f>
         <v/>
       </c>
       <c r="B135" t="str">
-        <f>IF('emission sources'!$A135&lt;&gt;"",'emission sources'!$A135,"")</f>
+        <f>IF('emission sources'!$A127&lt;&gt;"",'emission sources'!$A127,"")</f>
         <v/>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="str">
-        <f>IF('study sites'!$A136&lt;&gt;"",'study sites'!$A136,"")</f>
+        <f>IF('study sites'!$A147&lt;&gt;"",'study sites'!$A147,"")</f>
         <v/>
       </c>
       <c r="B136" t="str">
-        <f>IF('emission sources'!$A136&lt;&gt;"",'emission sources'!$A136,"")</f>
+        <f>IF('emission sources'!$A128&lt;&gt;"",'emission sources'!$A128,"")</f>
         <v/>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="str">
-        <f>IF('study sites'!$A137&lt;&gt;"",'study sites'!$A137,"")</f>
+        <f>IF('study sites'!$A148&lt;&gt;"",'study sites'!$A148,"")</f>
         <v/>
       </c>
       <c r="B137" t="str">
-        <f>IF('emission sources'!$A137&lt;&gt;"",'emission sources'!$A137,"")</f>
+        <f>IF('emission sources'!$A129&lt;&gt;"",'emission sources'!$A129,"")</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="str">
-        <f>IF('study sites'!$A138&lt;&gt;"",'study sites'!$A138,"")</f>
+        <f>IF('study sites'!$A149&lt;&gt;"",'study sites'!$A149,"")</f>
         <v/>
       </c>
       <c r="B138" t="str">
-        <f>IF('emission sources'!$A138&lt;&gt;"",'emission sources'!$A138,"")</f>
+        <f>IF('emission sources'!$A130&lt;&gt;"",'emission sources'!$A130,"")</f>
         <v/>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="str">
-        <f>IF('study sites'!$A139&lt;&gt;"",'study sites'!$A139,"")</f>
+        <f>IF('study sites'!$A150&lt;&gt;"",'study sites'!$A150,"")</f>
         <v/>
       </c>
       <c r="B139" t="str">
-        <f>IF('emission sources'!$A139&lt;&gt;"",'emission sources'!$A139,"")</f>
+        <f>IF('emission sources'!$A131&lt;&gt;"",'emission sources'!$A131,"")</f>
         <v/>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="str">
-        <f>IF('study sites'!$A140&lt;&gt;"",'study sites'!$A140,"")</f>
+        <f>IF('study sites'!$A151&lt;&gt;"",'study sites'!$A151,"")</f>
         <v/>
       </c>
       <c r="B140" t="str">
-        <f>IF('emission sources'!$A140&lt;&gt;"",'emission sources'!$A140,"")</f>
+        <f>IF('emission sources'!$A132&lt;&gt;"",'emission sources'!$A132,"")</f>
         <v/>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="str">
-        <f>IF('study sites'!$A141&lt;&gt;"",'study sites'!$A141,"")</f>
+        <f>IF('study sites'!$A152&lt;&gt;"",'study sites'!$A152,"")</f>
         <v/>
       </c>
       <c r="B141" t="str">
-        <f>IF('emission sources'!$A141&lt;&gt;"",'emission sources'!$A141,"")</f>
+        <f>IF('emission sources'!$A133&lt;&gt;"",'emission sources'!$A133,"")</f>
         <v/>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="str">
-        <f>IF('study sites'!$A142&lt;&gt;"",'study sites'!$A142,"")</f>
+        <f>IF('study sites'!$A153&lt;&gt;"",'study sites'!$A153,"")</f>
         <v/>
       </c>
       <c r="B142" t="str">
-        <f>IF('emission sources'!$A142&lt;&gt;"",'emission sources'!$A142,"")</f>
+        <f>IF('emission sources'!$A134&lt;&gt;"",'emission sources'!$A134,"")</f>
         <v/>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="str">
-        <f>IF('study sites'!$A143&lt;&gt;"",'study sites'!$A143,"")</f>
+        <f>IF('study sites'!$A154&lt;&gt;"",'study sites'!$A154,"")</f>
         <v/>
       </c>
       <c r="B143" t="str">
-        <f>IF('emission sources'!$A143&lt;&gt;"",'emission sources'!$A143,"")</f>
+        <f>IF('emission sources'!$A135&lt;&gt;"",'emission sources'!$A135,"")</f>
         <v/>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="str">
-        <f>IF('study sites'!$A144&lt;&gt;"",'study sites'!$A144,"")</f>
+        <f>IF('study sites'!$A155&lt;&gt;"",'study sites'!$A155,"")</f>
         <v/>
       </c>
       <c r="B144" t="str">
-        <f>IF('emission sources'!$A144&lt;&gt;"",'emission sources'!$A144,"")</f>
+        <f>IF('emission sources'!$A136&lt;&gt;"",'emission sources'!$A136,"")</f>
         <v/>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="str">
-        <f>IF('study sites'!$A145&lt;&gt;"",'study sites'!$A145,"")</f>
+        <f>IF('study sites'!$A156&lt;&gt;"",'study sites'!$A156,"")</f>
         <v/>
       </c>
       <c r="B145" t="str">
-        <f>IF('emission sources'!$A145&lt;&gt;"",'emission sources'!$A145,"")</f>
+        <f>IF('emission sources'!$A137&lt;&gt;"",'emission sources'!$A137,"")</f>
         <v/>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="str">
-        <f>IF('study sites'!$A146&lt;&gt;"",'study sites'!$A146,"")</f>
+        <f>IF('study sites'!$A157&lt;&gt;"",'study sites'!$A157,"")</f>
         <v/>
       </c>
       <c r="B146" t="str">
-        <f>IF('emission sources'!$A146&lt;&gt;"",'emission sources'!$A146,"")</f>
+        <f>IF('emission sources'!$A138&lt;&gt;"",'emission sources'!$A138,"")</f>
         <v/>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="str">
-        <f>IF('study sites'!$A147&lt;&gt;"",'study sites'!$A147,"")</f>
+        <f>IF('study sites'!$A158&lt;&gt;"",'study sites'!$A158,"")</f>
         <v/>
       </c>
       <c r="B147" t="str">
-        <f>IF('emission sources'!$A147&lt;&gt;"",'emission sources'!$A147,"")</f>
+        <f>IF('emission sources'!$A139&lt;&gt;"",'emission sources'!$A139,"")</f>
         <v/>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="str">
-        <f>IF('study sites'!$A148&lt;&gt;"",'study sites'!$A148,"")</f>
+        <f>IF('study sites'!$A159&lt;&gt;"",'study sites'!$A159,"")</f>
         <v/>
       </c>
       <c r="B148" t="str">
-        <f>IF('emission sources'!$A148&lt;&gt;"",'emission sources'!$A148,"")</f>
+        <f>IF('emission sources'!$A140&lt;&gt;"",'emission sources'!$A140,"")</f>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="str">
-        <f>IF('study sites'!$A149&lt;&gt;"",'study sites'!$A149,"")</f>
+        <f>IF('study sites'!$A160&lt;&gt;"",'study sites'!$A160,"")</f>
         <v/>
       </c>
       <c r="B149" t="str">
-        <f>IF('emission sources'!$A149&lt;&gt;"",'emission sources'!$A149,"")</f>
+        <f>IF('emission sources'!$A141&lt;&gt;"",'emission sources'!$A141,"")</f>
         <v/>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="str">
-        <f>IF('study sites'!$A150&lt;&gt;"",'study sites'!$A150,"")</f>
+        <f>IF('study sites'!$A161&lt;&gt;"",'study sites'!$A161,"")</f>
         <v/>
       </c>
       <c r="B150" t="str">
-        <f>IF('emission sources'!$A150&lt;&gt;"",'emission sources'!$A150,"")</f>
+        <f>IF('emission sources'!$A142&lt;&gt;"",'emission sources'!$A142,"")</f>
         <v/>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="str">
-        <f>IF('study sites'!$A151&lt;&gt;"",'study sites'!$A151,"")</f>
+        <f>IF('study sites'!$A162&lt;&gt;"",'study sites'!$A162,"")</f>
         <v/>
       </c>
       <c r="B151" t="str">
-        <f>IF('emission sources'!$A151&lt;&gt;"",'emission sources'!$A151,"")</f>
+        <f>IF('emission sources'!$A143&lt;&gt;"",'emission sources'!$A143,"")</f>
         <v/>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="str">
-        <f>IF('study sites'!$A152&lt;&gt;"",'study sites'!$A152,"")</f>
+        <f>IF('study sites'!$A163&lt;&gt;"",'study sites'!$A163,"")</f>
         <v/>
       </c>
       <c r="B152" t="str">
-        <f>IF('emission sources'!$A152&lt;&gt;"",'emission sources'!$A152,"")</f>
+        <f>IF('emission sources'!$A144&lt;&gt;"",'emission sources'!$A144,"")</f>
         <v/>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="str">
-        <f>IF('study sites'!$A153&lt;&gt;"",'study sites'!$A153,"")</f>
+        <f>IF('study sites'!$A164&lt;&gt;"",'study sites'!$A164,"")</f>
         <v/>
       </c>
       <c r="B153" t="str">
-        <f>IF('emission sources'!$A153&lt;&gt;"",'emission sources'!$A153,"")</f>
+        <f>IF('emission sources'!$A145&lt;&gt;"",'emission sources'!$A145,"")</f>
         <v/>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="str">
-        <f>IF('study sites'!$A154&lt;&gt;"",'study sites'!$A154,"")</f>
+        <f>IF('study sites'!$A165&lt;&gt;"",'study sites'!$A165,"")</f>
         <v/>
       </c>
       <c r="B154" t="str">
-        <f>IF('emission sources'!$A154&lt;&gt;"",'emission sources'!$A154,"")</f>
+        <f>IF('emission sources'!$A146&lt;&gt;"",'emission sources'!$A146,"")</f>
         <v/>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="str">
-        <f>IF('study sites'!$A155&lt;&gt;"",'study sites'!$A155,"")</f>
+        <f>IF('study sites'!$A166&lt;&gt;"",'study sites'!$A166,"")</f>
         <v/>
       </c>
       <c r="B155" t="str">
-        <f>IF('emission sources'!$A155&lt;&gt;"",'emission sources'!$A155,"")</f>
+        <f>IF('emission sources'!$A147&lt;&gt;"",'emission sources'!$A147,"")</f>
         <v/>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="str">
-        <f>IF('study sites'!$A156&lt;&gt;"",'study sites'!$A156,"")</f>
+        <f>IF('study sites'!$A167&lt;&gt;"",'study sites'!$A167,"")</f>
         <v/>
       </c>
       <c r="B156" t="str">
-        <f>IF('emission sources'!$A156&lt;&gt;"",'emission sources'!$A156,"")</f>
+        <f>IF('emission sources'!$A148&lt;&gt;"",'emission sources'!$A148,"")</f>
         <v/>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="str">
-        <f>IF('study sites'!$A157&lt;&gt;"",'study sites'!$A157,"")</f>
+        <f>IF('study sites'!$A168&lt;&gt;"",'study sites'!$A168,"")</f>
         <v/>
       </c>
       <c r="B157" t="str">
-        <f>IF('emission sources'!$A157&lt;&gt;"",'emission sources'!$A157,"")</f>
+        <f>IF('emission sources'!$A149&lt;&gt;"",'emission sources'!$A149,"")</f>
         <v/>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="str">
-        <f>IF('study sites'!$A158&lt;&gt;"",'study sites'!$A158,"")</f>
+        <f>IF('study sites'!$A169&lt;&gt;"",'study sites'!$A169,"")</f>
         <v/>
       </c>
       <c r="B158" t="str">
-        <f>IF('emission sources'!$A158&lt;&gt;"",'emission sources'!$A158,"")</f>
+        <f>IF('emission sources'!$A150&lt;&gt;"",'emission sources'!$A150,"")</f>
         <v/>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="str">
-        <f>IF('study sites'!$A159&lt;&gt;"",'study sites'!$A159,"")</f>
+        <f>IF('study sites'!$A170&lt;&gt;"",'study sites'!$A170,"")</f>
         <v/>
       </c>
       <c r="B159" t="str">
-        <f>IF('emission sources'!$A159&lt;&gt;"",'emission sources'!$A159,"")</f>
+        <f>IF('emission sources'!$A151&lt;&gt;"",'emission sources'!$A151,"")</f>
         <v/>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="str">
-        <f>IF('study sites'!$A160&lt;&gt;"",'study sites'!$A160,"")</f>
+        <f>IF('study sites'!$A171&lt;&gt;"",'study sites'!$A171,"")</f>
         <v/>
       </c>
       <c r="B160" t="str">
-        <f>IF('emission sources'!$A160&lt;&gt;"",'emission sources'!$A160,"")</f>
+        <f>IF('emission sources'!$A152&lt;&gt;"",'emission sources'!$A152,"")</f>
         <v/>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="str">
-        <f>IF('study sites'!$A161&lt;&gt;"",'study sites'!$A161,"")</f>
+        <f>IF('study sites'!$A172&lt;&gt;"",'study sites'!$A172,"")</f>
         <v/>
       </c>
       <c r="B161" t="str">
-        <f>IF('emission sources'!$A161&lt;&gt;"",'emission sources'!$A161,"")</f>
+        <f>IF('emission sources'!$A153&lt;&gt;"",'emission sources'!$A153,"")</f>
         <v/>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="str">
-        <f>IF('study sites'!$A162&lt;&gt;"",'study sites'!$A162,"")</f>
+        <f>IF('study sites'!$A173&lt;&gt;"",'study sites'!$A173,"")</f>
         <v/>
       </c>
       <c r="B162" t="str">
-        <f>IF('emission sources'!$A162&lt;&gt;"",'emission sources'!$A162,"")</f>
+        <f>IF('emission sources'!$A154&lt;&gt;"",'emission sources'!$A154,"")</f>
         <v/>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="str">
-        <f>IF('study sites'!$A163&lt;&gt;"",'study sites'!$A163,"")</f>
+        <f>IF('study sites'!$A174&lt;&gt;"",'study sites'!$A174,"")</f>
         <v/>
       </c>
       <c r="B163" t="str">
-        <f>IF('emission sources'!$A163&lt;&gt;"",'emission sources'!$A163,"")</f>
+        <f>IF('emission sources'!$A155&lt;&gt;"",'emission sources'!$A155,"")</f>
         <v/>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="str">
-        <f>IF('study sites'!$A164&lt;&gt;"",'study sites'!$A164,"")</f>
+        <f>IF('study sites'!$A175&lt;&gt;"",'study sites'!$A175,"")</f>
         <v/>
       </c>
       <c r="B164" t="str">
-        <f>IF('emission sources'!$A164&lt;&gt;"",'emission sources'!$A164,"")</f>
+        <f>IF('emission sources'!$A156&lt;&gt;"",'emission sources'!$A156,"")</f>
         <v/>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="str">
-        <f>IF('study sites'!$A165&lt;&gt;"",'study sites'!$A165,"")</f>
+        <f>IF('study sites'!$A176&lt;&gt;"",'study sites'!$A176,"")</f>
         <v/>
       </c>
       <c r="B165" t="str">
-        <f>IF('emission sources'!$A165&lt;&gt;"",'emission sources'!$A165,"")</f>
+        <f>IF('emission sources'!$A157&lt;&gt;"",'emission sources'!$A157,"")</f>
         <v/>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="str">
-        <f>IF('study sites'!$A166&lt;&gt;"",'study sites'!$A166,"")</f>
+        <f>IF('study sites'!$A177&lt;&gt;"",'study sites'!$A177,"")</f>
         <v/>
       </c>
       <c r="B166" t="str">
-        <f>IF('emission sources'!$A166&lt;&gt;"",'emission sources'!$A166,"")</f>
+        <f>IF('emission sources'!$A158&lt;&gt;"",'emission sources'!$A158,"")</f>
         <v/>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="str">
-        <f>IF('study sites'!$A167&lt;&gt;"",'study sites'!$A167,"")</f>
+        <f>IF('study sites'!$A178&lt;&gt;"",'study sites'!$A178,"")</f>
         <v/>
       </c>
       <c r="B167" t="str">
-        <f>IF('emission sources'!$A167&lt;&gt;"",'emission sources'!$A167,"")</f>
+        <f>IF('emission sources'!$A159&lt;&gt;"",'emission sources'!$A159,"")</f>
         <v/>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="str">
-        <f>IF('study sites'!$A168&lt;&gt;"",'study sites'!$A168,"")</f>
+        <f>IF('study sites'!$A179&lt;&gt;"",'study sites'!$A179,"")</f>
         <v/>
       </c>
       <c r="B168" t="str">
-        <f>IF('emission sources'!$A168&lt;&gt;"",'emission sources'!$A168,"")</f>
+        <f>IF('emission sources'!$A160&lt;&gt;"",'emission sources'!$A160,"")</f>
         <v/>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="str">
-        <f>IF('study sites'!$A169&lt;&gt;"",'study sites'!$A169,"")</f>
+        <f>IF('study sites'!$A180&lt;&gt;"",'study sites'!$A180,"")</f>
         <v/>
       </c>
       <c r="B169" t="str">
-        <f>IF('emission sources'!$A169&lt;&gt;"",'emission sources'!$A169,"")</f>
+        <f>IF('emission sources'!$A161&lt;&gt;"",'emission sources'!$A161,"")</f>
         <v/>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="str">
-        <f>IF('study sites'!$A170&lt;&gt;"",'study sites'!$A170,"")</f>
+        <f>IF('study sites'!$A181&lt;&gt;"",'study sites'!$A181,"")</f>
         <v/>
       </c>
       <c r="B170" t="str">
-        <f>IF('emission sources'!$A170&lt;&gt;"",'emission sources'!$A170,"")</f>
+        <f>IF('emission sources'!$A162&lt;&gt;"",'emission sources'!$A162,"")</f>
         <v/>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="str">
-        <f>IF('study sites'!$A171&lt;&gt;"",'study sites'!$A171,"")</f>
+        <f>IF('study sites'!$A182&lt;&gt;"",'study sites'!$A182,"")</f>
         <v/>
       </c>
       <c r="B171" t="str">
-        <f>IF('emission sources'!$A171&lt;&gt;"",'emission sources'!$A171,"")</f>
+        <f>IF('emission sources'!$A163&lt;&gt;"",'emission sources'!$A163,"")</f>
         <v/>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="str">
-        <f>IF('study sites'!$A172&lt;&gt;"",'study sites'!$A172,"")</f>
+        <f>IF('study sites'!$A183&lt;&gt;"",'study sites'!$A183,"")</f>
         <v/>
       </c>
       <c r="B172" t="str">
-        <f>IF('emission sources'!$A172&lt;&gt;"",'emission sources'!$A172,"")</f>
+        <f>IF('emission sources'!$A164&lt;&gt;"",'emission sources'!$A164,"")</f>
         <v/>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="str">
-        <f>IF('study sites'!$A173&lt;&gt;"",'study sites'!$A173,"")</f>
+        <f>IF('study sites'!$A184&lt;&gt;"",'study sites'!$A184,"")</f>
         <v/>
       </c>
       <c r="B173" t="str">
-        <f>IF('emission sources'!$A173&lt;&gt;"",'emission sources'!$A173,"")</f>
+        <f>IF('emission sources'!$A165&lt;&gt;"",'emission sources'!$A165,"")</f>
         <v/>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="str">
-        <f>IF('study sites'!$A174&lt;&gt;"",'study sites'!$A174,"")</f>
+        <f>IF('study sites'!$A185&lt;&gt;"",'study sites'!$A185,"")</f>
         <v/>
       </c>
       <c r="B174" t="str">
-        <f>IF('emission sources'!$A174&lt;&gt;"",'emission sources'!$A174,"")</f>
+        <f>IF('emission sources'!$A166&lt;&gt;"",'emission sources'!$A166,"")</f>
         <v/>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="str">
-        <f>IF('study sites'!$A175&lt;&gt;"",'study sites'!$A175,"")</f>
+        <f>IF('study sites'!$A186&lt;&gt;"",'study sites'!$A186,"")</f>
         <v/>
       </c>
       <c r="B175" t="str">
-        <f>IF('emission sources'!$A175&lt;&gt;"",'emission sources'!$A175,"")</f>
+        <f>IF('emission sources'!$A167&lt;&gt;"",'emission sources'!$A167,"")</f>
         <v/>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="str">
-        <f>IF('study sites'!$A176&lt;&gt;"",'study sites'!$A176,"")</f>
+        <f>IF('study sites'!$A187&lt;&gt;"",'study sites'!$A187,"")</f>
         <v/>
       </c>
       <c r="B176" t="str">
-        <f>IF('emission sources'!$A176&lt;&gt;"",'emission sources'!$A176,"")</f>
+        <f>IF('emission sources'!$A168&lt;&gt;"",'emission sources'!$A168,"")</f>
         <v/>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="str">
-        <f>IF('study sites'!$A177&lt;&gt;"",'study sites'!$A177,"")</f>
+        <f>IF('study sites'!$A188&lt;&gt;"",'study sites'!$A188,"")</f>
         <v/>
       </c>
       <c r="B177" t="str">
-        <f>IF('emission sources'!$A177&lt;&gt;"",'emission sources'!$A177,"")</f>
+        <f>IF('emission sources'!$A169&lt;&gt;"",'emission sources'!$A169,"")</f>
         <v/>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="str">
-        <f>IF('study sites'!$A178&lt;&gt;"",'study sites'!$A178,"")</f>
+        <f>IF('study sites'!$A189&lt;&gt;"",'study sites'!$A189,"")</f>
         <v/>
       </c>
       <c r="B178" t="str">
-        <f>IF('emission sources'!$A178&lt;&gt;"",'emission sources'!$A178,"")</f>
+        <f>IF('emission sources'!$A170&lt;&gt;"",'emission sources'!$A170,"")</f>
         <v/>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="str">
-        <f>IF('study sites'!$A179&lt;&gt;"",'study sites'!$A179,"")</f>
+        <f>IF('study sites'!$A190&lt;&gt;"",'study sites'!$A190,"")</f>
         <v/>
       </c>
       <c r="B179" t="str">
-        <f>IF('emission sources'!$A179&lt;&gt;"",'emission sources'!$A179,"")</f>
+        <f>IF('emission sources'!$A171&lt;&gt;"",'emission sources'!$A171,"")</f>
         <v/>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="str">
-        <f>IF('study sites'!$A180&lt;&gt;"",'study sites'!$A180,"")</f>
+        <f>IF('study sites'!$A191&lt;&gt;"",'study sites'!$A191,"")</f>
         <v/>
       </c>
       <c r="B180" t="str">
-        <f>IF('emission sources'!$A180&lt;&gt;"",'emission sources'!$A180,"")</f>
+        <f>IF('emission sources'!$A172&lt;&gt;"",'emission sources'!$A172,"")</f>
         <v/>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="str">
-        <f>IF('study sites'!$A181&lt;&gt;"",'study sites'!$A181,"")</f>
+        <f>IF('study sites'!$A192&lt;&gt;"",'study sites'!$A192,"")</f>
         <v/>
       </c>
       <c r="B181" t="str">
-        <f>IF('emission sources'!$A181&lt;&gt;"",'emission sources'!$A181,"")</f>
+        <f>IF('emission sources'!$A173&lt;&gt;"",'emission sources'!$A173,"")</f>
         <v/>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="str">
-        <f>IF('study sites'!$A182&lt;&gt;"",'study sites'!$A182,"")</f>
+        <f>IF('study sites'!$A193&lt;&gt;"",'study sites'!$A193,"")</f>
         <v/>
       </c>
       <c r="B182" t="str">
-        <f>IF('emission sources'!$A182&lt;&gt;"",'emission sources'!$A182,"")</f>
+        <f>IF('emission sources'!$A174&lt;&gt;"",'emission sources'!$A174,"")</f>
         <v/>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="str">
-        <f>IF('study sites'!$A183&lt;&gt;"",'study sites'!$A183,"")</f>
+        <f>IF('study sites'!$A194&lt;&gt;"",'study sites'!$A194,"")</f>
         <v/>
       </c>
       <c r="B183" t="str">
-        <f>IF('emission sources'!$A183&lt;&gt;"",'emission sources'!$A183,"")</f>
+        <f>IF('emission sources'!$A175&lt;&gt;"",'emission sources'!$A175,"")</f>
         <v/>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="str">
-        <f>IF('study sites'!$A184&lt;&gt;"",'study sites'!$A184,"")</f>
+        <f>IF('study sites'!$A195&lt;&gt;"",'study sites'!$A195,"")</f>
         <v/>
       </c>
       <c r="B184" t="str">
-        <f>IF('emission sources'!$A184&lt;&gt;"",'emission sources'!$A184,"")</f>
+        <f>IF('emission sources'!$A176&lt;&gt;"",'emission sources'!$A176,"")</f>
         <v/>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="str">
-        <f>IF('study sites'!$A185&lt;&gt;"",'study sites'!$A185,"")</f>
+        <f>IF('study sites'!$A196&lt;&gt;"",'study sites'!$A196,"")</f>
         <v/>
       </c>
       <c r="B185" t="str">
-        <f>IF('emission sources'!$A185&lt;&gt;"",'emission sources'!$A185,"")</f>
+        <f>IF('emission sources'!$A177&lt;&gt;"",'emission sources'!$A177,"")</f>
         <v/>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="str">
-        <f>IF('study sites'!$A186&lt;&gt;"",'study sites'!$A186,"")</f>
+        <f>IF('study sites'!$A197&lt;&gt;"",'study sites'!$A197,"")</f>
         <v/>
       </c>
       <c r="B186" t="str">
-        <f>IF('emission sources'!$A186&lt;&gt;"",'emission sources'!$A186,"")</f>
+        <f>IF('emission sources'!$A178&lt;&gt;"",'emission sources'!$A178,"")</f>
         <v/>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="str">
-        <f>IF('study sites'!$A187&lt;&gt;"",'study sites'!$A187,"")</f>
+        <f>IF('study sites'!$A198&lt;&gt;"",'study sites'!$A198,"")</f>
         <v/>
       </c>
       <c r="B187" t="str">
-        <f>IF('emission sources'!$A187&lt;&gt;"",'emission sources'!$A187,"")</f>
+        <f>IF('emission sources'!$A179&lt;&gt;"",'emission sources'!$A179,"")</f>
         <v/>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="str">
-        <f>IF('study sites'!$A188&lt;&gt;"",'study sites'!$A188,"")</f>
+        <f>IF('study sites'!$A199&lt;&gt;"",'study sites'!$A199,"")</f>
         <v/>
       </c>
       <c r="B188" t="str">
-        <f>IF('emission sources'!$A188&lt;&gt;"",'emission sources'!$A188,"")</f>
+        <f>IF('emission sources'!$A180&lt;&gt;"",'emission sources'!$A180,"")</f>
         <v/>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="str">
-        <f>IF('study sites'!$A189&lt;&gt;"",'study sites'!$A189,"")</f>
+        <f>IF('study sites'!$A200&lt;&gt;"",'study sites'!$A200,"")</f>
         <v/>
       </c>
       <c r="B189" t="str">
-        <f>IF('emission sources'!$A189&lt;&gt;"",'emission sources'!$A189,"")</f>
+        <f>IF('emission sources'!$A181&lt;&gt;"",'emission sources'!$A181,"")</f>
         <v/>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="str">
-        <f>IF('study sites'!$A190&lt;&gt;"",'study sites'!$A190,"")</f>
+        <f>IF('study sites'!$A201&lt;&gt;"",'study sites'!$A201,"")</f>
         <v/>
       </c>
       <c r="B190" t="str">
-        <f>IF('emission sources'!$A190&lt;&gt;"",'emission sources'!$A190,"")</f>
+        <f>IF('emission sources'!$A182&lt;&gt;"",'emission sources'!$A182,"")</f>
         <v/>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="str">
-        <f>IF('study sites'!$A191&lt;&gt;"",'study sites'!$A191,"")</f>
+        <f>IF('study sites'!$A202&lt;&gt;"",'study sites'!$A202,"")</f>
         <v/>
       </c>
       <c r="B191" t="str">
-        <f>IF('emission sources'!$A191&lt;&gt;"",'emission sources'!$A191,"")</f>
+        <f>IF('emission sources'!$A183&lt;&gt;"",'emission sources'!$A183,"")</f>
         <v/>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="str">
-        <f>IF('study sites'!$A192&lt;&gt;"",'study sites'!$A192,"")</f>
+        <f>IF('study sites'!$A203&lt;&gt;"",'study sites'!$A203,"")</f>
         <v/>
       </c>
       <c r="B192" t="str">
-        <f>IF('emission sources'!$A192&lt;&gt;"",'emission sources'!$A192,"")</f>
+        <f>IF('emission sources'!$A184&lt;&gt;"",'emission sources'!$A184,"")</f>
         <v/>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="str">
-        <f>IF('study sites'!$A193&lt;&gt;"",'study sites'!$A193,"")</f>
+        <f>IF('study sites'!$A204&lt;&gt;"",'study sites'!$A204,"")</f>
         <v/>
       </c>
       <c r="B193" t="str">
-        <f>IF('emission sources'!$A193&lt;&gt;"",'emission sources'!$A193,"")</f>
+        <f>IF('emission sources'!$A185&lt;&gt;"",'emission sources'!$A185,"")</f>
         <v/>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="str">
-        <f>IF('study sites'!$A194&lt;&gt;"",'study sites'!$A194,"")</f>
+        <f>IF('study sites'!$A205&lt;&gt;"",'study sites'!$A205,"")</f>
         <v/>
       </c>
       <c r="B194" t="str">
-        <f>IF('emission sources'!$A194&lt;&gt;"",'emission sources'!$A194,"")</f>
+        <f>IF('emission sources'!$A186&lt;&gt;"",'emission sources'!$A186,"")</f>
         <v/>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="str">
-        <f>IF('study sites'!$A195&lt;&gt;"",'study sites'!$A195,"")</f>
+        <f>IF('study sites'!$A206&lt;&gt;"",'study sites'!$A206,"")</f>
         <v/>
       </c>
       <c r="B195" t="str">
-        <f>IF('emission sources'!$A195&lt;&gt;"",'emission sources'!$A195,"")</f>
+        <f>IF('emission sources'!$A187&lt;&gt;"",'emission sources'!$A187,"")</f>
         <v/>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="str">
-        <f>IF('study sites'!$A196&lt;&gt;"",'study sites'!$A196,"")</f>
+        <f>IF('study sites'!$A207&lt;&gt;"",'study sites'!$A207,"")</f>
         <v/>
       </c>
       <c r="B196" t="str">
-        <f>IF('emission sources'!$A196&lt;&gt;"",'emission sources'!$A196,"")</f>
+        <f>IF('emission sources'!$A188&lt;&gt;"",'emission sources'!$A188,"")</f>
         <v/>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="str">
-        <f>IF('study sites'!$A197&lt;&gt;"",'study sites'!$A197,"")</f>
+        <f>IF('study sites'!$A208&lt;&gt;"",'study sites'!$A208,"")</f>
         <v/>
       </c>
       <c r="B197" t="str">
-        <f>IF('emission sources'!$A197&lt;&gt;"",'emission sources'!$A197,"")</f>
+        <f>IF('emission sources'!$A189&lt;&gt;"",'emission sources'!$A189,"")</f>
         <v/>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="str">
-        <f>IF('study sites'!$A198&lt;&gt;"",'study sites'!$A198,"")</f>
+        <f>IF('study sites'!$A209&lt;&gt;"",'study sites'!$A209,"")</f>
         <v/>
       </c>
       <c r="B198" t="str">
-        <f>IF('emission sources'!$A198&lt;&gt;"",'emission sources'!$A198,"")</f>
+        <f>IF('emission sources'!$A190&lt;&gt;"",'emission sources'!$A190,"")</f>
         <v/>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="str">
-        <f>IF('study sites'!$A199&lt;&gt;"",'study sites'!$A199,"")</f>
+        <f>IF('study sites'!$A210&lt;&gt;"",'study sites'!$A210,"")</f>
         <v/>
       </c>
       <c r="B199" t="str">
-        <f>IF('emission sources'!$A199&lt;&gt;"",'emission sources'!$A199,"")</f>
+        <f>IF('emission sources'!$A191&lt;&gt;"",'emission sources'!$A191,"")</f>
         <v/>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="str">
-        <f>IF('study sites'!$A200&lt;&gt;"",'study sites'!$A200,"")</f>
+        <f>IF('study sites'!$A211&lt;&gt;"",'study sites'!$A211,"")</f>
         <v/>
       </c>
       <c r="B200" t="str">
-        <f>IF('emission sources'!$A200&lt;&gt;"",'emission sources'!$A200,"")</f>
+        <f>IF('emission sources'!$A192&lt;&gt;"",'emission sources'!$A192,"")</f>
         <v/>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="str">
-        <f>IF('study sites'!$A201&lt;&gt;"",'study sites'!$A201,"")</f>
+        <f>IF('study sites'!$A212&lt;&gt;"",'study sites'!$A212,"")</f>
         <v/>
       </c>
       <c r="B201" t="str">
-        <f>IF('emission sources'!$A201&lt;&gt;"",'emission sources'!$A201,"")</f>
+        <f>IF('emission sources'!$A193&lt;&gt;"",'emission sources'!$A193,"")</f>
         <v/>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="str">
-        <f>IF('study sites'!$A202&lt;&gt;"",'study sites'!$A202,"")</f>
+        <f>IF('study sites'!$A213&lt;&gt;"",'study sites'!$A213,"")</f>
         <v/>
       </c>
       <c r="B202" t="str">
-        <f>IF('emission sources'!$A202&lt;&gt;"",'emission sources'!$A202,"")</f>
+        <f>IF('emission sources'!$A194&lt;&gt;"",'emission sources'!$A194,"")</f>
         <v/>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="str">
-        <f>IF('study sites'!$A203&lt;&gt;"",'study sites'!$A203,"")</f>
+        <f>IF('study sites'!$A214&lt;&gt;"",'study sites'!$A214,"")</f>
         <v/>
       </c>
       <c r="B203" t="str">
-        <f>IF('emission sources'!$A203&lt;&gt;"",'emission sources'!$A203,"")</f>
+        <f>IF('emission sources'!$A195&lt;&gt;"",'emission sources'!$A195,"")</f>
         <v/>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="str">
-        <f>IF('study sites'!$A204&lt;&gt;"",'study sites'!$A204,"")</f>
+        <f>IF('study sites'!$A215&lt;&gt;"",'study sites'!$A215,"")</f>
         <v/>
       </c>
       <c r="B204" t="str">
-        <f>IF('emission sources'!$A204&lt;&gt;"",'emission sources'!$A204,"")</f>
+        <f>IF('emission sources'!$A196&lt;&gt;"",'emission sources'!$A196,"")</f>
         <v/>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="str">
-        <f>IF('study sites'!$A205&lt;&gt;"",'study sites'!$A205,"")</f>
+        <f>IF('study sites'!$A216&lt;&gt;"",'study sites'!$A216,"")</f>
         <v/>
       </c>
       <c r="B205" t="str">
-        <f>IF('emission sources'!$A205&lt;&gt;"",'emission sources'!$A205,"")</f>
+        <f>IF('emission sources'!$A197&lt;&gt;"",'emission sources'!$A197,"")</f>
         <v/>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="str">
-        <f>IF('study sites'!$A206&lt;&gt;"",'study sites'!$A206,"")</f>
+        <f>IF('study sites'!$A217&lt;&gt;"",'study sites'!$A217,"")</f>
         <v/>
       </c>
       <c r="B206" t="str">
-        <f>IF('emission sources'!$A206&lt;&gt;"",'emission sources'!$A206,"")</f>
+        <f>IF('emission sources'!$A198&lt;&gt;"",'emission sources'!$A198,"")</f>
         <v/>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="str">
-        <f>IF('study sites'!$A207&lt;&gt;"",'study sites'!$A207,"")</f>
+        <f>IF('study sites'!$A218&lt;&gt;"",'study sites'!$A218,"")</f>
         <v/>
       </c>
       <c r="B207" t="str">
-        <f>IF('emission sources'!$A207&lt;&gt;"",'emission sources'!$A207,"")</f>
+        <f>IF('emission sources'!$A199&lt;&gt;"",'emission sources'!$A199,"")</f>
         <v/>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="str">
-        <f>IF('study sites'!$A208&lt;&gt;"",'study sites'!$A208,"")</f>
+        <f>IF('study sites'!$A219&lt;&gt;"",'study sites'!$A219,"")</f>
         <v/>
       </c>
       <c r="B208" t="str">
-        <f>IF('emission sources'!$A208&lt;&gt;"",'emission sources'!$A208,"")</f>
+        <f>IF('emission sources'!$A200&lt;&gt;"",'emission sources'!$A200,"")</f>
         <v/>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="str">
-        <f>IF('study sites'!$A209&lt;&gt;"",'study sites'!$A209,"")</f>
+        <f>IF('study sites'!$A220&lt;&gt;"",'study sites'!$A220,"")</f>
         <v/>
       </c>
       <c r="B209" t="str">
-        <f>IF('emission sources'!$A209&lt;&gt;"",'emission sources'!$A209,"")</f>
+        <f>IF('emission sources'!$A201&lt;&gt;"",'emission sources'!$A201,"")</f>
         <v/>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="str">
-        <f>IF('study sites'!$A210&lt;&gt;"",'study sites'!$A210,"")</f>
+        <f>IF('study sites'!$A221&lt;&gt;"",'study sites'!$A221,"")</f>
         <v/>
       </c>
       <c r="B210" t="str">
-        <f>IF('emission sources'!$A210&lt;&gt;"",'emission sources'!$A210,"")</f>
+        <f>IF('emission sources'!$A202&lt;&gt;"",'emission sources'!$A202,"")</f>
         <v/>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="str">
-        <f>IF('study sites'!$A211&lt;&gt;"",'study sites'!$A211,"")</f>
+        <f>IF('study sites'!$A222&lt;&gt;"",'study sites'!$A222,"")</f>
         <v/>
       </c>
       <c r="B211" t="str">
-        <f>IF('emission sources'!$A211&lt;&gt;"",'emission sources'!$A211,"")</f>
+        <f>IF('emission sources'!$A203&lt;&gt;"",'emission sources'!$A203,"")</f>
         <v/>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="str">
-        <f>IF('study sites'!$A212&lt;&gt;"",'study sites'!$A212,"")</f>
+        <f>IF('study sites'!$A223&lt;&gt;"",'study sites'!$A223,"")</f>
         <v/>
       </c>
       <c r="B212" t="str">
-        <f>IF('emission sources'!$A212&lt;&gt;"",'emission sources'!$A212,"")</f>
+        <f>IF('emission sources'!$A204&lt;&gt;"",'emission sources'!$A204,"")</f>
         <v/>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="str">
-        <f>IF('study sites'!$A213&lt;&gt;"",'study sites'!$A213,"")</f>
+        <f>IF('study sites'!$A224&lt;&gt;"",'study sites'!$A224,"")</f>
         <v/>
       </c>
       <c r="B213" t="str">
-        <f>IF('emission sources'!$A213&lt;&gt;"",'emission sources'!$A213,"")</f>
+        <f>IF('emission sources'!$A205&lt;&gt;"",'emission sources'!$A205,"")</f>
         <v/>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="str">
-        <f>IF('study sites'!$A214&lt;&gt;"",'study sites'!$A214,"")</f>
+        <f>IF('study sites'!$A225&lt;&gt;"",'study sites'!$A225,"")</f>
         <v/>
       </c>
       <c r="B214" t="str">
-        <f>IF('emission sources'!$A214&lt;&gt;"",'emission sources'!$A214,"")</f>
+        <f>IF('emission sources'!$A206&lt;&gt;"",'emission sources'!$A206,"")</f>
         <v/>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="str">
-        <f>IF('study sites'!$A215&lt;&gt;"",'study sites'!$A215,"")</f>
+        <f>IF('study sites'!$A226&lt;&gt;"",'study sites'!$A226,"")</f>
         <v/>
       </c>
       <c r="B215" t="str">
-        <f>IF('emission sources'!$A215&lt;&gt;"",'emission sources'!$A215,"")</f>
+        <f>IF('emission sources'!$A207&lt;&gt;"",'emission sources'!$A207,"")</f>
         <v/>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="str">
-        <f>IF('study sites'!$A216&lt;&gt;"",'study sites'!$A216,"")</f>
+        <f>IF('study sites'!$A227&lt;&gt;"",'study sites'!$A227,"")</f>
         <v/>
       </c>
       <c r="B216" t="str">
-        <f>IF('emission sources'!$A216&lt;&gt;"",'emission sources'!$A216,"")</f>
+        <f>IF('emission sources'!$A208&lt;&gt;"",'emission sources'!$A208,"")</f>
         <v/>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="str">
-        <f>IF('study sites'!$A217&lt;&gt;"",'study sites'!$A217,"")</f>
+        <f>IF('study sites'!$A228&lt;&gt;"",'study sites'!$A228,"")</f>
         <v/>
       </c>
       <c r="B217" t="str">
-        <f>IF('emission sources'!$A217&lt;&gt;"",'emission sources'!$A217,"")</f>
+        <f>IF('emission sources'!$A209&lt;&gt;"",'emission sources'!$A209,"")</f>
         <v/>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="str">
-        <f>IF('study sites'!$A218&lt;&gt;"",'study sites'!$A218,"")</f>
+        <f>IF('study sites'!$A229&lt;&gt;"",'study sites'!$A229,"")</f>
         <v/>
       </c>
       <c r="B218" t="str">
-        <f>IF('emission sources'!$A218&lt;&gt;"",'emission sources'!$A218,"")</f>
+        <f>IF('emission sources'!$A210&lt;&gt;"",'emission sources'!$A210,"")</f>
         <v/>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="str">
-        <f>IF('study sites'!$A219&lt;&gt;"",'study sites'!$A219,"")</f>
+        <f>IF('study sites'!$A230&lt;&gt;"",'study sites'!$A230,"")</f>
         <v/>
       </c>
       <c r="B219" t="str">
-        <f>IF('emission sources'!$A219&lt;&gt;"",'emission sources'!$A219,"")</f>
+        <f>IF('emission sources'!$A211&lt;&gt;"",'emission sources'!$A211,"")</f>
         <v/>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="str">
-        <f>IF('study sites'!$A220&lt;&gt;"",'study sites'!$A220,"")</f>
+        <f>IF('study sites'!$A231&lt;&gt;"",'study sites'!$A231,"")</f>
         <v/>
       </c>
       <c r="B220" t="str">
-        <f>IF('emission sources'!$A220&lt;&gt;"",'emission sources'!$A220,"")</f>
+        <f>IF('emission sources'!$A212&lt;&gt;"",'emission sources'!$A212,"")</f>
         <v/>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="str">
-        <f>IF('study sites'!$A221&lt;&gt;"",'study sites'!$A221,"")</f>
+        <f>IF('study sites'!$A232&lt;&gt;"",'study sites'!$A232,"")</f>
         <v/>
       </c>
       <c r="B221" t="str">
-        <f>IF('emission sources'!$A221&lt;&gt;"",'emission sources'!$A221,"")</f>
+        <f>IF('emission sources'!$A213&lt;&gt;"",'emission sources'!$A213,"")</f>
         <v/>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="str">
-        <f>IF('study sites'!$A222&lt;&gt;"",'study sites'!$A222,"")</f>
+        <f>IF('study sites'!$A233&lt;&gt;"",'study sites'!$A233,"")</f>
         <v/>
       </c>
       <c r="B222" t="str">
-        <f>IF('emission sources'!$A222&lt;&gt;"",'emission sources'!$A222,"")</f>
+        <f>IF('emission sources'!$A214&lt;&gt;"",'emission sources'!$A214,"")</f>
         <v/>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="str">
-        <f>IF('study sites'!$A223&lt;&gt;"",'study sites'!$A223,"")</f>
+        <f>IF('study sites'!$A234&lt;&gt;"",'study sites'!$A234,"")</f>
         <v/>
       </c>
       <c r="B223" t="str">
-        <f>IF('emission sources'!$A223&lt;&gt;"",'emission sources'!$A223,"")</f>
+        <f>IF('emission sources'!$A215&lt;&gt;"",'emission sources'!$A215,"")</f>
         <v/>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="str">
-        <f>IF('study sites'!$A224&lt;&gt;"",'study sites'!$A224,"")</f>
+        <f>IF('study sites'!$A235&lt;&gt;"",'study sites'!$A235,"")</f>
         <v/>
       </c>
       <c r="B224" t="str">
-        <f>IF('emission sources'!$A224&lt;&gt;"",'emission sources'!$A224,"")</f>
+        <f>IF('emission sources'!$A216&lt;&gt;"",'emission sources'!$A216,"")</f>
         <v/>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="str">
-        <f>IF('study sites'!$A225&lt;&gt;"",'study sites'!$A225,"")</f>
+        <f>IF('study sites'!$A236&lt;&gt;"",'study sites'!$A236,"")</f>
         <v/>
       </c>
       <c r="B225" t="str">
-        <f>IF('emission sources'!$A225&lt;&gt;"",'emission sources'!$A225,"")</f>
+        <f>IF('emission sources'!$A217&lt;&gt;"",'emission sources'!$A217,"")</f>
         <v/>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="str">
-        <f>IF('study sites'!$A226&lt;&gt;"",'study sites'!$A226,"")</f>
+        <f>IF('study sites'!$A237&lt;&gt;"",'study sites'!$A237,"")</f>
         <v/>
       </c>
       <c r="B226" t="str">
-        <f>IF('emission sources'!$A226&lt;&gt;"",'emission sources'!$A226,"")</f>
+        <f>IF('emission sources'!$A218&lt;&gt;"",'emission sources'!$A218,"")</f>
         <v/>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="str">
-        <f>IF('study sites'!$A227&lt;&gt;"",'study sites'!$A227,"")</f>
+        <f>IF('study sites'!$A238&lt;&gt;"",'study sites'!$A238,"")</f>
         <v/>
       </c>
       <c r="B227" t="str">
-        <f>IF('emission sources'!$A227&lt;&gt;"",'emission sources'!$A227,"")</f>
+        <f>IF('emission sources'!$A219&lt;&gt;"",'emission sources'!$A219,"")</f>
         <v/>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="str">
-        <f>IF('study sites'!$A228&lt;&gt;"",'study sites'!$A228,"")</f>
+        <f>IF('study sites'!$A239&lt;&gt;"",'study sites'!$A239,"")</f>
         <v/>
       </c>
       <c r="B228" t="str">
-        <f>IF('emission sources'!$A228&lt;&gt;"",'emission sources'!$A228,"")</f>
+        <f>IF('emission sources'!$A220&lt;&gt;"",'emission sources'!$A220,"")</f>
         <v/>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="str">
-        <f>IF('study sites'!$A229&lt;&gt;"",'study sites'!$A229,"")</f>
+        <f>IF('study sites'!$A240&lt;&gt;"",'study sites'!$A240,"")</f>
         <v/>
       </c>
       <c r="B229" t="str">
-        <f>IF('emission sources'!$A229&lt;&gt;"",'emission sources'!$A229,"")</f>
+        <f>IF('emission sources'!$A221&lt;&gt;"",'emission sources'!$A221,"")</f>
         <v/>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="str">
-        <f>IF('study sites'!$A230&lt;&gt;"",'study sites'!$A230,"")</f>
+        <f>IF('study sites'!$A241&lt;&gt;"",'study sites'!$A241,"")</f>
         <v/>
       </c>
       <c r="B230" t="str">
-        <f>IF('emission sources'!$A230&lt;&gt;"",'emission sources'!$A230,"")</f>
+        <f>IF('emission sources'!$A222&lt;&gt;"",'emission sources'!$A222,"")</f>
         <v/>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="str">
-        <f>IF('study sites'!$A231&lt;&gt;"",'study sites'!$A231,"")</f>
+        <f>IF('study sites'!$A242&lt;&gt;"",'study sites'!$A242,"")</f>
         <v/>
       </c>
       <c r="B231" t="str">
-        <f>IF('emission sources'!$A231&lt;&gt;"",'emission sources'!$A231,"")</f>
+        <f>IF('emission sources'!$A223&lt;&gt;"",'emission sources'!$A223,"")</f>
         <v/>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="str">
-        <f>IF('study sites'!$A232&lt;&gt;"",'study sites'!$A232,"")</f>
+        <f>IF('study sites'!$A243&lt;&gt;"",'study sites'!$A243,"")</f>
         <v/>
       </c>
       <c r="B232" t="str">
-        <f>IF('emission sources'!$A232&lt;&gt;"",'emission sources'!$A232,"")</f>
+        <f>IF('emission sources'!$A224&lt;&gt;"",'emission sources'!$A224,"")</f>
         <v/>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="str">
-        <f>IF('study sites'!$A233&lt;&gt;"",'study sites'!$A233,"")</f>
+        <f>IF('study sites'!$A244&lt;&gt;"",'study sites'!$A244,"")</f>
         <v/>
       </c>
       <c r="B233" t="str">
-        <f>IF('emission sources'!$A233&lt;&gt;"",'emission sources'!$A233,"")</f>
+        <f>IF('emission sources'!$A225&lt;&gt;"",'emission sources'!$A225,"")</f>
         <v/>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="str">
-        <f>IF('study sites'!$A234&lt;&gt;"",'study sites'!$A234,"")</f>
+        <f>IF('study sites'!$A245&lt;&gt;"",'study sites'!$A245,"")</f>
         <v/>
       </c>
       <c r="B234" t="str">
-        <f>IF('emission sources'!$A234&lt;&gt;"",'emission sources'!$A234,"")</f>
+        <f>IF('emission sources'!$A226&lt;&gt;"",'emission sources'!$A226,"")</f>
         <v/>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="str">
-        <f>IF('study sites'!$A235&lt;&gt;"",'study sites'!$A235,"")</f>
+        <f>IF('study sites'!$A246&lt;&gt;"",'study sites'!$A246,"")</f>
         <v/>
       </c>
       <c r="B235" t="str">
-        <f>IF('emission sources'!$A235&lt;&gt;"",'emission sources'!$A235,"")</f>
+        <f>IF('emission sources'!$A227&lt;&gt;"",'emission sources'!$A227,"")</f>
         <v/>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="str">
-        <f>IF('study sites'!$A236&lt;&gt;"",'study sites'!$A236,"")</f>
+        <f>IF('study sites'!$A247&lt;&gt;"",'study sites'!$A247,"")</f>
         <v/>
       </c>
       <c r="B236" t="str">
-        <f>IF('emission sources'!$A236&lt;&gt;"",'emission sources'!$A236,"")</f>
+        <f>IF('emission sources'!$A228&lt;&gt;"",'emission sources'!$A228,"")</f>
         <v/>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="str">
-        <f>IF('study sites'!$A237&lt;&gt;"",'study sites'!$A237,"")</f>
+        <f>IF('study sites'!$A248&lt;&gt;"",'study sites'!$A248,"")</f>
         <v/>
       </c>
       <c r="B237" t="str">
-        <f>IF('emission sources'!$A237&lt;&gt;"",'emission sources'!$A237,"")</f>
+        <f>IF('emission sources'!$A229&lt;&gt;"",'emission sources'!$A229,"")</f>
         <v/>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="str">
-        <f>IF('study sites'!$A238&lt;&gt;"",'study sites'!$A238,"")</f>
+        <f>IF('study sites'!$A249&lt;&gt;"",'study sites'!$A249,"")</f>
         <v/>
       </c>
       <c r="B238" t="str">
-        <f>IF('emission sources'!$A238&lt;&gt;"",'emission sources'!$A238,"")</f>
+        <f>IF('emission sources'!$A230&lt;&gt;"",'emission sources'!$A230,"")</f>
         <v/>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="str">
-        <f>IF('study sites'!$A239&lt;&gt;"",'study sites'!$A239,"")</f>
+        <f>IF('study sites'!$A250&lt;&gt;"",'study sites'!$A250,"")</f>
         <v/>
       </c>
       <c r="B239" t="str">
-        <f>IF('emission sources'!$A239&lt;&gt;"",'emission sources'!$A239,"")</f>
+        <f>IF('emission sources'!$A231&lt;&gt;"",'emission sources'!$A231,"")</f>
         <v/>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="str">
-        <f>IF('study sites'!$A240&lt;&gt;"",'study sites'!$A240,"")</f>
+        <f>IF('study sites'!$A251&lt;&gt;"",'study sites'!$A251,"")</f>
         <v/>
       </c>
       <c r="B240" t="str">
-        <f>IF('emission sources'!$A240&lt;&gt;"",'emission sources'!$A240,"")</f>
+        <f>IF('emission sources'!$A232&lt;&gt;"",'emission sources'!$A232,"")</f>
         <v/>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="str">
-        <f>IF('study sites'!$A241&lt;&gt;"",'study sites'!$A241,"")</f>
+        <f>IF('study sites'!$A252&lt;&gt;"",'study sites'!$A252,"")</f>
         <v/>
       </c>
       <c r="B241" t="str">
-        <f>IF('emission sources'!$A241&lt;&gt;"",'emission sources'!$A241,"")</f>
+        <f>IF('emission sources'!$A233&lt;&gt;"",'emission sources'!$A233,"")</f>
         <v/>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="str">
-        <f>IF('study sites'!$A242&lt;&gt;"",'study sites'!$A242,"")</f>
+        <f>IF('study sites'!$A253&lt;&gt;"",'study sites'!$A253,"")</f>
         <v/>
       </c>
       <c r="B242" t="str">
-        <f>IF('emission sources'!$A242&lt;&gt;"",'emission sources'!$A242,"")</f>
+        <f>IF('emission sources'!$A234&lt;&gt;"",'emission sources'!$A234,"")</f>
         <v/>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="str">
-        <f>IF('study sites'!$A243&lt;&gt;"",'study sites'!$A243,"")</f>
+        <f>IF('study sites'!$A254&lt;&gt;"",'study sites'!$A254,"")</f>
         <v/>
       </c>
       <c r="B243" t="str">
-        <f>IF('emission sources'!$A243&lt;&gt;"",'emission sources'!$A243,"")</f>
+        <f>IF('emission sources'!$A235&lt;&gt;"",'emission sources'!$A235,"")</f>
         <v/>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="str">
-        <f>IF('study sites'!$A244&lt;&gt;"",'study sites'!$A244,"")</f>
+        <f>IF('study sites'!$A255&lt;&gt;"",'study sites'!$A255,"")</f>
         <v/>
       </c>
       <c r="B244" t="str">
-        <f>IF('emission sources'!$A244&lt;&gt;"",'emission sources'!$A244,"")</f>
+        <f>IF('emission sources'!$A236&lt;&gt;"",'emission sources'!$A236,"")</f>
         <v/>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="str">
-        <f>IF('study sites'!$A245&lt;&gt;"",'study sites'!$A245,"")</f>
+        <f>IF('study sites'!$A256&lt;&gt;"",'study sites'!$A256,"")</f>
         <v/>
       </c>
       <c r="B245" t="str">
-        <f>IF('emission sources'!$A245&lt;&gt;"",'emission sources'!$A245,"")</f>
+        <f>IF('emission sources'!$A237&lt;&gt;"",'emission sources'!$A237,"")</f>
         <v/>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="str">
-        <f>IF('study sites'!$A246&lt;&gt;"",'study sites'!$A246,"")</f>
+        <f>IF('study sites'!$A257&lt;&gt;"",'study sites'!$A257,"")</f>
         <v/>
       </c>
       <c r="B246" t="str">
-        <f>IF('emission sources'!$A246&lt;&gt;"",'emission sources'!$A246,"")</f>
+        <f>IF('emission sources'!$A238&lt;&gt;"",'emission sources'!$A238,"")</f>
         <v/>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="str">
-        <f>IF('study sites'!$A247&lt;&gt;"",'study sites'!$A247,"")</f>
+        <f>IF('study sites'!$A258&lt;&gt;"",'study sites'!$A258,"")</f>
         <v/>
       </c>
       <c r="B247" t="str">
-        <f>IF('emission sources'!$A247&lt;&gt;"",'emission sources'!$A247,"")</f>
+        <f>IF('emission sources'!$A239&lt;&gt;"",'emission sources'!$A239,"")</f>
         <v/>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="str">
-        <f>IF('study sites'!$A248&lt;&gt;"",'study sites'!$A248,"")</f>
+        <f>IF('study sites'!$A259&lt;&gt;"",'study sites'!$A259,"")</f>
         <v/>
       </c>
       <c r="B248" t="str">
-        <f>IF('emission sources'!$A248&lt;&gt;"",'emission sources'!$A248,"")</f>
+        <f>IF('emission sources'!$A240&lt;&gt;"",'emission sources'!$A240,"")</f>
         <v/>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="str">
-        <f>IF('study sites'!$A249&lt;&gt;"",'study sites'!$A249,"")</f>
+        <f>IF('study sites'!$A260&lt;&gt;"",'study sites'!$A260,"")</f>
         <v/>
       </c>
       <c r="B249" t="str">
-        <f>IF('emission sources'!$A249&lt;&gt;"",'emission sources'!$A249,"")</f>
+        <f>IF('emission sources'!$A241&lt;&gt;"",'emission sources'!$A241,"")</f>
         <v/>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="str">
-        <f>IF('study sites'!$A250&lt;&gt;"",'study sites'!$A250,"")</f>
+        <f>IF('study sites'!$A261&lt;&gt;"",'study sites'!$A261,"")</f>
         <v/>
       </c>
       <c r="B250" t="str">
-        <f>IF('emission sources'!$A250&lt;&gt;"",'emission sources'!$A250,"")</f>
+        <f>IF('emission sources'!$A242&lt;&gt;"",'emission sources'!$A242,"")</f>
         <v/>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="str">
-        <f>IF('study sites'!$A251&lt;&gt;"",'study sites'!$A251,"")</f>
+        <f>IF('study sites'!$A262&lt;&gt;"",'study sites'!$A262,"")</f>
         <v/>
       </c>
       <c r="B251" t="str">
-        <f>IF('emission sources'!$A251&lt;&gt;"",'emission sources'!$A251,"")</f>
+        <f>IF('emission sources'!$A243&lt;&gt;"",'emission sources'!$A243,"")</f>
         <v/>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="str">
-        <f>IF('study sites'!$A252&lt;&gt;"",'study sites'!$A252,"")</f>
+        <f>IF('study sites'!$A263&lt;&gt;"",'study sites'!$A263,"")</f>
         <v/>
       </c>
       <c r="B252" t="str">
-        <f>IF('emission sources'!$A252&lt;&gt;"",'emission sources'!$A252,"")</f>
+        <f>IF('emission sources'!$A244&lt;&gt;"",'emission sources'!$A244,"")</f>
         <v/>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="str">
-        <f>IF('study sites'!$A253&lt;&gt;"",'study sites'!$A253,"")</f>
+        <f>IF('study sites'!$A264&lt;&gt;"",'study sites'!$A264,"")</f>
         <v/>
       </c>
       <c r="B253" t="str">
-        <f>IF('emission sources'!$A253&lt;&gt;"",'emission sources'!$A253,"")</f>
+        <f>IF('emission sources'!$A245&lt;&gt;"",'emission sources'!$A245,"")</f>
         <v/>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="str">
-        <f>IF('study sites'!$A254&lt;&gt;"",'study sites'!$A254,"")</f>
+        <f>IF('study sites'!$A265&lt;&gt;"",'study sites'!$A265,"")</f>
         <v/>
       </c>
       <c r="B254" t="str">
-        <f>IF('emission sources'!$A254&lt;&gt;"",'emission sources'!$A254,"")</f>
+        <f>IF('emission sources'!$A246&lt;&gt;"",'emission sources'!$A246,"")</f>
         <v/>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="str">
-        <f>IF('study sites'!$A255&lt;&gt;"",'study sites'!$A255,"")</f>
+        <f>IF('study sites'!$A266&lt;&gt;"",'study sites'!$A266,"")</f>
         <v/>
       </c>
       <c r="B255" t="str">
-        <f>IF('emission sources'!$A255&lt;&gt;"",'emission sources'!$A255,"")</f>
+        <f>IF('emission sources'!$A247&lt;&gt;"",'emission sources'!$A247,"")</f>
         <v/>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="str">
-        <f>IF('study sites'!$A256&lt;&gt;"",'study sites'!$A256,"")</f>
+        <f>IF('study sites'!$A267&lt;&gt;"",'study sites'!$A267,"")</f>
         <v/>
       </c>
       <c r="B256" t="str">
-        <f>IF('emission sources'!$A256&lt;&gt;"",'emission sources'!$A256,"")</f>
+        <f>IF('emission sources'!$A248&lt;&gt;"",'emission sources'!$A248,"")</f>
         <v/>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="str">
-        <f>IF('study sites'!$A257&lt;&gt;"",'study sites'!$A257,"")</f>
+        <f>IF('study sites'!$A268&lt;&gt;"",'study sites'!$A268,"")</f>
         <v/>
       </c>
       <c r="B257" t="str">
-        <f>IF('emission sources'!$A257&lt;&gt;"",'emission sources'!$A257,"")</f>
+        <f>IF('emission sources'!$A249&lt;&gt;"",'emission sources'!$A249,"")</f>
         <v/>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="str">
-        <f>IF('study sites'!$A258&lt;&gt;"",'study sites'!$A258,"")</f>
+        <f>IF('study sites'!$A269&lt;&gt;"",'study sites'!$A269,"")</f>
         <v/>
       </c>
       <c r="B258" t="str">
-        <f>IF('emission sources'!$A258&lt;&gt;"",'emission sources'!$A258,"")</f>
+        <f>IF('emission sources'!$A250&lt;&gt;"",'emission sources'!$A250,"")</f>
         <v/>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="str">
-        <f>IF('study sites'!$A259&lt;&gt;"",'study sites'!$A259,"")</f>
+        <f>IF('study sites'!$A270&lt;&gt;"",'study sites'!$A270,"")</f>
         <v/>
       </c>
       <c r="B259" t="str">
-        <f>IF('emission sources'!$A259&lt;&gt;"",'emission sources'!$A259,"")</f>
+        <f>IF('emission sources'!$A251&lt;&gt;"",'emission sources'!$A251,"")</f>
         <v/>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="str">
-        <f>IF('study sites'!$A260&lt;&gt;"",'study sites'!$A260,"")</f>
+        <f>IF('study sites'!$A271&lt;&gt;"",'study sites'!$A271,"")</f>
         <v/>
       </c>
       <c r="B260" t="str">
-        <f>IF('emission sources'!$A260&lt;&gt;"",'emission sources'!$A260,"")</f>
+        <f>IF('emission sources'!$A252&lt;&gt;"",'emission sources'!$A252,"")</f>
         <v/>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="str">
-        <f>IF('study sites'!$A261&lt;&gt;"",'study sites'!$A261,"")</f>
+        <f>IF('study sites'!$A272&lt;&gt;"",'study sites'!$A272,"")</f>
         <v/>
       </c>
       <c r="B261" t="str">
-        <f>IF('emission sources'!$A261&lt;&gt;"",'emission sources'!$A261,"")</f>
+        <f>IF('emission sources'!$A253&lt;&gt;"",'emission sources'!$A253,"")</f>
         <v/>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="str">
-        <f>IF('study sites'!$A262&lt;&gt;"",'study sites'!$A262,"")</f>
+        <f>IF('study sites'!$A273&lt;&gt;"",'study sites'!$A273,"")</f>
         <v/>
       </c>
       <c r="B262" t="str">
-        <f>IF('emission sources'!$A262&lt;&gt;"",'emission sources'!$A262,"")</f>
+        <f>IF('emission sources'!$A254&lt;&gt;"",'emission sources'!$A254,"")</f>
         <v/>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="str">
-        <f>IF('study sites'!$A263&lt;&gt;"",'study sites'!$A263,"")</f>
+        <f>IF('study sites'!$A274&lt;&gt;"",'study sites'!$A274,"")</f>
         <v/>
       </c>
       <c r="B263" t="str">
-        <f>IF('emission sources'!$A263&lt;&gt;"",'emission sources'!$A263,"")</f>
+        <f>IF('emission sources'!$A255&lt;&gt;"",'emission sources'!$A255,"")</f>
         <v/>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="str">
-        <f>IF('study sites'!$A264&lt;&gt;"",'study sites'!$A264,"")</f>
+        <f>IF('study sites'!$A275&lt;&gt;"",'study sites'!$A275,"")</f>
         <v/>
       </c>
       <c r="B264" t="str">
-        <f>IF('emission sources'!$A264&lt;&gt;"",'emission sources'!$A264,"")</f>
+        <f>IF('emission sources'!$A256&lt;&gt;"",'emission sources'!$A256,"")</f>
         <v/>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="str">
-        <f>IF('study sites'!$A265&lt;&gt;"",'study sites'!$A265,"")</f>
+        <f>IF('study sites'!$A276&lt;&gt;"",'study sites'!$A276,"")</f>
         <v/>
       </c>
       <c r="B265" t="str">
-        <f>IF('emission sources'!$A265&lt;&gt;"",'emission sources'!$A265,"")</f>
+        <f>IF('emission sources'!$A257&lt;&gt;"",'emission sources'!$A257,"")</f>
         <v/>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="str">
-        <f>IF('study sites'!$A266&lt;&gt;"",'study sites'!$A266,"")</f>
+        <f>IF('study sites'!$A277&lt;&gt;"",'study sites'!$A277,"")</f>
         <v/>
       </c>
       <c r="B266" t="str">
-        <f>IF('emission sources'!$A266&lt;&gt;"",'emission sources'!$A266,"")</f>
+        <f>IF('emission sources'!$A258&lt;&gt;"",'emission sources'!$A258,"")</f>
         <v/>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="str">
-        <f>IF('study sites'!$A267&lt;&gt;"",'study sites'!$A267,"")</f>
+        <f>IF('study sites'!$A278&lt;&gt;"",'study sites'!$A278,"")</f>
         <v/>
       </c>
       <c r="B267" t="str">
-        <f>IF('emission sources'!$A267&lt;&gt;"",'emission sources'!$A267,"")</f>
+        <f>IF('emission sources'!$A259&lt;&gt;"",'emission sources'!$A259,"")</f>
         <v/>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="str">
-        <f>IF('study sites'!$A268&lt;&gt;"",'study sites'!$A268,"")</f>
+        <f>IF('study sites'!$A279&lt;&gt;"",'study sites'!$A279,"")</f>
         <v/>
       </c>
       <c r="B268" t="str">
-        <f>IF('emission sources'!$A268&lt;&gt;"",'emission sources'!$A268,"")</f>
+        <f>IF('emission sources'!$A260&lt;&gt;"",'emission sources'!$A260,"")</f>
         <v/>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="str">
-        <f>IF('study sites'!$A269&lt;&gt;"",'study sites'!$A269,"")</f>
+        <f>IF('study sites'!$A280&lt;&gt;"",'study sites'!$A280,"")</f>
         <v/>
       </c>
       <c r="B269" t="str">
-        <f>IF('emission sources'!$A269&lt;&gt;"",'emission sources'!$A269,"")</f>
+        <f>IF('emission sources'!$A261&lt;&gt;"",'emission sources'!$A261,"")</f>
         <v/>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="str">
-        <f>IF('study sites'!$A270&lt;&gt;"",'study sites'!$A270,"")</f>
+        <f>IF('study sites'!$A281&lt;&gt;"",'study sites'!$A281,"")</f>
         <v/>
       </c>
       <c r="B270" t="str">
-        <f>IF('emission sources'!$A270&lt;&gt;"",'emission sources'!$A270,"")</f>
+        <f>IF('emission sources'!$A262&lt;&gt;"",'emission sources'!$A262,"")</f>
         <v/>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="str">
-        <f>IF('study sites'!$A271&lt;&gt;"",'study sites'!$A271,"")</f>
+        <f>IF('study sites'!$A282&lt;&gt;"",'study sites'!$A282,"")</f>
         <v/>
       </c>
       <c r="B271" t="str">
-        <f>IF('emission sources'!$A271&lt;&gt;"",'emission sources'!$A271,"")</f>
+        <f>IF('emission sources'!$A263&lt;&gt;"",'emission sources'!$A263,"")</f>
         <v/>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="str">
-        <f>IF('study sites'!$A272&lt;&gt;"",'study sites'!$A272,"")</f>
+        <f>IF('study sites'!$A283&lt;&gt;"",'study sites'!$A283,"")</f>
         <v/>
       </c>
       <c r="B272" t="str">
-        <f>IF('emission sources'!$A272&lt;&gt;"",'emission sources'!$A272,"")</f>
+        <f>IF('emission sources'!$A264&lt;&gt;"",'emission sources'!$A264,"")</f>
         <v/>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="str">
-        <f>IF('study sites'!$A273&lt;&gt;"",'study sites'!$A273,"")</f>
+        <f>IF('study sites'!$A284&lt;&gt;"",'study sites'!$A284,"")</f>
         <v/>
       </c>
       <c r="B273" t="str">
-        <f>IF('emission sources'!$A273&lt;&gt;"",'emission sources'!$A273,"")</f>
+        <f>IF('emission sources'!$A265&lt;&gt;"",'emission sources'!$A265,"")</f>
         <v/>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="str">
-        <f>IF('study sites'!$A274&lt;&gt;"",'study sites'!$A274,"")</f>
+        <f>IF('study sites'!$A285&lt;&gt;"",'study sites'!$A285,"")</f>
         <v/>
       </c>
       <c r="B274" t="str">
-        <f>IF('emission sources'!$A274&lt;&gt;"",'emission sources'!$A274,"")</f>
+        <f>IF('emission sources'!$A266&lt;&gt;"",'emission sources'!$A266,"")</f>
         <v/>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="str">
-        <f>IF('study sites'!$A275&lt;&gt;"",'study sites'!$A275,"")</f>
+        <f>IF('study sites'!$A286&lt;&gt;"",'study sites'!$A286,"")</f>
         <v/>
       </c>
       <c r="B275" t="str">
-        <f>IF('emission sources'!$A275&lt;&gt;"",'emission sources'!$A275,"")</f>
+        <f>IF('emission sources'!$A267&lt;&gt;"",'emission sources'!$A267,"")</f>
         <v/>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="str">
-        <f>IF('study sites'!$A276&lt;&gt;"",'study sites'!$A276,"")</f>
+        <f>IF('study sites'!$A287&lt;&gt;"",'study sites'!$A287,"")</f>
         <v/>
       </c>
       <c r="B276" t="str">
-        <f>IF('emission sources'!$A276&lt;&gt;"",'emission sources'!$A276,"")</f>
+        <f>IF('emission sources'!$A268&lt;&gt;"",'emission sources'!$A268,"")</f>
         <v/>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="str">
-        <f>IF('study sites'!$A277&lt;&gt;"",'study sites'!$A277,"")</f>
+        <f>IF('study sites'!$A288&lt;&gt;"",'study sites'!$A288,"")</f>
         <v/>
       </c>
       <c r="B277" t="str">
-        <f>IF('emission sources'!$A277&lt;&gt;"",'emission sources'!$A277,"")</f>
+        <f>IF('emission sources'!$A269&lt;&gt;"",'emission sources'!$A269,"")</f>
         <v/>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="str">
-        <f>IF('study sites'!$A278&lt;&gt;"",'study sites'!$A278,"")</f>
+        <f>IF('study sites'!$A289&lt;&gt;"",'study sites'!$A289,"")</f>
         <v/>
       </c>
       <c r="B278" t="str">
-        <f>IF('emission sources'!$A278&lt;&gt;"",'emission sources'!$A278,"")</f>
+        <f>IF('emission sources'!$A270&lt;&gt;"",'emission sources'!$A270,"")</f>
         <v/>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="str">
-        <f>IF('study sites'!$A279&lt;&gt;"",'study sites'!$A279,"")</f>
+        <f>IF('study sites'!$A290&lt;&gt;"",'study sites'!$A290,"")</f>
         <v/>
       </c>
       <c r="B279" t="str">
-        <f>IF('emission sources'!$A279&lt;&gt;"",'emission sources'!$A279,"")</f>
+        <f>IF('emission sources'!$A271&lt;&gt;"",'emission sources'!$A271,"")</f>
         <v/>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="str">
-        <f>IF('study sites'!$A280&lt;&gt;"",'study sites'!$A280,"")</f>
+        <f>IF('study sites'!$A291&lt;&gt;"",'study sites'!$A291,"")</f>
         <v/>
       </c>
       <c r="B280" t="str">
-        <f>IF('emission sources'!$A280&lt;&gt;"",'emission sources'!$A280,"")</f>
+        <f>IF('emission sources'!$A272&lt;&gt;"",'emission sources'!$A272,"")</f>
         <v/>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="str">
-        <f>IF('study sites'!$A281&lt;&gt;"",'study sites'!$A281,"")</f>
+        <f>IF('study sites'!$A292&lt;&gt;"",'study sites'!$A292,"")</f>
         <v/>
       </c>
       <c r="B281" t="str">
-        <f>IF('emission sources'!$A281&lt;&gt;"",'emission sources'!$A281,"")</f>
+        <f>IF('emission sources'!$A273&lt;&gt;"",'emission sources'!$A273,"")</f>
         <v/>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="str">
-        <f>IF('study sites'!$A282&lt;&gt;"",'study sites'!$A282,"")</f>
+        <f>IF('study sites'!$A293&lt;&gt;"",'study sites'!$A293,"")</f>
         <v/>
       </c>
       <c r="B282" t="str">
-        <f>IF('emission sources'!$A282&lt;&gt;"",'emission sources'!$A282,"")</f>
+        <f>IF('emission sources'!$A274&lt;&gt;"",'emission sources'!$A274,"")</f>
         <v/>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="str">
-        <f>IF('study sites'!$A283&lt;&gt;"",'study sites'!$A283,"")</f>
+        <f>IF('study sites'!$A294&lt;&gt;"",'study sites'!$A294,"")</f>
         <v/>
       </c>
       <c r="B283" t="str">
-        <f>IF('emission sources'!$A283&lt;&gt;"",'emission sources'!$A283,"")</f>
+        <f>IF('emission sources'!$A275&lt;&gt;"",'emission sources'!$A275,"")</f>
         <v/>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="str">
-        <f>IF('study sites'!$A284&lt;&gt;"",'study sites'!$A284,"")</f>
+        <f>IF('study sites'!$A295&lt;&gt;"",'study sites'!$A295,"")</f>
         <v/>
       </c>
       <c r="B284" t="str">
-        <f>IF('emission sources'!$A284&lt;&gt;"",'emission sources'!$A284,"")</f>
+        <f>IF('emission sources'!$A276&lt;&gt;"",'emission sources'!$A276,"")</f>
         <v/>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="str">
-        <f>IF('study sites'!$A285&lt;&gt;"",'study sites'!$A285,"")</f>
+        <f>IF('study sites'!$A296&lt;&gt;"",'study sites'!$A296,"")</f>
         <v/>
       </c>
       <c r="B285" t="str">
-        <f>IF('emission sources'!$A285&lt;&gt;"",'emission sources'!$A285,"")</f>
+        <f>IF('emission sources'!$A277&lt;&gt;"",'emission sources'!$A277,"")</f>
         <v/>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="str">
-        <f>IF('study sites'!$A286&lt;&gt;"",'study sites'!$A286,"")</f>
+        <f>IF('study sites'!$A297&lt;&gt;"",'study sites'!$A297,"")</f>
         <v/>
       </c>
       <c r="B286" t="str">
-        <f>IF('emission sources'!$A286&lt;&gt;"",'emission sources'!$A286,"")</f>
+        <f>IF('emission sources'!$A278&lt;&gt;"",'emission sources'!$A278,"")</f>
         <v/>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="str">
-        <f>IF('study sites'!$A287&lt;&gt;"",'study sites'!$A287,"")</f>
+        <f>IF('study sites'!$A298&lt;&gt;"",'study sites'!$A298,"")</f>
         <v/>
       </c>
       <c r="B287" t="str">
-        <f>IF('emission sources'!$A287&lt;&gt;"",'emission sources'!$A287,"")</f>
+        <f>IF('emission sources'!$A279&lt;&gt;"",'emission sources'!$A279,"")</f>
         <v/>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="str">
-        <f>IF('study sites'!$A288&lt;&gt;"",'study sites'!$A288,"")</f>
+        <f>IF('study sites'!$A299&lt;&gt;"",'study sites'!$A299,"")</f>
         <v/>
       </c>
       <c r="B288" t="str">
-        <f>IF('emission sources'!$A288&lt;&gt;"",'emission sources'!$A288,"")</f>
+        <f>IF('emission sources'!$A280&lt;&gt;"",'emission sources'!$A280,"")</f>
         <v/>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="str">
-        <f>IF('study sites'!$A289&lt;&gt;"",'study sites'!$A289,"")</f>
+        <f>IF('study sites'!$A300&lt;&gt;"",'study sites'!$A300,"")</f>
         <v/>
       </c>
       <c r="B289" t="str">
-        <f>IF('emission sources'!$A289&lt;&gt;"",'emission sources'!$A289,"")</f>
+        <f>IF('emission sources'!$A281&lt;&gt;"",'emission sources'!$A281,"")</f>
         <v/>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="str">
-        <f>IF('study sites'!$A290&lt;&gt;"",'study sites'!$A290,"")</f>
+        <f>IF('study sites'!$A301&lt;&gt;"",'study sites'!$A301,"")</f>
         <v/>
       </c>
       <c r="B290" t="str">
-        <f>IF('emission sources'!$A290&lt;&gt;"",'emission sources'!$A290,"")</f>
+        <f>IF('emission sources'!$A282&lt;&gt;"",'emission sources'!$A282,"")</f>
         <v/>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="str">
-        <f>IF('study sites'!$A291&lt;&gt;"",'study sites'!$A291,"")</f>
+        <f>IF('study sites'!$A302&lt;&gt;"",'study sites'!$A302,"")</f>
         <v/>
       </c>
       <c r="B291" t="str">
-        <f>IF('emission sources'!$A291&lt;&gt;"",'emission sources'!$A291,"")</f>
+        <f>IF('emission sources'!$A283&lt;&gt;"",'emission sources'!$A283,"")</f>
         <v/>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="str">
-        <f>IF('study sites'!$A292&lt;&gt;"",'study sites'!$A292,"")</f>
+        <f>IF('study sites'!$A303&lt;&gt;"",'study sites'!$A303,"")</f>
         <v/>
       </c>
       <c r="B292" t="str">
-        <f>IF('emission sources'!$A292&lt;&gt;"",'emission sources'!$A292,"")</f>
+        <f>IF('emission sources'!$A284&lt;&gt;"",'emission sources'!$A284,"")</f>
         <v/>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="str">
-        <f>IF('study sites'!$A293&lt;&gt;"",'study sites'!$A293,"")</f>
+        <f>IF('study sites'!$A304&lt;&gt;"",'study sites'!$A304,"")</f>
         <v/>
       </c>
       <c r="B293" t="str">
-        <f>IF('emission sources'!$A293&lt;&gt;"",'emission sources'!$A293,"")</f>
+        <f>IF('emission sources'!$A285&lt;&gt;"",'emission sources'!$A285,"")</f>
         <v/>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="str">
-        <f>IF('study sites'!$A294&lt;&gt;"",'study sites'!$A294,"")</f>
+        <f>IF('study sites'!$A305&lt;&gt;"",'study sites'!$A305,"")</f>
         <v/>
       </c>
       <c r="B294" t="str">
-        <f>IF('emission sources'!$A294&lt;&gt;"",'emission sources'!$A294,"")</f>
+        <f>IF('emission sources'!$A286&lt;&gt;"",'emission sources'!$A286,"")</f>
         <v/>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="str">
-        <f>IF('study sites'!$A295&lt;&gt;"",'study sites'!$A295,"")</f>
+        <f>IF('study sites'!$A306&lt;&gt;"",'study sites'!$A306,"")</f>
         <v/>
       </c>
       <c r="B295" t="str">
-        <f>IF('emission sources'!$A295&lt;&gt;"",'emission sources'!$A295,"")</f>
+        <f>IF('emission sources'!$A287&lt;&gt;"",'emission sources'!$A287,"")</f>
         <v/>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="str">
-        <f>IF('study sites'!$A296&lt;&gt;"",'study sites'!$A296,"")</f>
+        <f>IF('study sites'!$A307&lt;&gt;"",'study sites'!$A307,"")</f>
         <v/>
       </c>
       <c r="B296" t="str">
-        <f>IF('emission sources'!$A296&lt;&gt;"",'emission sources'!$A296,"")</f>
+        <f>IF('emission sources'!$A288&lt;&gt;"",'emission sources'!$A288,"")</f>
         <v/>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="str">
-        <f>IF('study sites'!$A297&lt;&gt;"",'study sites'!$A297,"")</f>
+        <f>IF('study sites'!$A308&lt;&gt;"",'study sites'!$A308,"")</f>
         <v/>
       </c>
       <c r="B297" t="str">
-        <f>IF('emission sources'!$A297&lt;&gt;"",'emission sources'!$A297,"")</f>
+        <f>IF('emission sources'!$A289&lt;&gt;"",'emission sources'!$A289,"")</f>
         <v/>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="str">
-        <f>IF('study sites'!$A298&lt;&gt;"",'study sites'!$A298,"")</f>
-        <v/>
-      </c>
-      <c r="B298" t="str">
-        <f>IF('emission sources'!$A298&lt;&gt;"",'emission sources'!$A298,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="2" t="str">
-        <f>IF('study sites'!$A299&lt;&gt;"",'study sites'!$A299,"")</f>
-        <v/>
-      </c>
-      <c r="B299" t="str">
-        <f>IF('emission sources'!$A299&lt;&gt;"",'emission sources'!$A299,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="2" t="str">
-        <f>IF('study sites'!$A300&lt;&gt;"",'study sites'!$A300,"")</f>
-        <v/>
-      </c>
-      <c r="B300" t="str">
-        <f>IF('emission sources'!$A300&lt;&gt;"",'emission sources'!$A300,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="2" t="str">
-        <f>IF('study sites'!$A301&lt;&gt;"",'study sites'!$A301,"")</f>
-        <v/>
-      </c>
-      <c r="B301" t="str">
-        <f>IF('emission sources'!$A301&lt;&gt;"",'emission sources'!$A301,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="2" t="str">
-        <f>IF('study sites'!$A302&lt;&gt;"",'study sites'!$A302,"")</f>
-        <v/>
-      </c>
-      <c r="B302" t="str">
-        <f>IF('emission sources'!$A302&lt;&gt;"",'emission sources'!$A302,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="2" t="str">
-        <f>IF('study sites'!$A303&lt;&gt;"",'study sites'!$A303,"")</f>
-        <v/>
-      </c>
-      <c r="B303" t="str">
-        <f>IF('emission sources'!$A303&lt;&gt;"",'emission sources'!$A303,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="2" t="str">
-        <f>IF('study sites'!$A304&lt;&gt;"",'study sites'!$A304,"")</f>
-        <v/>
-      </c>
-      <c r="B304" t="str">
-        <f>IF('emission sources'!$A304&lt;&gt;"",'emission sources'!$A304,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="2" t="str">
-        <f>IF('study sites'!$A305&lt;&gt;"",'study sites'!$A305,"")</f>
-        <v/>
-      </c>
-      <c r="B305" t="str">
-        <f>IF('emission sources'!$A305&lt;&gt;"",'emission sources'!$A305,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="2" t="str">
-        <f>IF('study sites'!$A306&lt;&gt;"",'study sites'!$A306,"")</f>
-        <v/>
-      </c>
-      <c r="B306" t="str">
-        <f>IF('emission sources'!$A306&lt;&gt;"",'emission sources'!$A306,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="2" t="str">
-        <f>IF('study sites'!$A307&lt;&gt;"",'study sites'!$A307,"")</f>
-        <v/>
-      </c>
-      <c r="B307" t="str">
-        <f>IF('emission sources'!$A307&lt;&gt;"",'emission sources'!$A307,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="2" t="str">
-        <f>IF('study sites'!$A308&lt;&gt;"",'study sites'!$A308,"")</f>
-        <v/>
-      </c>
-      <c r="B308" t="str">
-        <f>IF('emission sources'!$A308&lt;&gt;"",'emission sources'!$A308,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="2" t="str">
         <f>IF('study sites'!$A309&lt;&gt;"",'study sites'!$A309,"")</f>
-        <v/>
-      </c>
-      <c r="B309" t="str">
-        <f>IF('emission sources'!$A309&lt;&gt;"",'emission sources'!$A309,"")</f>
         <v/>
       </c>
     </row>
@@ -5920,10 +5858,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5943,50 +5881,106 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5999,66 +5993,61 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:KW309"/>
+  <dimension ref="A1:KC304"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:309" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:289" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="str">
         <f>IF('emission sources'!$A2&lt;&gt;"",'emission sources'!$A2,"")</f>
-        <v>energy</v>
+        <v>grid_electricity</v>
       </c>
       <c r="C1" s="2" t="str">
         <f>IF('emission sources'!$A3&lt;&gt;"",'emission sources'!$A3,"")</f>
-        <v>vehicle_fuel</v>
+        <v>bottled_gas</v>
       </c>
       <c r="D1" s="2" t="str">
         <f>IF('emission sources'!$A4&lt;&gt;"",'emission sources'!$A4,"")</f>
-        <v>travel</v>
+        <v>vehicle_fuel</v>
       </c>
       <c r="E1" s="2" t="str">
         <f>IF('emission sources'!$A5&lt;&gt;"",'emission sources'!$A5,"")</f>
-        <v>anaesthetic_gases</v>
+        <v>travel</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>IF('emission sources'!$A6&lt;&gt;"",'emission sources'!$A6,"")</f>
-        <v>refridgerant</v>
+        <v>anaesthetic_gases</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>IF('emission sources'!$A7&lt;&gt;"",'emission sources'!$A7,"")</f>
-        <v>waste</v>
+        <v>refrigerant</v>
       </c>
       <c r="H1" s="2" t="str">
         <f>IF('emission sources'!$A8&lt;&gt;"",'emission sources'!$A8,"")</f>
-        <v>inhalers</v>
+        <v>waste</v>
       </c>
       <c r="I1" s="2" t="str">
         <f>IF('emission sources'!$A9&lt;&gt;"",'emission sources'!$A9,"")</f>
-        <v/>
+        <v>inhalers</v>
       </c>
       <c r="J1" s="2" t="str">
         <f>IF('emission sources'!$A10&lt;&gt;"",'emission sources'!$A10,"")</f>
@@ -7180,88 +7169,8 @@
         <f>IF('emission sources'!$A289&lt;&gt;"",'emission sources'!$A289,"")</f>
         <v/>
       </c>
-      <c r="KD1" s="2" t="str">
-        <f>IF('emission sources'!$A290&lt;&gt;"",'emission sources'!$A290,"")</f>
-        <v/>
-      </c>
-      <c r="KE1" s="2" t="str">
-        <f>IF('emission sources'!$A291&lt;&gt;"",'emission sources'!$A291,"")</f>
-        <v/>
-      </c>
-      <c r="KF1" s="2" t="str">
-        <f>IF('emission sources'!$A292&lt;&gt;"",'emission sources'!$A292,"")</f>
-        <v/>
-      </c>
-      <c r="KG1" s="2" t="str">
-        <f>IF('emission sources'!$A293&lt;&gt;"",'emission sources'!$A293,"")</f>
-        <v/>
-      </c>
-      <c r="KH1" s="2" t="str">
-        <f>IF('emission sources'!$A294&lt;&gt;"",'emission sources'!$A294,"")</f>
-        <v/>
-      </c>
-      <c r="KI1" s="2" t="str">
-        <f>IF('emission sources'!$A295&lt;&gt;"",'emission sources'!$A295,"")</f>
-        <v/>
-      </c>
-      <c r="KJ1" s="2" t="str">
-        <f>IF('emission sources'!$A296&lt;&gt;"",'emission sources'!$A296,"")</f>
-        <v/>
-      </c>
-      <c r="KK1" s="2" t="str">
-        <f>IF('emission sources'!$A297&lt;&gt;"",'emission sources'!$A297,"")</f>
-        <v/>
-      </c>
-      <c r="KL1" s="2" t="str">
-        <f>IF('emission sources'!$A298&lt;&gt;"",'emission sources'!$A298,"")</f>
-        <v/>
-      </c>
-      <c r="KM1" s="2" t="str">
-        <f>IF('emission sources'!$A299&lt;&gt;"",'emission sources'!$A299,"")</f>
-        <v/>
-      </c>
-      <c r="KN1" s="2" t="str">
-        <f>IF('emission sources'!$A300&lt;&gt;"",'emission sources'!$A300,"")</f>
-        <v/>
-      </c>
-      <c r="KO1" s="2" t="str">
-        <f>IF('emission sources'!$A301&lt;&gt;"",'emission sources'!$A301,"")</f>
-        <v/>
-      </c>
-      <c r="KP1" s="2" t="str">
-        <f>IF('emission sources'!$A302&lt;&gt;"",'emission sources'!$A302,"")</f>
-        <v/>
-      </c>
-      <c r="KQ1" s="2" t="str">
-        <f>IF('emission sources'!$A303&lt;&gt;"",'emission sources'!$A303,"")</f>
-        <v/>
-      </c>
-      <c r="KR1" s="2" t="str">
-        <f>IF('emission sources'!$A304&lt;&gt;"",'emission sources'!$A304,"")</f>
-        <v/>
-      </c>
-      <c r="KS1" s="2" t="str">
-        <f>IF('emission sources'!$A305&lt;&gt;"",'emission sources'!$A305,"")</f>
-        <v/>
-      </c>
-      <c r="KT1" s="2" t="str">
-        <f>IF('emission sources'!$A306&lt;&gt;"",'emission sources'!$A306,"")</f>
-        <v/>
-      </c>
-      <c r="KU1" s="2" t="str">
-        <f>IF('emission sources'!$A307&lt;&gt;"",'emission sources'!$A307,"")</f>
-        <v/>
-      </c>
-      <c r="KV1" s="2" t="str">
-        <f>IF('emission sources'!$A308&lt;&gt;"",'emission sources'!$A308,"")</f>
-        <v/>
-      </c>
-      <c r="KW1" s="2" t="str">
-        <f>IF('emission sources'!$A309&lt;&gt;"",'emission sources'!$A309,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>IF(interventions!$A2&lt;&gt;"",interventions!$A2,"")</f>
         <v>solar_system</v>
@@ -7277,156 +7186,81 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-    </row>
-    <row r="3" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>IF(interventions!$A3&lt;&gt;"",interventions!$A3,"")</f>
-        <v>carpooling_and_ride_sharing</v>
+        <v>low_gpw_anaesthetic_gases</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-    </row>
-    <row r="4" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>IF(interventions!$A4&lt;&gt;"",interventions!$A4,"")</f>
-        <v>low_gpw_anaesthetic_gases</v>
+        <v>low_gpw_refridgerant_gases</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-    </row>
-    <row r="5" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>IF(interventions!$A5&lt;&gt;"",interventions!$A5,"")</f>
-        <v>low_gpw_refridgerant_gases</v>
+        <v>low_gpw_inhalers</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-    </row>
-    <row r="6" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>IF(interventions!$A6&lt;&gt;"",interventions!$A6,"")</f>
-        <v>water_efficient_fixtures_and_appliances</v>
+        <v>electric_vehicle</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-    </row>
-    <row r="7" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>IF(interventions!$A7&lt;&gt;"",interventions!$A7,"")</f>
-        <v>low_gpw_inhalers</v>
+        <v>waste_disposal</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -7439,28 +7273,15 @@
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-    </row>
-    <row r="8" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>IF(interventions!$A8&lt;&gt;"",interventions!$A8,"")</f>
-        <v/>
-      </c>
-      <c r="B8" s="4"/>
+        <v>led_lighting</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -7469,28 +7290,15 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-    </row>
-    <row r="9" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>IF(interventions!$A9&lt;&gt;"",interventions!$A9,"")</f>
-        <v/>
-      </c>
-      <c r="B9" s="4"/>
+        <v>solar_water_heating _system</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -7499,28 +7307,15 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-    </row>
-    <row r="10" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>IF(interventions!$A10&lt;&gt;"",interventions!$A10,"")</f>
-        <v/>
-      </c>
-      <c r="B10" s="4"/>
+        <v>solar_water_pumping _system</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -7529,28 +7324,15 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-    </row>
-    <row r="11" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>IF(interventions!$A11&lt;&gt;"",interventions!$A11,"")</f>
-        <v/>
-      </c>
-      <c r="B11" s="4"/>
+        <v>water_pumps</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -7559,89 +7341,52 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-    </row>
-    <row r="12" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f>IF(interventions!$A12&lt;&gt;"",interventions!$A12,"")</f>
-        <v/>
-      </c>
-      <c r="B12" s="4"/>
+        <v>air_conditioning _units</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-    </row>
-    <row r="13" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>IF(interventions!$A13&lt;&gt;"",interventions!$A13,"")</f>
-        <v/>
+        <v>energy_efficient _refrigetors</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-    </row>
-    <row r="14" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>IF(interventions!$A14&lt;&gt;"",interventions!$A14,"")</f>
-        <v/>
+        <v>alternative_cooking _gas</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -7649,23 +7394,8 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-    </row>
-    <row r="15" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>IF(interventions!$A15&lt;&gt;"",interventions!$A15,"")</f>
         <v/>
@@ -7679,23 +7409,8 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-    </row>
-    <row r="16" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>IF(interventions!$A16&lt;&gt;"",interventions!$A16,"")</f>
         <v/>
@@ -7709,23 +7424,8 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f>IF(interventions!$A17&lt;&gt;"",interventions!$A17,"")</f>
         <v/>
@@ -7739,23 +7439,8 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f>IF(interventions!$A18&lt;&gt;"",interventions!$A18,"")</f>
         <v/>
@@ -7769,23 +7454,8 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f>IF(interventions!$A19&lt;&gt;"",interventions!$A19,"")</f>
         <v/>
@@ -7799,23 +7469,8 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f>IF(interventions!$A20&lt;&gt;"",interventions!$A20,"")</f>
         <v/>
@@ -7829,23 +7484,8 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f>IF(interventions!$A21&lt;&gt;"",interventions!$A21,"")</f>
         <v/>
@@ -7859,23 +7499,8 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>IF(interventions!$A22&lt;&gt;"",interventions!$A22,"")</f>
         <v/>
@@ -7889,23 +7514,8 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f>IF(interventions!$A23&lt;&gt;"",interventions!$A23,"")</f>
         <v/>
@@ -7919,23 +7529,8 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f>IF(interventions!$A24&lt;&gt;"",interventions!$A24,"")</f>
         <v/>
@@ -7949,23 +7544,8 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f>IF(interventions!$A25&lt;&gt;"",interventions!$A25,"")</f>
         <v/>
@@ -7979,23 +7559,8 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f>IF(interventions!$A26&lt;&gt;"",interventions!$A26,"")</f>
         <v/>
@@ -8009,23 +7574,8 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f>IF(interventions!$A27&lt;&gt;"",interventions!$A27,"")</f>
         <v/>
@@ -8039,23 +7589,8 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f>IF(interventions!$A28&lt;&gt;"",interventions!$A28,"")</f>
         <v/>
@@ -8069,23 +7604,8 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f>IF(interventions!$A29&lt;&gt;"",interventions!$A29,"")</f>
         <v/>
@@ -8099,23 +7619,8 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
         <f>IF(interventions!$A30&lt;&gt;"",interventions!$A30,"")</f>
         <v/>
@@ -8129,23 +7634,8 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
         <f>IF(interventions!$A31&lt;&gt;"",interventions!$A31,"")</f>
         <v/>
@@ -8159,23 +7649,8 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
         <f>IF(interventions!$A32&lt;&gt;"",interventions!$A32,"")</f>
         <v/>
@@ -8189,23 +7664,8 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
         <f>IF(interventions!$A33&lt;&gt;"",interventions!$A33,"")</f>
         <v/>
@@ -8219,23 +7679,8 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
         <f>IF(interventions!$A34&lt;&gt;"",interventions!$A34,"")</f>
         <v/>
@@ -8249,23 +7694,8 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
         <f>IF(interventions!$A35&lt;&gt;"",interventions!$A35,"")</f>
         <v/>
@@ -8279,23 +7709,8 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
         <f>IF(interventions!$A36&lt;&gt;"",interventions!$A36,"")</f>
         <v/>
@@ -8309,209 +7724,74 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="str">
         <f>IF(interventions!$A37&lt;&gt;"",interventions!$A37,"")</f>
         <v/>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="str">
         <f>IF(interventions!$A38&lt;&gt;"",interventions!$A38,"")</f>
         <v/>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
         <f>IF(interventions!$A39&lt;&gt;"",interventions!$A39,"")</f>
         <v/>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="str">
         <f>IF(interventions!$A40&lt;&gt;"",interventions!$A40,"")</f>
         <v/>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="str">
         <f>IF(interventions!$A41&lt;&gt;"",interventions!$A41,"")</f>
         <v/>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="str">
         <f>IF(interventions!$A42&lt;&gt;"",interventions!$A42,"")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f>IF(interventions!$A43&lt;&gt;"",interventions!$A43,"")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
         <f>IF(interventions!$A44&lt;&gt;"",interventions!$A44,"")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="str">
         <f>IF(interventions!$A45&lt;&gt;"",interventions!$A45,"")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="str">
         <f>IF(interventions!$A46&lt;&gt;"",interventions!$A46,"")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="str">
         <f>IF(interventions!$A47&lt;&gt;"",interventions!$A47,"")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="str">
         <f>IF(interventions!$A48&lt;&gt;"",interventions!$A48,"")</f>
         <v/>
@@ -10053,44 +9333,30 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="2" t="str">
-        <f>IF(interventions!$A305&lt;&gt;"",interventions!$A305,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="2" t="str">
-        <f>IF(interventions!$A306&lt;&gt;"",interventions!$A306,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="2" t="str">
-        <f>IF(interventions!$A307&lt;&gt;"",interventions!$A307,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="2" t="str">
-        <f>IF(interventions!$A308&lt;&gt;"",interventions!$A308,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="2" t="str">
-        <f>IF(interventions!$A309&lt;&gt;"",interventions!$A309,"")</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:Q9">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="y">
+  <conditionalFormatting sqref="B2:J6">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="y">
+      <formula>NOT(ISERROR(SEARCH("y",E12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="y">
+      <formula>NOT(ISERROR(SEARCH("y",F7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="y">
+      <formula>NOT(ISERROR(SEARCH("y",J14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10099,26 +9365,25 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:KW309"/>
+  <dimension ref="A1:KR309"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10128,51 +9393,51 @@
       </c>
       <c r="C1" s="2" t="str">
         <f>IF(interventions!$A3&lt;&gt;"",interventions!$A3&amp;"_effect","")</f>
-        <v>carpooling_and_ride_sharing_effect</v>
+        <v>low_gpw_anaesthetic_gases_effect</v>
       </c>
       <c r="D1" s="2" t="str">
         <f>IF(interventions!$A4&lt;&gt;"",interventions!$A4&amp;"_effect","")</f>
-        <v>low_gpw_anaesthetic_gases_effect</v>
+        <v>low_gpw_refridgerant_gases_effect</v>
       </c>
       <c r="E1" s="2" t="str">
         <f>IF(interventions!$A5&lt;&gt;"",interventions!$A5&amp;"_effect","")</f>
-        <v>low_gpw_refridgerant_gases_effect</v>
+        <v>low_gpw_inhalers_effect</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>IF(interventions!$A6&lt;&gt;"",interventions!$A6&amp;"_effect","")</f>
-        <v>water_efficient_fixtures_and_appliances_effect</v>
+        <v>electric_vehicle_effect</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>IF(interventions!$A7&lt;&gt;"",interventions!$A7&amp;"_effect","")</f>
-        <v>low_gpw_inhalers_effect</v>
+        <v>waste_disposal_effect</v>
       </c>
       <c r="H1" s="2" t="str">
         <f>IF(interventions!$A8&lt;&gt;"",interventions!$A8&amp;"_effect","")</f>
-        <v/>
+        <v>led_lighting_effect</v>
       </c>
       <c r="I1" s="2" t="str">
         <f>IF(interventions!$A9&lt;&gt;"",interventions!$A9&amp;"_effect","")</f>
-        <v/>
+        <v>solar_water_heating _system_effect</v>
       </c>
       <c r="J1" s="2" t="str">
         <f>IF(interventions!$A10&lt;&gt;"",interventions!$A10&amp;"_effect","")</f>
-        <v/>
+        <v>solar_water_pumping _system_effect</v>
       </c>
       <c r="K1" s="2" t="str">
         <f>IF(interventions!$A11&lt;&gt;"",interventions!$A11&amp;"_effect","")</f>
-        <v/>
+        <v>water_pumps_effect</v>
       </c>
       <c r="L1" s="2" t="str">
         <f>IF(interventions!$A12&lt;&gt;"",interventions!$A12&amp;"_effect","")</f>
-        <v/>
+        <v>air_conditioning _units_effect</v>
       </c>
       <c r="M1" s="2" t="str">
         <f>IF(interventions!$A13&lt;&gt;"",interventions!$A13&amp;"_effect","")</f>
-        <v/>
+        <v>energy_efficient _refrigetors_effect</v>
       </c>
       <c r="N1" s="2" t="str">
         <f>IF(interventions!$A14&lt;&gt;"",interventions!$A14&amp;"_effect","")</f>
-        <v/>
+        <v>alternative_cooking _gas_effect</v>
       </c>
       <c r="O1" s="2" t="str">
         <f>IF(interventions!$A15&lt;&gt;"",interventions!$A15&amp;"_effect","")</f>
@@ -11334,130 +10599,131 @@
         <f>IF(interventions!$A304&lt;&gt;"",interventions!$A304&amp;"_effect","")</f>
         <v/>
       </c>
-      <c r="KS1" s="2" t="str">
-        <f>IF(interventions!$A305&lt;&gt;"",interventions!$A305&amp;"_effect","")</f>
-        <v/>
-      </c>
-      <c r="KT1" s="2" t="str">
-        <f>IF(interventions!$A306&lt;&gt;"",interventions!$A306&amp;"_effect","")</f>
-        <v/>
-      </c>
-      <c r="KU1" s="2" t="str">
-        <f>IF(interventions!$A307&lt;&gt;"",interventions!$A307&amp;"_effect","")</f>
-        <v/>
-      </c>
-      <c r="KV1" s="2" t="str">
-        <f>IF(interventions!$A308&lt;&gt;"",interventions!$A308&amp;"_effect","")</f>
-        <v/>
-      </c>
-      <c r="KW1" s="2" t="str">
-        <f>IF(interventions!$A309&lt;&gt;"",interventions!$A309&amp;"_effect","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>IF('study sites'!$A2&lt;&gt;"",'study sites'!$A2,"")</f>
-        <v>mt_darwin</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="B2" s="10">
-        <v>0.95</v>
+        <v>0.25</v>
       </c>
       <c r="C2">
-        <v>0.28000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="D2">
-        <v>0.99</v>
+        <v>0.18</v>
       </c>
       <c r="E2">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="F2">
-        <v>0.35</v>
+        <v>0.75</v>
       </c>
       <c r="G2">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:309" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>0.75</v>
+      </c>
+      <c r="I2">
+        <v>0.85</v>
+      </c>
+      <c r="J2">
+        <v>0.75</v>
+      </c>
+      <c r="K2">
+        <v>0.5</v>
+      </c>
+      <c r="L2">
+        <v>0.3</v>
+      </c>
+      <c r="M2">
+        <v>0.25</v>
+      </c>
+      <c r="N2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>IF('study sites'!$A3&lt;&gt;"",'study sites'!$A3,"")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>IF('study sites'!$A4&lt;&gt;"",'study sites'!$A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>IF('study sites'!$A5&lt;&gt;"",'study sites'!$A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>IF('study sites'!$A6&lt;&gt;"",'study sites'!$A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>IF('study sites'!$A7&lt;&gt;"",'study sites'!$A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>IF('study sites'!$A8&lt;&gt;"",'study sites'!$A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>IF('study sites'!$A9&lt;&gt;"",'study sites'!$A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>IF('study sites'!$A10&lt;&gt;"",'study sites'!$A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>IF('study sites'!$A11&lt;&gt;"",'study sites'!$A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f>IF('study sites'!$A12&lt;&gt;"",'study sites'!$A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>IF('study sites'!$A13&lt;&gt;"",'study sites'!$A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>IF('study sites'!$A14&lt;&gt;"",'study sites'!$A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>IF('study sites'!$A15&lt;&gt;"",'study sites'!$A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>IF('study sites'!$A16&lt;&gt;"",'study sites'!$A16,"")</f>
         <v/>
@@ -13232,26 +12498,30 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:KW309"/>
+  <dimension ref="A1:KR309"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:309" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:304" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13261,51 +12531,51 @@
       </c>
       <c r="C1" s="2" t="str">
         <f>IF(interventions!$A3&lt;&gt;"",interventions!$A3&amp;"_cost","")</f>
-        <v>carpooling_and_ride_sharing_cost</v>
+        <v>low_gpw_anaesthetic_gases_cost</v>
       </c>
       <c r="D1" s="2" t="str">
         <f>IF(interventions!$A4&lt;&gt;"",interventions!$A4&amp;"_cost","")</f>
-        <v>low_gpw_anaesthetic_gases_cost</v>
+        <v>low_gpw_refridgerant_gases_cost</v>
       </c>
       <c r="E1" s="2" t="str">
         <f>IF(interventions!$A5&lt;&gt;"",interventions!$A5&amp;"_cost","")</f>
-        <v>low_gpw_refridgerant_gases_cost</v>
+        <v>low_gpw_inhalers_cost</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>IF(interventions!$A6&lt;&gt;"",interventions!$A6&amp;"_cost","")</f>
-        <v>water_efficient_fixtures_and_appliances_cost</v>
+        <v>electric_vehicle_cost</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>IF(interventions!$A7&lt;&gt;"",interventions!$A7&amp;"_cost","")</f>
-        <v>low_gpw_inhalers_cost</v>
+        <v>waste_disposal_cost</v>
       </c>
       <c r="H1" s="2" t="str">
         <f>IF(interventions!$A8&lt;&gt;"",interventions!$A8&amp;"_cost","")</f>
-        <v/>
+        <v>led_lighting_cost</v>
       </c>
       <c r="I1" s="2" t="str">
         <f>IF(interventions!$A9&lt;&gt;"",interventions!$A9&amp;"_cost","")</f>
-        <v/>
+        <v>solar_water_heating _system_cost</v>
       </c>
       <c r="J1" s="2" t="str">
         <f>IF(interventions!$A10&lt;&gt;"",interventions!$A10&amp;"_cost","")</f>
-        <v/>
+        <v>solar_water_pumping _system_cost</v>
       </c>
       <c r="K1" s="2" t="str">
         <f>IF(interventions!$A11&lt;&gt;"",interventions!$A11&amp;"_cost","")</f>
-        <v/>
+        <v>water_pumps_cost</v>
       </c>
       <c r="L1" s="2" t="str">
         <f>IF(interventions!$A12&lt;&gt;"",interventions!$A12&amp;"_cost","")</f>
-        <v/>
+        <v>air_conditioning _units_cost</v>
       </c>
       <c r="M1" s="2" t="str">
         <f>IF(interventions!$A13&lt;&gt;"",interventions!$A13&amp;"_cost","")</f>
-        <v/>
+        <v>energy_efficient _refrigetors_cost</v>
       </c>
       <c r="N1" s="2" t="str">
         <f>IF(interventions!$A14&lt;&gt;"",interventions!$A14&amp;"_cost","")</f>
-        <v/>
+        <v>alternative_cooking _gas_cost</v>
       </c>
       <c r="O1" s="2" t="str">
         <f>IF(interventions!$A15&lt;&gt;"",interventions!$A15&amp;"_cost","")</f>
@@ -14467,54 +13737,53 @@
         <f>IF(interventions!$A304&lt;&gt;"",interventions!$A304&amp;"_cost","")</f>
         <v/>
       </c>
-      <c r="KS1" s="2" t="str">
-        <f>IF(interventions!$A305&lt;&gt;"",interventions!$A305&amp;"_cost","")</f>
-        <v/>
-      </c>
-      <c r="KT1" s="2" t="str">
-        <f>IF(interventions!$A306&lt;&gt;"",interventions!$A306&amp;"_cost","")</f>
-        <v/>
-      </c>
-      <c r="KU1" s="2" t="str">
-        <f>IF(interventions!$A307&lt;&gt;"",interventions!$A307&amp;"_cost","")</f>
-        <v/>
-      </c>
-      <c r="KV1" s="2" t="str">
-        <f>IF(interventions!$A308&lt;&gt;"",interventions!$A308&amp;"_cost","")</f>
-        <v/>
-      </c>
-      <c r="KW1" s="2" t="str">
-        <f>IF(interventions!$A309&lt;&gt;"",interventions!$A309&amp;"_cost","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>IF('study sites'!$A2&lt;&gt;"",'study sites'!$A2,"")</f>
-        <v>mt_darwin</v>
+        <v>AKHS_Mombasa</v>
       </c>
       <c r="B2" s="1">
-        <v>62500</v>
+        <v>421135.25752090407</v>
       </c>
       <c r="C2" s="1">
-        <v>18800</v>
+        <v>50000</v>
       </c>
       <c r="D2" s="1">
-        <v>358</v>
+        <v>10000</v>
       </c>
       <c r="E2" s="1">
-        <v>1153</v>
+        <v>30000</v>
       </c>
       <c r="F2" s="1">
-        <v>1100</v>
-      </c>
-      <c r="G2" s="1">
-        <v>19734</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:309" x14ac:dyDescent="0.25">
+        <v>41000</v>
+      </c>
+      <c r="G2" s="12">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="12">
+        <v>12000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>39374.369999999995</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8000</v>
+      </c>
+      <c r="K2" s="1">
+        <v>11475</v>
+      </c>
+      <c r="L2" s="1">
+        <v>348460</v>
+      </c>
+      <c r="M2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="N2" s="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="3" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>IF('study sites'!$A3&lt;&gt;"",'study sites'!$A3,"")</f>
         <v/>
@@ -14524,11 +13793,8 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>IF('study sites'!$A4&lt;&gt;"",'study sites'!$A4,"")</f>
         <v/>
@@ -14538,11 +13804,8 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>IF('study sites'!$A5&lt;&gt;"",'study sites'!$A5,"")</f>
         <v/>
@@ -14552,11 +13815,8 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>IF('study sites'!$A6&lt;&gt;"",'study sites'!$A6,"")</f>
         <v/>
@@ -14566,11 +13826,8 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>IF('study sites'!$A7&lt;&gt;"",'study sites'!$A7,"")</f>
         <v/>
@@ -14580,11 +13837,8 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>IF('study sites'!$A8&lt;&gt;"",'study sites'!$A8,"")</f>
         <v/>
@@ -14594,11 +13848,8 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>IF('study sites'!$A9&lt;&gt;"",'study sites'!$A9,"")</f>
         <v/>
@@ -14608,53 +13859,50 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:309" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>IF('study sites'!$A10&lt;&gt;"",'study sites'!$A10,"")</f>
         <v/>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>IF('study sites'!$A11&lt;&gt;"",'study sites'!$A11,"")</f>
         <v/>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f>IF('study sites'!$A12&lt;&gt;"",'study sites'!$A12,"")</f>
         <v/>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>IF('study sites'!$A13&lt;&gt;"",'study sites'!$A13,"")</f>
         <v/>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>IF('study sites'!$A14&lt;&gt;"",'study sites'!$A14,"")</f>
         <v/>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>IF('study sites'!$A15&lt;&gt;"",'study sites'!$A15,"")</f>
         <v/>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:309" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>IF('study sites'!$A16&lt;&gt;"",'study sites'!$A16,"")</f>
         <v/>

--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="facility" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="emission sources" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="emission data" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="interventions" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="emission targets" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="effect sizes" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="implementation costs" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="maintenance costs" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="interventions" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="emission sources" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="emission data" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="interventions1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="emission targets" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="effect sizes" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="implementation costs" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="maintenance costs" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +452,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Code Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Display Name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -596,7 +628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -613,37 +645,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Grid_electricity</t>
+          <t>facilities</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Grid_Electricity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Grid_Gas</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Bottled_Gas</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Liquid_Fuel</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Vehicle_Fuel_Owned</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Business_Travel</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Anaesthetic_Gases</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -672,13 +704,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,120 +730,12 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Recycling_WasteSegregation</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Recycling &amp; Segregation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SolarSystem_Installation</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Solar Energy</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Efficient_Chillers_Upgrade</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Efficient Chillers</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Lighting_Efficiency</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>LED &amp; Lighting Control</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>LowGWP_Refrigerants</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Low-GWP Refrigerants</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Hybrid_Car_Use</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hybrid Vehicles</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>LowGWP_Inhalers</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Low-GWP Inhalers</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LowGWP_AnaestheticGases</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Eco-friendly Anesthetics</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Staff_Training_Awareness</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Emissions Training &amp; Conservation</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -833,32 +757,32 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Grid_Electricity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Grid_Gas</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Bottled_Gas</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Liquid_Fuel</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Vehicle_Fuel_Owned</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Business_Travel</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Anaesthetic_Gases</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -938,14 +862,14 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
     </row>
@@ -978,16 +902,16 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
@@ -1026,12 +950,12 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1044,12 +968,12 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -1068,82 +992,22 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>y</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Efficient_Chillers_Upgrade_effect</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Lighting_Efficiency_effect</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>LowGWP_Refrigerants_effect</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Hybrid_Car_Use_effect</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>LowGWP_Inhalers_effect</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>LowGWP_AnaestheticGases_effect</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Staff_Training_Awareness_effect</t>
         </is>
       </c>
     </row>
@@ -1174,47 +1038,47 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Recycling_WasteSegregation_cost</t>
+          <t>Recycling_WasteSegregation_effect</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>SolarSystem_Installation_cost</t>
+          <t>SolarSystem_Installation_effect</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Efficient_Chillers_Upgrade_cost</t>
+          <t>Efficient_Chillers_Upgrade_effect</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Lighting_Efficiency_cost</t>
+          <t>Lighting_Efficiency_effect</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>LowGWP_Refrigerants_cost</t>
+          <t>LowGWP_Refrigerants_effect</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Hybrid_Car_Use_cost</t>
+          <t>Hybrid_Car_Use_effect</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>LowGWP_Inhalers_cost</t>
+          <t>LowGWP_Inhalers_effect</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>LowGWP_AnaestheticGases_cost</t>
+          <t>LowGWP_AnaestheticGases_effect</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Staff_Training_Awareness_cost</t>
+          <t>Staff_Training_Awareness_effect</t>
         </is>
       </c>
     </row>
@@ -1292,4 +1156,75 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>facilities</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Recycling_WasteSegregation_cost</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SolarSystem_Installation_cost</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Efficient_Chillers_Upgrade_cost</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Lighting_Efficiency_cost</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>LowGWP_Refrigerants_cost</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Hybrid_Car_Use_cost</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>LowGWP_Inhalers_cost</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>LowGWP_AnaestheticGases_cost</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Staff_Training_Awareness_cost</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>